--- a/SQ1 Leaderboard-Points.xlsx
+++ b/SQ1 Leaderboard-Points.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="265">
   <si>
     <t>Name</t>
   </si>
@@ -47,776 +47,776 @@
     <t>3rd Place</t>
   </si>
   <si>
+    <t>Sunaina Sunil</t>
+  </si>
+  <si>
+    <t>201ME357</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Shashank Raju Singit</t>
+  </si>
+  <si>
+    <t>201MN053</t>
+  </si>
+  <si>
+    <t>Pratheek Bhat U</t>
+  </si>
+  <si>
+    <t>201MN042</t>
+  </si>
+  <si>
+    <t>Vedika Gadia</t>
+  </si>
+  <si>
+    <t>201EE264</t>
+  </si>
+  <si>
+    <t>Vaishali S</t>
+  </si>
+  <si>
+    <t>201EE263</t>
+  </si>
+  <si>
+    <t>Poorvi Joshi</t>
+  </si>
+  <si>
+    <t>201EE140</t>
+  </si>
+  <si>
+    <t>Shivavasthan D</t>
+  </si>
+  <si>
+    <t>201ME154</t>
+  </si>
+  <si>
+    <t>S M Abdul Azeem</t>
+  </si>
+  <si>
+    <t>201CH406</t>
+  </si>
+  <si>
+    <t>Abhai Ponna</t>
+  </si>
+  <si>
+    <t>201CH001</t>
+  </si>
+  <si>
+    <t>Vishruth M</t>
+  </si>
+  <si>
+    <t>201IT167</t>
+  </si>
+  <si>
+    <t>SHIVA SAI</t>
+  </si>
+  <si>
+    <t>201IT214</t>
+  </si>
+  <si>
+    <t>Shalini C</t>
+  </si>
+  <si>
+    <t>210CS255</t>
+  </si>
+  <si>
+    <t>Seetha</t>
+  </si>
+  <si>
+    <t>210MN020</t>
+  </si>
+  <si>
+    <t>SANYU DSOUZA</t>
+  </si>
+  <si>
+    <t>201CH051</t>
+  </si>
+  <si>
+    <t>Samyak Sanjay Sand</t>
+  </si>
+  <si>
+    <t>201CS251</t>
+  </si>
+  <si>
+    <t>Ronit Kumar</t>
+  </si>
+  <si>
+    <t>201EC256</t>
+  </si>
+  <si>
+    <t>Rajdita Datta</t>
+  </si>
+  <si>
+    <t>201MT045</t>
+  </si>
+  <si>
+    <t>Poorna Hegde</t>
+  </si>
+  <si>
+    <t>201IT240</t>
+  </si>
+  <si>
+    <t>Mohammed Ayman Nawaz</t>
+  </si>
+  <si>
+    <t>201IT236</t>
+  </si>
+  <si>
+    <t>JOSHI</t>
+  </si>
+  <si>
+    <t>201EC133</t>
+  </si>
+  <si>
+    <t>Ayush Baghel</t>
+  </si>
+  <si>
+    <t>201ee113</t>
+  </si>
+  <si>
+    <t>Anjishnu Laskar</t>
+  </si>
+  <si>
+    <t>201EE208</t>
+  </si>
+  <si>
+    <t>Anirudh Prabhakaran</t>
+  </si>
+  <si>
+    <t>201EC106</t>
+  </si>
+  <si>
+    <t>ALOKIK KUMAR SINHA</t>
+  </si>
+  <si>
+    <t>201CH008</t>
+  </si>
+  <si>
+    <t>Vishal shambhu</t>
+  </si>
+  <si>
+    <t>201MT062</t>
+  </si>
+  <si>
+    <t>Vinayak Vatsalya J</t>
+  </si>
+  <si>
+    <t>201IT266</t>
+  </si>
+  <si>
+    <t>Vijay</t>
+  </si>
+  <si>
+    <t>201CV160</t>
+  </si>
+  <si>
+    <t>Venumadhav</t>
+  </si>
+  <si>
+    <t>201mt019</t>
+  </si>
+  <si>
+    <t>Vanessa Fernandes</t>
+  </si>
+  <si>
+    <t>201IT164</t>
+  </si>
+  <si>
+    <t>Vamshik M</t>
+  </si>
+  <si>
+    <t>201ME364</t>
+  </si>
+  <si>
+    <t>Vaishnovi S Pandith</t>
+  </si>
+  <si>
+    <t>201MN062</t>
+  </si>
+  <si>
+    <t>T Naga Tarun</t>
+  </si>
+  <si>
+    <t>201cs261</t>
+  </si>
+  <si>
+    <t>Swetha Thomas</t>
+  </si>
+  <si>
+    <t>201IT262</t>
+  </si>
+  <si>
+    <t>Suggu Sudheer</t>
+  </si>
+  <si>
+    <t>201IT260</t>
+  </si>
+  <si>
+    <t>Sonam Swaroop Dash</t>
+  </si>
+  <si>
+    <t>201ME256</t>
+  </si>
+  <si>
+    <t>Sivani</t>
+  </si>
+  <si>
+    <t>201cs229</t>
+  </si>
+  <si>
+    <t>Shubham Kumar Yadav</t>
+  </si>
+  <si>
+    <t>201me254</t>
+  </si>
+  <si>
+    <t>Shreyas Waykar</t>
+  </si>
+  <si>
+    <t>201IT161</t>
+  </si>
+  <si>
+    <t>SHREYAS</t>
+  </si>
+  <si>
+    <t>201ee253</t>
+  </si>
+  <si>
+    <t>Shlok Bhosale</t>
+  </si>
+  <si>
+    <t>201IT258</t>
+  </si>
+  <si>
+    <t>Shashank</t>
+  </si>
+  <si>
+    <t>201ME152</t>
+  </si>
+  <si>
+    <t>Shaik Dilshad Begum</t>
+  </si>
+  <si>
+    <t>201ME151</t>
+  </si>
+  <si>
+    <t>Samith Hegde</t>
+  </si>
+  <si>
+    <t>201ME349</t>
+  </si>
+  <si>
+    <t>Sai Kokare</t>
+  </si>
+  <si>
+    <t>201ee248</t>
+  </si>
+  <si>
+    <t>Sahana</t>
+  </si>
+  <si>
+    <t>201MT048</t>
+  </si>
+  <si>
+    <t>Saagar SP</t>
+  </si>
+  <si>
+    <t>201IT252</t>
+  </si>
+  <si>
+    <t>S. K. Aswin</t>
+  </si>
+  <si>
+    <t>201MT053</t>
+  </si>
+  <si>
+    <t>Rohan Sorathiya</t>
+  </si>
+  <si>
+    <t>201cv244</t>
+  </si>
+  <si>
+    <t>Rishi P Jain</t>
+  </si>
+  <si>
+    <t>201IT249</t>
+  </si>
+  <si>
+    <t>Radhika Rathi</t>
+  </si>
+  <si>
+    <t>201CH043</t>
+  </si>
+  <si>
+    <t>Praneeth S</t>
+  </si>
+  <si>
+    <t>201CV138</t>
+  </si>
+  <si>
+    <t>Pooja Gummuluru</t>
+  </si>
+  <si>
+    <t>201EC145</t>
+  </si>
+  <si>
+    <t>P J Rachana</t>
+  </si>
+  <si>
+    <t>201ME241</t>
+  </si>
+  <si>
+    <t>Meetali Srivastava</t>
+  </si>
+  <si>
+    <t>201ME234</t>
+  </si>
+  <si>
+    <t>Likkhith K Aditya</t>
+  </si>
+  <si>
+    <t>201EC130</t>
+  </si>
+  <si>
+    <t>L. Koushik</t>
+  </si>
+  <si>
+    <t>201IT131</t>
+  </si>
+  <si>
+    <t>Kyathi Charvi</t>
+  </si>
+  <si>
+    <t>201me330</t>
+  </si>
+  <si>
+    <t>KAMISETTY ABHIRAM</t>
+  </si>
+  <si>
+    <t>201CV223</t>
+  </si>
+  <si>
+    <t>Hrishita baidya</t>
+  </si>
+  <si>
+    <t>201me322</t>
+  </si>
+  <si>
+    <t>Himanshu</t>
+  </si>
+  <si>
+    <t>201ME122</t>
+  </si>
+  <si>
+    <t>Hamna Muslihuddeen</t>
+  </si>
+  <si>
+    <t>201IT221</t>
+  </si>
+  <si>
+    <t>GONDIMALLA FAREED SHANAWAZ</t>
+  </si>
+  <si>
+    <t>201ME220</t>
+  </si>
+  <si>
+    <t>Dhruvil</t>
+  </si>
+  <si>
+    <t>201IT119</t>
+  </si>
+  <si>
+    <t>Chinmaya Sharma</t>
+  </si>
+  <si>
+    <t>201EC113</t>
+  </si>
+  <si>
+    <t>Chandini Rongali</t>
+  </si>
+  <si>
+    <t>201CS115</t>
+  </si>
+  <si>
+    <t>Ayush Kumar Gupta</t>
+  </si>
+  <si>
+    <t>201mn014</t>
+  </si>
+  <si>
+    <t>Arjun Gowda</t>
+  </si>
+  <si>
+    <t>201IT210</t>
+  </si>
+  <si>
+    <t>Anshu Suman</t>
+  </si>
+  <si>
+    <t>201IT208</t>
+  </si>
+  <si>
+    <t>Anish Fulzele</t>
+  </si>
+  <si>
+    <t>201CH011</t>
+  </si>
+  <si>
+    <t>AMRIT RAJ</t>
+  </si>
+  <si>
+    <t>201ME314</t>
+  </si>
+  <si>
+    <t>Ameya Patil</t>
+  </si>
+  <si>
+    <t>201ME340</t>
+  </si>
+  <si>
+    <t>Amey Maheshwari</t>
+  </si>
+  <si>
+    <t>201ME108</t>
+  </si>
+  <si>
+    <t>Akshat Raj Singh</t>
+  </si>
+  <si>
+    <t>201MT005</t>
+  </si>
+  <si>
+    <t>AKASH MRITHYUNJAY HARUGERI</t>
+  </si>
+  <si>
+    <t>201cv102</t>
+  </si>
+  <si>
+    <t>ABHIMANYU SHARMA</t>
+  </si>
+  <si>
+    <t>201ME301</t>
+  </si>
+  <si>
+    <t>Protyush Roy</t>
+  </si>
+  <si>
+    <t>201MT041</t>
+  </si>
+  <si>
+    <t>Vabilisetti Prakhya Viswa Vidya Nischayi</t>
+  </si>
+  <si>
+    <t>201ME363</t>
+  </si>
+  <si>
+    <t>Sritam Panigrahi</t>
+  </si>
+  <si>
+    <t>201ME355</t>
+  </si>
+  <si>
+    <t>Somesh S</t>
+  </si>
+  <si>
+    <t>201EE254</t>
+  </si>
+  <si>
+    <t>SAMPATHKUMAR TARUN</t>
+  </si>
+  <si>
+    <t>201MN048</t>
+  </si>
+  <si>
+    <t>Rohit C</t>
+  </si>
+  <si>
+    <t>201MN046</t>
+  </si>
+  <si>
+    <t>Rahul R</t>
+  </si>
+  <si>
+    <t>201EE143</t>
+  </si>
+  <si>
+    <t>Pranav V Bagal</t>
+  </si>
+  <si>
+    <t>201mt037</t>
+  </si>
+  <si>
+    <t>Piyush Dubey</t>
+  </si>
+  <si>
+    <t>201ME242</t>
+  </si>
+  <si>
+    <t>Nikhil Reddy</t>
+  </si>
+  <si>
+    <t>201EC241</t>
+  </si>
+  <si>
+    <t>M R Rishi</t>
+  </si>
+  <si>
+    <t>201ME131</t>
+  </si>
+  <si>
+    <t>Kushal R</t>
+  </si>
+  <si>
+    <t>201ME230</t>
+  </si>
+  <si>
+    <t>Jaya Chandra</t>
+  </si>
+  <si>
+    <t>201EE249</t>
+  </si>
+  <si>
+    <t>Harsha Satija</t>
+  </si>
+  <si>
+    <t>201MT020</t>
+  </si>
+  <si>
+    <t>Harsh Ghandwani</t>
+  </si>
+  <si>
+    <t>201CS120</t>
+  </si>
+  <si>
+    <t>Harsh Eaj</t>
+  </si>
+  <si>
+    <t>201CV121</t>
+  </si>
+  <si>
+    <t>Harish</t>
+  </si>
+  <si>
+    <t>201ch024</t>
+  </si>
+  <si>
+    <t>HARI KRISHNA</t>
+  </si>
+  <si>
+    <t>201MN035</t>
+  </si>
+  <si>
+    <t>Goutham V R</t>
+  </si>
+  <si>
+    <t>201ME221</t>
+  </si>
+  <si>
+    <t>Anirudh Agarwal</t>
+  </si>
+  <si>
+    <t>201MT006</t>
+  </si>
+  <si>
+    <t>Abhay Thorat</t>
+  </si>
+  <si>
+    <t>201MT058</t>
+  </si>
+  <si>
+    <t>Vandana kamal</t>
+  </si>
+  <si>
+    <t>201cv259</t>
+  </si>
+  <si>
+    <t>Tijin Abe Thomas</t>
+  </si>
+  <si>
+    <t>201CS262</t>
+  </si>
+  <si>
+    <t>Suhas S</t>
+  </si>
+  <si>
+    <t>201EC263</t>
+  </si>
+  <si>
+    <t>Sudhanva R</t>
+  </si>
+  <si>
+    <t>201CV152</t>
+  </si>
+  <si>
+    <t>Shashank SM</t>
+  </si>
+  <si>
+    <t>201CS257</t>
+  </si>
+  <si>
+    <t>Samiksha</t>
+  </si>
+  <si>
+    <t>201IT153</t>
+  </si>
+  <si>
+    <t>Raksha N</t>
+  </si>
+  <si>
+    <t>201IT246</t>
+  </si>
+  <si>
+    <t>Prerana Prakash</t>
+  </si>
+  <si>
+    <t>201EC147</t>
+  </si>
+  <si>
+    <t>Prathamesh Dongritot</t>
+  </si>
+  <si>
+    <t>201CS242</t>
+  </si>
+  <si>
+    <t>Prasad Savanur</t>
+  </si>
+  <si>
+    <t>201MT038</t>
+  </si>
+  <si>
+    <t>Palgun P</t>
+  </si>
+  <si>
+    <t>201EC141</t>
+  </si>
+  <si>
+    <t>Meghna Uppuluri</t>
+  </si>
+  <si>
+    <t>201EC237</t>
+  </si>
+  <si>
+    <t>Harish Gumnur</t>
+  </si>
+  <si>
+    <t>201IT223</t>
+  </si>
+  <si>
+    <t>Gagana</t>
+  </si>
+  <si>
+    <t>201EC228</t>
+  </si>
+  <si>
+    <t>Chandra Hasa Munduri</t>
+  </si>
+  <si>
+    <t>201ME336</t>
+  </si>
+  <si>
+    <t>Aryan Amit</t>
+  </si>
+  <si>
+    <t>201ME110</t>
+  </si>
+  <si>
     <t>Aditya Subhashchandra</t>
   </si>
   <si>
     <t>201ME106</t>
   </si>
   <si>
-    <t>Y</t>
+    <t>Adhith</t>
+  </si>
+  <si>
+    <t>201CS104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunal </t>
+  </si>
+  <si>
+    <t>201CS226</t>
+  </si>
+  <si>
+    <t>Jitin Viji</t>
+  </si>
+  <si>
+    <t>201CH027</t>
+  </si>
+  <si>
+    <t>Tushar Jyoti Sahariah</t>
+  </si>
+  <si>
+    <t>210ME259</t>
+  </si>
+  <si>
+    <t>Srungarapati Beaula</t>
+  </si>
+  <si>
+    <t>201CS159</t>
+  </si>
+  <si>
+    <t>Sanket</t>
+  </si>
+  <si>
+    <t>201CH050</t>
+  </si>
+  <si>
+    <t>Poorvi</t>
+  </si>
+  <si>
+    <t>201CS240</t>
+  </si>
+  <si>
+    <t>Ojas Agrawal</t>
+  </si>
+  <si>
+    <t>201CH042</t>
+  </si>
+  <si>
+    <t>Mohit Rajpurohit</t>
+  </si>
+  <si>
+    <t>201ME334</t>
+  </si>
+  <si>
+    <t>Manthan Mohite</t>
+  </si>
+  <si>
+    <t>201CH036</t>
+  </si>
+  <si>
+    <t>Kavya Bhat</t>
+  </si>
+  <si>
+    <t>201CS225</t>
+  </si>
+  <si>
+    <t>Devansh Singal</t>
+  </si>
+  <si>
+    <t>201ME216</t>
+  </si>
+  <si>
+    <t>Ayush</t>
+  </si>
+  <si>
+    <t>201CH014</t>
   </si>
   <si>
     <t>Akshita</t>
   </si>
   <si>
     <t>201ME207</t>
-  </si>
-  <si>
-    <t>Devansh Singal</t>
-  </si>
-  <si>
-    <t>201ME216</t>
-  </si>
-  <si>
-    <t>Harish Gumnur</t>
-  </si>
-  <si>
-    <t>201IT223</t>
-  </si>
-  <si>
-    <t>JOSHI</t>
-  </si>
-  <si>
-    <t>201EC133</t>
-  </si>
-  <si>
-    <t>Manthan Mohite</t>
-  </si>
-  <si>
-    <t>201CH036</t>
-  </si>
-  <si>
-    <t>Mohammed Ayman Nawaz</t>
-  </si>
-  <si>
-    <t>201IT236</t>
-  </si>
-  <si>
-    <t>Prerana Prakash</t>
-  </si>
-  <si>
-    <t>201EC147</t>
-  </si>
-  <si>
-    <t>Protyush Roy</t>
-  </si>
-  <si>
-    <t>201MT041</t>
-  </si>
-  <si>
-    <t>Radhika Rathi</t>
-  </si>
-  <si>
-    <t>201CH043</t>
-  </si>
-  <si>
-    <t>Rohit C</t>
-  </si>
-  <si>
-    <t>201MN046</t>
-  </si>
-  <si>
-    <t>Sahana</t>
-  </si>
-  <si>
-    <t>201MT048</t>
-  </si>
-  <si>
-    <t>Samiksha</t>
-  </si>
-  <si>
-    <t>201IT153</t>
-  </si>
-  <si>
-    <t>Shaik Dilshad Begum</t>
-  </si>
-  <si>
-    <t>201ME151</t>
-  </si>
-  <si>
-    <t>Shalini C</t>
-  </si>
-  <si>
-    <t>210CS255</t>
-  </si>
-  <si>
-    <t>Shivavasthan D</t>
-  </si>
-  <si>
-    <t>201ME154</t>
-  </si>
-  <si>
-    <t>Srungarapati Beaula</t>
-  </si>
-  <si>
-    <t>201CS159</t>
-  </si>
-  <si>
-    <t>Sunaina Sunil</t>
-  </si>
-  <si>
-    <t>201ME357</t>
-  </si>
-  <si>
-    <t>Shashank</t>
-  </si>
-  <si>
-    <t>201ME152</t>
-  </si>
-  <si>
-    <t>Vanessa Fernandes</t>
-  </si>
-  <si>
-    <t>201IT164</t>
-  </si>
-  <si>
-    <t>SAMPATHKUMAR TARUN</t>
-  </si>
-  <si>
-    <t>201MN048</t>
-  </si>
-  <si>
-    <t>Saagar SP</t>
-  </si>
-  <si>
-    <t>201IT252</t>
-  </si>
-  <si>
-    <t>Prasad Savanur</t>
-  </si>
-  <si>
-    <t>201MT038</t>
-  </si>
-  <si>
-    <t>Hamna Muslihuddeen</t>
-  </si>
-  <si>
-    <t>201IT221</t>
-  </si>
-  <si>
-    <t>ALOKIK KUMAR SINHA</t>
-  </si>
-  <si>
-    <t>201CH008</t>
-  </si>
-  <si>
-    <t>Anjishnu Laskar</t>
-  </si>
-  <si>
-    <t>201EE208</t>
-  </si>
-  <si>
-    <t>ABHIMANYU SHARMA</t>
-  </si>
-  <si>
-    <t>201ME301</t>
-  </si>
-  <si>
-    <t>Meghna Uppuluri</t>
-  </si>
-  <si>
-    <t>201EC237</t>
-  </si>
-  <si>
-    <t>Chandini Rongali</t>
-  </si>
-  <si>
-    <t>201CS115</t>
-  </si>
-  <si>
-    <t>Kyathi Charvi</t>
-  </si>
-  <si>
-    <t>201me330</t>
-  </si>
-  <si>
-    <t>Sai Kokare</t>
-  </si>
-  <si>
-    <t>201ee248</t>
-  </si>
-  <si>
-    <t>L. Koushik</t>
-  </si>
-  <si>
-    <t>201IT131</t>
-  </si>
-  <si>
-    <t>Meetali Srivastava</t>
-  </si>
-  <si>
-    <t>201ME234</t>
-  </si>
-  <si>
-    <t>Nikhil Reddy</t>
-  </si>
-  <si>
-    <t>201EC241</t>
-  </si>
-  <si>
-    <t>Anirudh Agarwal</t>
-  </si>
-  <si>
-    <t>201MT006</t>
-  </si>
-  <si>
-    <t>AKASH MRITHYUNJAY HARUGERI</t>
-  </si>
-  <si>
-    <t>201cv102</t>
-  </si>
-  <si>
-    <t>Jaya Chandra</t>
-  </si>
-  <si>
-    <t>201EE249</t>
-  </si>
-  <si>
-    <t>S. K. Aswin</t>
-  </si>
-  <si>
-    <t>201MT053</t>
-  </si>
-  <si>
-    <t>Goutham V R</t>
-  </si>
-  <si>
-    <t>201ME221</t>
-  </si>
-  <si>
-    <t>Rohan Sorathiya</t>
-  </si>
-  <si>
-    <t>201cv244</t>
-  </si>
-  <si>
-    <t>Shubham Kumar Yadav</t>
-  </si>
-  <si>
-    <t>201me254</t>
-  </si>
-  <si>
-    <t>Vaishali S</t>
-  </si>
-  <si>
-    <t>201EE263</t>
-  </si>
-  <si>
-    <t>Aryan Amit</t>
-  </si>
-  <si>
-    <t>201ME110</t>
-  </si>
-  <si>
-    <t>Ayush</t>
-  </si>
-  <si>
-    <t>201CH014</t>
-  </si>
-  <si>
-    <t>Tushar Jyoti Sahariah</t>
-  </si>
-  <si>
-    <t>210ME259</t>
-  </si>
-  <si>
-    <t>Suhas S</t>
-  </si>
-  <si>
-    <t>201EC263</t>
-  </si>
-  <si>
-    <t>AMRIT RAJ</t>
-  </si>
-  <si>
-    <t>201ME314</t>
-  </si>
-  <si>
-    <t>Ojas Agrawal</t>
-  </si>
-  <si>
-    <t>201CH042</t>
-  </si>
-  <si>
-    <t>Samyak Sanjay Sand</t>
-  </si>
-  <si>
-    <t>201CS251</t>
-  </si>
-  <si>
-    <t>Gagana</t>
-  </si>
-  <si>
-    <t>201EC228</t>
-  </si>
-  <si>
-    <t>Abhay Thorat</t>
-  </si>
-  <si>
-    <t>201MT058</t>
-  </si>
-  <si>
-    <t>Praneeth S</t>
-  </si>
-  <si>
-    <t>201CV138</t>
-  </si>
-  <si>
-    <t>Somesh S</t>
-  </si>
-  <si>
-    <t>201EE254</t>
-  </si>
-  <si>
-    <t>Rajdita Datta</t>
-  </si>
-  <si>
-    <t>201MT045</t>
-  </si>
-  <si>
-    <t>Adhith</t>
-  </si>
-  <si>
-    <t>201CS104</t>
-  </si>
-  <si>
-    <t>Vamshik M</t>
-  </si>
-  <si>
-    <t>201ME364</t>
-  </si>
-  <si>
-    <t>Poorna Hegde</t>
-  </si>
-  <si>
-    <t>201IT240</t>
-  </si>
-  <si>
-    <t>S M Abdul Azeem</t>
-  </si>
-  <si>
-    <t>201CH406</t>
-  </si>
-  <si>
-    <t>Kavya Bhat</t>
-  </si>
-  <si>
-    <t>201CS225</t>
-  </si>
-  <si>
-    <t>Pratheek Bhat U</t>
-  </si>
-  <si>
-    <t>201MN042</t>
-  </si>
-  <si>
-    <t>Suggu Sudheer</t>
-  </si>
-  <si>
-    <t>201IT260</t>
-  </si>
-  <si>
-    <t>Shlok Bhosale</t>
-  </si>
-  <si>
-    <t>201IT258</t>
-  </si>
-  <si>
-    <t>HARI KRISHNA</t>
-  </si>
-  <si>
-    <t>201MN035</t>
-  </si>
-  <si>
-    <t>Amey Maheshwari</t>
-  </si>
-  <si>
-    <t>201ME108</t>
-  </si>
-  <si>
-    <t>Sudhanva R</t>
-  </si>
-  <si>
-    <t>201CV152</t>
-  </si>
-  <si>
-    <t>Swetha Thomas</t>
-  </si>
-  <si>
-    <t>201IT262</t>
-  </si>
-  <si>
-    <t>SANYU DSOUZA</t>
-  </si>
-  <si>
-    <t>201CH051</t>
-  </si>
-  <si>
-    <t>Anshu Suman</t>
-  </si>
-  <si>
-    <t>201IT208</t>
-  </si>
-  <si>
-    <t>Ameya Patil</t>
-  </si>
-  <si>
-    <t>201ME340</t>
-  </si>
-  <si>
-    <t>Raksha N</t>
-  </si>
-  <si>
-    <t>201IT246</t>
-  </si>
-  <si>
-    <t>Chinmaya Sharma</t>
-  </si>
-  <si>
-    <t>201EC113</t>
-  </si>
-  <si>
-    <t>P J Rachana</t>
-  </si>
-  <si>
-    <t>201ME241</t>
-  </si>
-  <si>
-    <t>Samith Hegde</t>
-  </si>
-  <si>
-    <t>201ME349</t>
-  </si>
-  <si>
-    <t>Likkhith K Aditya</t>
-  </si>
-  <si>
-    <t>201EC130</t>
-  </si>
-  <si>
-    <t>Pooja Gummuluru</t>
-  </si>
-  <si>
-    <t>201EC145</t>
-  </si>
-  <si>
-    <t>Piyush Dubey</t>
-  </si>
-  <si>
-    <t>201ME242</t>
-  </si>
-  <si>
-    <t>Harsh Ghandwani</t>
-  </si>
-  <si>
-    <t>201CS120</t>
-  </si>
-  <si>
-    <t>Anirudh Prabhakaran</t>
-  </si>
-  <si>
-    <t>201EC106</t>
-  </si>
-  <si>
-    <t>Sritam Panigrahi</t>
-  </si>
-  <si>
-    <t>201ME355</t>
-  </si>
-  <si>
-    <t>Venumadhav</t>
-  </si>
-  <si>
-    <t>201mt019</t>
-  </si>
-  <si>
-    <t>Harsh Eaj</t>
-  </si>
-  <si>
-    <t>201CV121</t>
-  </si>
-  <si>
-    <t>Shreyas Waykar</t>
-  </si>
-  <si>
-    <t>201IT161</t>
-  </si>
-  <si>
-    <t>Sonam Swaroop Dash</t>
-  </si>
-  <si>
-    <t>201ME256</t>
-  </si>
-  <si>
-    <t>Vedika Gadia</t>
-  </si>
-  <si>
-    <t>201EE264</t>
-  </si>
-  <si>
-    <t>Shashank SM</t>
-  </si>
-  <si>
-    <t>201CS257</t>
-  </si>
-  <si>
-    <t>Sanket</t>
-  </si>
-  <si>
-    <t>201CH050</t>
-  </si>
-  <si>
-    <t>Mohit Rajpurohit</t>
-  </si>
-  <si>
-    <t>201ME334</t>
-  </si>
-  <si>
-    <t>Palgun P</t>
-  </si>
-  <si>
-    <t>201EC141</t>
-  </si>
-  <si>
-    <t>SHIVA SAI</t>
-  </si>
-  <si>
-    <t>201IT214</t>
-  </si>
-  <si>
-    <t>Jitin Viji</t>
-  </si>
-  <si>
-    <t>201CH027</t>
-  </si>
-  <si>
-    <t>Vishruth M</t>
-  </si>
-  <si>
-    <t>201IT167</t>
-  </si>
-  <si>
-    <t>Tijin Abe Thomas</t>
-  </si>
-  <si>
-    <t>201CS262</t>
-  </si>
-  <si>
-    <t>Harsha Satija</t>
-  </si>
-  <si>
-    <t>201MT020</t>
-  </si>
-  <si>
-    <t>Arjun Gowda</t>
-  </si>
-  <si>
-    <t>201IT210</t>
-  </si>
-  <si>
-    <t>Rahul R</t>
-  </si>
-  <si>
-    <t>201EE143</t>
-  </si>
-  <si>
-    <t>Akshat Raj Singh</t>
-  </si>
-  <si>
-    <t>201MT005</t>
-  </si>
-  <si>
-    <t>Prathamesh Dongritot</t>
-  </si>
-  <si>
-    <t>201CS242</t>
-  </si>
-  <si>
-    <t>Himanshu</t>
-  </si>
-  <si>
-    <t>201ME122</t>
-  </si>
-  <si>
-    <t>Seetha</t>
-  </si>
-  <si>
-    <t>210MN020</t>
-  </si>
-  <si>
-    <t>Abhai Ponna</t>
-  </si>
-  <si>
-    <t>201CH001</t>
-  </si>
-  <si>
-    <t>Poorvi</t>
-  </si>
-  <si>
-    <t>201CS240</t>
-  </si>
-  <si>
-    <t>Shashank Raju Singit</t>
-  </si>
-  <si>
-    <t>201MN053</t>
-  </si>
-  <si>
-    <t>Vinayak Vatsalya J</t>
-  </si>
-  <si>
-    <t>201IT266</t>
-  </si>
-  <si>
-    <t>Dhruvil</t>
-  </si>
-  <si>
-    <t>201IT119</t>
-  </si>
-  <si>
-    <t>Harish</t>
-  </si>
-  <si>
-    <t>201ch024</t>
-  </si>
-  <si>
-    <t>T Naga Tarun</t>
-  </si>
-  <si>
-    <t>201cs261</t>
-  </si>
-  <si>
-    <t>Chandra Hasa Munduri</t>
-  </si>
-  <si>
-    <t>201ME336</t>
-  </si>
-  <si>
-    <t>Vaishnovi S Pandith</t>
-  </si>
-  <si>
-    <t>201MN062</t>
-  </si>
-  <si>
-    <t>Ayush Baghel</t>
-  </si>
-  <si>
-    <t>201ee113</t>
-  </si>
-  <si>
-    <t>GONDIMALLA FAREED SHANAWAZ</t>
-  </si>
-  <si>
-    <t>201ME220</t>
-  </si>
-  <si>
-    <t>Anish Fulzele</t>
-  </si>
-  <si>
-    <t>201CH011</t>
-  </si>
-  <si>
-    <t>Vandana kamal</t>
-  </si>
-  <si>
-    <t>201cv259</t>
-  </si>
-  <si>
-    <t>Hrishita baidya</t>
-  </si>
-  <si>
-    <t>201me322</t>
-  </si>
-  <si>
-    <t>KAMISETTY ABHIRAM</t>
-  </si>
-  <si>
-    <t>201CV223</t>
-  </si>
-  <si>
-    <t>SHREYAS</t>
-  </si>
-  <si>
-    <t>201ee253</t>
-  </si>
-  <si>
-    <t>Rishi P Jain</t>
-  </si>
-  <si>
-    <t>201IT249</t>
-  </si>
-  <si>
-    <t>Sivani</t>
-  </si>
-  <si>
-    <t>201cs229</t>
-  </si>
-  <si>
-    <t>Pranav V Bagal</t>
-  </si>
-  <si>
-    <t>201mt037</t>
-  </si>
-  <si>
-    <t>M R Rishi</t>
-  </si>
-  <si>
-    <t>201ME131</t>
-  </si>
-  <si>
-    <t>Ayush Kumar Gupta</t>
-  </si>
-  <si>
-    <t>201mn014</t>
-  </si>
-  <si>
-    <t>Vabilisetti Prakhya Viswa Vidya Nischayi</t>
-  </si>
-  <si>
-    <t>201ME363</t>
-  </si>
-  <si>
-    <t>Ronit Kumar</t>
-  </si>
-  <si>
-    <t>201EC256</t>
-  </si>
-  <si>
-    <t>Kushal R</t>
-  </si>
-  <si>
-    <t>201ME230</t>
-  </si>
-  <si>
-    <t>Vijay</t>
-  </si>
-  <si>
-    <t>201CV160</t>
-  </si>
-  <si>
-    <t>Vishal shambhu</t>
-  </si>
-  <si>
-    <t>201MT062</t>
-  </si>
-  <si>
-    <t>Poorvi Joshi</t>
-  </si>
-  <si>
-    <t>201EE140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kunal </t>
-  </si>
-  <si>
-    <t>201CS226</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -831,17 +831,20 @@
       <b/>
     </font>
     <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -858,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -872,16 +875,28 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1117,6 +1132,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="25.43"/>
+    <col customWidth="1" min="9" max="9" width="19.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1138,10 +1154,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -1150,7 +1166,7 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
+      <c r="K1" s="2"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -1165,7 +1181,6 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
@@ -1174,8 +1189,20 @@
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1183,267 +1210,408 @@
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="11"/>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="11"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="11"/>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="C16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1454,22 +1622,30 @@
       <c r="B24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5" t="s">
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1480,10 +1656,10 @@
       <c r="B26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1494,13 +1670,10 @@
       <c r="B27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="C27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1511,229 +1684,250 @@
       <c r="B28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="5" t="s">
+      <c r="C29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="C30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="C31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="C32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="C33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="C34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="C37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="C39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="C41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="C42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="C43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="5" t="s">
+      <c r="C44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="4"/>
+      <c r="C45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
@@ -1742,7 +1936,12 @@
       <c r="B46" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="4"/>
+      <c r="C46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
@@ -1751,8 +1950,10 @@
       <c r="B47" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="5" t="s">
+      <c r="C47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1763,10 +1964,10 @@
       <c r="B48" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="5" t="s">
+      <c r="C48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1777,7 +1978,12 @@
       <c r="B49" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="4"/>
+      <c r="C49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
@@ -1786,10 +1992,10 @@
       <c r="B50" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="C50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1800,19 +2006,24 @@
       <c r="B51" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="5" t="s">
+      <c r="C51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1823,10 +2034,10 @@
       <c r="B53" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="5" t="s">
+      <c r="C53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1837,7 +2048,10 @@
       <c r="B54" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="4" t="s">
+      <c r="C54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1848,13 +2062,10 @@
       <c r="B55" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="5" t="s">
+      <c r="C55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1865,8 +2076,10 @@
       <c r="B56" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="4"/>
-      <c r="D56" s="5" t="s">
+      <c r="C56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1877,10 +2090,10 @@
       <c r="B57" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="5" t="s">
+      <c r="C57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1891,13 +2104,10 @@
       <c r="B58" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="5" t="s">
+      <c r="C58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1908,10 +2118,10 @@
       <c r="B59" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="C59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1922,7 +2132,12 @@
       <c r="B60" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="4"/>
+      <c r="C60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
@@ -1931,27 +2146,24 @@
       <c r="B61" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="5" t="s">
+      <c r="C61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="5" t="s">
+      <c r="C62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1962,10 +2174,10 @@
       <c r="B63" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="C63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1976,7 +2188,10 @@
       <c r="B64" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1987,10 +2202,10 @@
       <c r="B65" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="5" t="s">
+      <c r="C65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2001,8 +2216,10 @@
       <c r="B66" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="5" t="s">
+      <c r="C66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2013,10 +2230,10 @@
       <c r="B67" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="C67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2027,223 +2244,213 @@
       <c r="B68" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="5" t="s">
+      <c r="C68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="5" t="s">
+      <c r="C69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="5" t="s">
+      <c r="C70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="5" t="s">
+      <c r="C71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="5" t="s">
+      <c r="C72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="5" t="s">
+      <c r="C73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="5" t="s">
+      <c r="C74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="5" t="s">
+      <c r="C75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="5" t="s">
+      <c r="C76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C78" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E79" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C80" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B81" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D81" s="5" t="s">
+      <c r="C81" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C82" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D83" s="5" t="s">
+      <c r="C83" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D84" s="5" t="s">
+      <c r="C84" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2254,10 +2461,7 @@
       <c r="B85" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C85" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2268,273 +2472,251 @@
       <c r="B86" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C87" s="4"/>
+      <c r="C87" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C88" s="4"/>
+      <c r="C88" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="5" t="s">
+      <c r="C90" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C91" s="4"/>
-      <c r="E91" s="5" t="s">
+      <c r="C91" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D92" s="5" t="s">
+      <c r="C92" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="5" t="s">
+      <c r="C93" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C94" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="5" t="s">
+      <c r="C95" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C96" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="5" t="s">
+      <c r="C97" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C98" s="4"/>
-      <c r="D98" s="5" t="s">
+      <c r="C98" s="5"/>
+      <c r="D98" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D99" s="5" t="s">
+      <c r="C99" s="5"/>
+      <c r="D99" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" s="5" t="s">
+      <c r="C100" s="5"/>
+      <c r="D100" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D101" s="5" t="s">
+      <c r="C101" s="5"/>
+      <c r="D101" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C102" s="4"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="5" t="s">
+      <c r="C103" s="5"/>
+      <c r="D103" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C104" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="5" t="s">
+      <c r="C104" s="5"/>
+      <c r="D104" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D105" s="5" t="s">
+      <c r="C105" s="5"/>
+      <c r="D105" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C106" s="5"/>
+      <c r="D106" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="5" t="s">
+      <c r="C107" s="5"/>
+      <c r="D107" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2545,22 +2727,20 @@
       <c r="B108" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C108" s="4"/>
-      <c r="D108" s="5" t="s">
+      <c r="C108" s="5"/>
+      <c r="D108" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="5" t="s">
+      <c r="C109" s="5"/>
+      <c r="D109" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2571,81 +2751,68 @@
       <c r="B110" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D110" s="5" t="s">
+      <c r="C110" s="5"/>
+      <c r="D110" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="6" t="s">
+      <c r="A111" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D111" s="5" t="s">
+      <c r="C111" s="5"/>
+      <c r="D111" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="6" t="s">
+      <c r="A112" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="5" t="s">
+      <c r="C112" s="5"/>
+      <c r="D112" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C113" s="4"/>
-      <c r="D113" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113" s="5" t="s">
+      <c r="C113" s="5"/>
+      <c r="D113" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D114" s="5" t="s">
+      <c r="C114" s="5"/>
+      <c r="D114" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="6" t="s">
+      <c r="A115" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D115" s="5" t="s">
+      <c r="C115" s="5"/>
+      <c r="D115" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2656,157 +2823,114 @@
       <c r="B116" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C116" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D116" s="5" t="s">
+      <c r="C116" s="5"/>
+      <c r="E116" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D117" s="5" t="s">
+      <c r="C117" s="5"/>
+      <c r="E117" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="6" t="s">
+      <c r="A118" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="C118" s="5"/>
     </row>
     <row r="119">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C119" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="C119" s="5"/>
     </row>
     <row r="120">
-      <c r="A120" s="6" t="s">
+      <c r="A120" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="C120" s="5"/>
     </row>
     <row r="121">
-      <c r="A121" s="6" t="s">
+      <c r="A121" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C121" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="C121" s="5"/>
     </row>
     <row r="122">
-      <c r="A122" s="6" t="s">
+      <c r="A122" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C122" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="C122" s="5"/>
     </row>
     <row r="123">
-      <c r="A123" s="6" t="s">
+      <c r="A123" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="C123" s="5"/>
     </row>
     <row r="124">
-      <c r="A124" s="6" t="s">
+      <c r="A124" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="C124" s="5"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="8"/>
     </row>
     <row r="125">
-      <c r="A125" s="6" t="s">
+      <c r="A125" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C125" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="C125" s="5"/>
     </row>
     <row r="126">
-      <c r="A126" s="6" t="s">
+      <c r="A126" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C126" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="C126" s="5"/>
     </row>
     <row r="127">
-      <c r="A127" s="6" t="s">
+      <c r="A127" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C127" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="C127" s="5"/>
     </row>
     <row r="128">
       <c r="A128" s="5" t="s">
@@ -2815,2899 +2939,2896 @@
       <c r="B128" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C128" s="4"/>
-      <c r="E128" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="C128" s="5"/>
     </row>
     <row r="129">
-      <c r="C129" s="4"/>
+      <c r="C129" s="5"/>
     </row>
     <row r="130">
-      <c r="C130" s="4"/>
+      <c r="C130" s="5"/>
     </row>
     <row r="131">
-      <c r="C131" s="4"/>
+      <c r="C131" s="5"/>
     </row>
     <row r="132">
-      <c r="C132" s="4"/>
+      <c r="C132" s="5"/>
     </row>
     <row r="133">
-      <c r="C133" s="4"/>
+      <c r="C133" s="5"/>
     </row>
     <row r="134">
-      <c r="C134" s="4"/>
+      <c r="C134" s="5"/>
     </row>
     <row r="135">
-      <c r="C135" s="4"/>
+      <c r="C135" s="5"/>
     </row>
     <row r="136">
-      <c r="C136" s="4"/>
+      <c r="C136" s="5"/>
     </row>
     <row r="137">
-      <c r="C137" s="4"/>
+      <c r="C137" s="5"/>
     </row>
     <row r="138">
-      <c r="C138" s="4"/>
+      <c r="C138" s="5"/>
     </row>
     <row r="139">
-      <c r="C139" s="4"/>
+      <c r="C139" s="5"/>
     </row>
     <row r="140">
-      <c r="C140" s="4"/>
+      <c r="C140" s="5"/>
     </row>
     <row r="141">
-      <c r="C141" s="4"/>
+      <c r="C141" s="5"/>
     </row>
     <row r="142">
-      <c r="C142" s="4"/>
+      <c r="C142" s="5"/>
     </row>
     <row r="143">
-      <c r="C143" s="4"/>
+      <c r="C143" s="5"/>
     </row>
     <row r="144">
-      <c r="C144" s="4"/>
+      <c r="C144" s="5"/>
     </row>
     <row r="145">
-      <c r="C145" s="4"/>
+      <c r="C145" s="5"/>
     </row>
     <row r="146">
-      <c r="A146" s="4"/>
-      <c r="B146" s="8"/>
-      <c r="C146" s="4"/>
+      <c r="A146" s="5"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="5"/>
     </row>
     <row r="147">
-      <c r="A147" s="4"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="4"/>
+      <c r="A147" s="5"/>
+      <c r="B147" s="12"/>
+      <c r="C147" s="5"/>
     </row>
     <row r="148">
-      <c r="A148" s="4"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="4"/>
+      <c r="A148" s="5"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="5"/>
     </row>
     <row r="149">
-      <c r="A149" s="4"/>
-      <c r="B149" s="8"/>
-      <c r="C149" s="4"/>
+      <c r="A149" s="5"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="5"/>
     </row>
     <row r="150">
-      <c r="A150" s="4"/>
-      <c r="B150" s="8"/>
-      <c r="C150" s="4"/>
+      <c r="A150" s="5"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="5"/>
     </row>
     <row r="151">
-      <c r="A151" s="4"/>
-      <c r="B151" s="8"/>
-      <c r="C151" s="4"/>
+      <c r="A151" s="5"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="5"/>
     </row>
     <row r="152">
-      <c r="A152" s="4"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="4"/>
+      <c r="A152" s="5"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="5"/>
     </row>
     <row r="153">
-      <c r="A153" s="4"/>
-      <c r="B153" s="8"/>
-      <c r="C153" s="4"/>
+      <c r="A153" s="5"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="5"/>
     </row>
     <row r="154">
-      <c r="A154" s="4"/>
-      <c r="B154" s="8"/>
-      <c r="C154" s="4"/>
+      <c r="A154" s="5"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="5"/>
     </row>
     <row r="155">
-      <c r="C155" s="4"/>
+      <c r="C155" s="5"/>
     </row>
     <row r="156">
-      <c r="C156" s="4"/>
+      <c r="C156" s="5"/>
     </row>
     <row r="157">
-      <c r="C157" s="4"/>
+      <c r="C157" s="5"/>
     </row>
     <row r="158">
-      <c r="C158" s="4"/>
+      <c r="C158" s="5"/>
     </row>
     <row r="159">
-      <c r="C159" s="4"/>
+      <c r="C159" s="5"/>
     </row>
     <row r="160">
-      <c r="C160" s="4"/>
+      <c r="C160" s="5"/>
     </row>
     <row r="161">
-      <c r="C161" s="4"/>
+      <c r="C161" s="5"/>
     </row>
     <row r="162">
-      <c r="C162" s="4"/>
+      <c r="C162" s="5"/>
     </row>
     <row r="163">
-      <c r="C163" s="4"/>
+      <c r="C163" s="5"/>
     </row>
     <row r="164">
-      <c r="C164" s="4"/>
+      <c r="C164" s="5"/>
     </row>
     <row r="165">
-      <c r="C165" s="4"/>
+      <c r="C165" s="5"/>
     </row>
     <row r="166">
-      <c r="C166" s="4"/>
+      <c r="C166" s="5"/>
     </row>
     <row r="167">
-      <c r="C167" s="4"/>
+      <c r="C167" s="5"/>
     </row>
     <row r="168">
-      <c r="C168" s="4"/>
+      <c r="C168" s="5"/>
     </row>
     <row r="169">
-      <c r="C169" s="4"/>
+      <c r="C169" s="5"/>
     </row>
     <row r="170">
-      <c r="C170" s="4"/>
+      <c r="C170" s="5"/>
     </row>
     <row r="171">
-      <c r="C171" s="4"/>
+      <c r="C171" s="5"/>
     </row>
     <row r="172">
-      <c r="C172" s="4"/>
+      <c r="C172" s="5"/>
     </row>
     <row r="173">
-      <c r="C173" s="4"/>
+      <c r="C173" s="5"/>
     </row>
     <row r="174">
-      <c r="C174" s="4"/>
+      <c r="C174" s="5"/>
     </row>
     <row r="175">
-      <c r="C175" s="4"/>
+      <c r="C175" s="5"/>
     </row>
     <row r="176">
-      <c r="C176" s="4"/>
+      <c r="C176" s="5"/>
     </row>
     <row r="177">
-      <c r="C177" s="4"/>
+      <c r="C177" s="5"/>
     </row>
     <row r="178">
-      <c r="C178" s="4"/>
+      <c r="C178" s="5"/>
     </row>
     <row r="179">
-      <c r="C179" s="4"/>
+      <c r="C179" s="5"/>
     </row>
     <row r="180">
-      <c r="C180" s="4"/>
+      <c r="C180" s="5"/>
     </row>
     <row r="181">
-      <c r="C181" s="4"/>
+      <c r="C181" s="5"/>
     </row>
     <row r="182">
-      <c r="C182" s="4"/>
+      <c r="C182" s="5"/>
     </row>
     <row r="183">
-      <c r="C183" s="4"/>
+      <c r="C183" s="5"/>
     </row>
     <row r="184">
-      <c r="C184" s="4"/>
+      <c r="C184" s="5"/>
     </row>
     <row r="185">
-      <c r="C185" s="4"/>
+      <c r="C185" s="5"/>
     </row>
     <row r="186">
-      <c r="C186" s="4"/>
+      <c r="C186" s="5"/>
     </row>
     <row r="187">
-      <c r="C187" s="4"/>
+      <c r="C187" s="5"/>
     </row>
     <row r="188">
-      <c r="C188" s="4"/>
+      <c r="C188" s="5"/>
     </row>
     <row r="189">
-      <c r="C189" s="4"/>
+      <c r="C189" s="5"/>
     </row>
     <row r="190">
-      <c r="C190" s="4"/>
+      <c r="C190" s="5"/>
     </row>
     <row r="191">
-      <c r="C191" s="4"/>
+      <c r="C191" s="5"/>
     </row>
     <row r="192">
-      <c r="C192" s="4"/>
+      <c r="C192" s="5"/>
     </row>
     <row r="193">
-      <c r="C193" s="4"/>
+      <c r="C193" s="5"/>
     </row>
     <row r="194">
-      <c r="C194" s="4"/>
+      <c r="C194" s="5"/>
     </row>
     <row r="195">
-      <c r="C195" s="4"/>
+      <c r="C195" s="5"/>
     </row>
     <row r="196">
-      <c r="C196" s="4"/>
+      <c r="C196" s="5"/>
     </row>
     <row r="197">
-      <c r="C197" s="4"/>
+      <c r="C197" s="5"/>
     </row>
     <row r="198">
-      <c r="C198" s="4"/>
+      <c r="C198" s="5"/>
     </row>
     <row r="199">
-      <c r="C199" s="4"/>
+      <c r="C199" s="5"/>
     </row>
     <row r="200">
-      <c r="C200" s="4"/>
+      <c r="C200" s="5"/>
     </row>
     <row r="201">
-      <c r="C201" s="4"/>
+      <c r="C201" s="5"/>
     </row>
     <row r="202">
-      <c r="C202" s="4"/>
+      <c r="C202" s="5"/>
     </row>
     <row r="203">
-      <c r="C203" s="4"/>
+      <c r="C203" s="5"/>
     </row>
     <row r="204">
-      <c r="C204" s="4"/>
+      <c r="C204" s="5"/>
     </row>
     <row r="205">
-      <c r="C205" s="4"/>
+      <c r="C205" s="5"/>
     </row>
     <row r="206">
-      <c r="C206" s="4"/>
+      <c r="C206" s="5"/>
     </row>
     <row r="207">
-      <c r="C207" s="4"/>
+      <c r="C207" s="5"/>
     </row>
     <row r="208">
-      <c r="C208" s="4"/>
+      <c r="C208" s="5"/>
     </row>
     <row r="209">
-      <c r="C209" s="4"/>
+      <c r="C209" s="5"/>
     </row>
     <row r="210">
-      <c r="C210" s="4"/>
+      <c r="C210" s="5"/>
     </row>
     <row r="211">
-      <c r="C211" s="4"/>
+      <c r="C211" s="5"/>
     </row>
     <row r="212">
-      <c r="C212" s="4"/>
+      <c r="C212" s="5"/>
     </row>
     <row r="213">
-      <c r="C213" s="4"/>
+      <c r="C213" s="5"/>
     </row>
     <row r="214">
-      <c r="C214" s="4"/>
+      <c r="C214" s="5"/>
     </row>
     <row r="215">
-      <c r="C215" s="4"/>
+      <c r="C215" s="5"/>
     </row>
     <row r="216">
-      <c r="C216" s="4"/>
+      <c r="C216" s="5"/>
     </row>
     <row r="217">
-      <c r="C217" s="4"/>
+      <c r="C217" s="5"/>
     </row>
     <row r="218">
-      <c r="C218" s="4"/>
+      <c r="C218" s="5"/>
     </row>
     <row r="219">
-      <c r="C219" s="4"/>
+      <c r="C219" s="5"/>
     </row>
     <row r="220">
-      <c r="C220" s="4"/>
+      <c r="C220" s="5"/>
     </row>
     <row r="221">
-      <c r="C221" s="4"/>
+      <c r="C221" s="5"/>
     </row>
     <row r="222">
-      <c r="C222" s="4"/>
+      <c r="C222" s="5"/>
     </row>
     <row r="223">
-      <c r="C223" s="4"/>
+      <c r="C223" s="5"/>
     </row>
     <row r="224">
-      <c r="C224" s="4"/>
+      <c r="C224" s="5"/>
     </row>
     <row r="225">
-      <c r="C225" s="4"/>
+      <c r="C225" s="5"/>
     </row>
     <row r="226">
-      <c r="C226" s="4"/>
+      <c r="C226" s="5"/>
     </row>
     <row r="227">
-      <c r="C227" s="4"/>
+      <c r="C227" s="5"/>
     </row>
     <row r="228">
-      <c r="C228" s="4"/>
+      <c r="C228" s="5"/>
     </row>
     <row r="229">
-      <c r="C229" s="4"/>
+      <c r="C229" s="5"/>
     </row>
     <row r="230">
-      <c r="C230" s="4"/>
+      <c r="C230" s="5"/>
     </row>
     <row r="231">
-      <c r="C231" s="4"/>
+      <c r="C231" s="5"/>
     </row>
     <row r="232">
-      <c r="C232" s="4"/>
+      <c r="C232" s="5"/>
     </row>
     <row r="233">
-      <c r="C233" s="4"/>
+      <c r="C233" s="5"/>
     </row>
     <row r="234">
-      <c r="C234" s="4"/>
+      <c r="C234" s="5"/>
     </row>
     <row r="235">
-      <c r="C235" s="4"/>
+      <c r="C235" s="5"/>
     </row>
     <row r="236">
-      <c r="C236" s="4"/>
+      <c r="C236" s="5"/>
     </row>
     <row r="237">
-      <c r="C237" s="4"/>
+      <c r="C237" s="5"/>
     </row>
     <row r="238">
-      <c r="C238" s="4"/>
+      <c r="C238" s="5"/>
     </row>
     <row r="239">
-      <c r="C239" s="4"/>
+      <c r="C239" s="5"/>
     </row>
     <row r="240">
-      <c r="C240" s="4"/>
+      <c r="C240" s="5"/>
     </row>
     <row r="241">
-      <c r="C241" s="4"/>
+      <c r="C241" s="5"/>
     </row>
     <row r="242">
-      <c r="C242" s="4"/>
+      <c r="C242" s="5"/>
     </row>
     <row r="243">
-      <c r="C243" s="4"/>
+      <c r="C243" s="5"/>
     </row>
     <row r="244">
-      <c r="C244" s="4"/>
+      <c r="C244" s="5"/>
     </row>
     <row r="245">
-      <c r="C245" s="4"/>
+      <c r="C245" s="5"/>
     </row>
     <row r="246">
-      <c r="C246" s="4"/>
+      <c r="C246" s="5"/>
     </row>
     <row r="247">
-      <c r="C247" s="4"/>
+      <c r="C247" s="5"/>
     </row>
     <row r="248">
-      <c r="C248" s="4"/>
+      <c r="C248" s="5"/>
     </row>
     <row r="249">
-      <c r="C249" s="4"/>
+      <c r="C249" s="5"/>
     </row>
     <row r="250">
-      <c r="C250" s="4"/>
+      <c r="C250" s="5"/>
     </row>
     <row r="251">
-      <c r="C251" s="4"/>
+      <c r="C251" s="5"/>
     </row>
     <row r="252">
-      <c r="C252" s="4"/>
+      <c r="C252" s="5"/>
     </row>
     <row r="253">
-      <c r="C253" s="4"/>
+      <c r="C253" s="5"/>
     </row>
     <row r="254">
-      <c r="C254" s="4"/>
+      <c r="C254" s="5"/>
     </row>
     <row r="255">
-      <c r="C255" s="4"/>
+      <c r="C255" s="5"/>
     </row>
     <row r="256">
-      <c r="C256" s="4"/>
+      <c r="C256" s="5"/>
     </row>
     <row r="257">
-      <c r="C257" s="4"/>
+      <c r="C257" s="5"/>
     </row>
     <row r="258">
-      <c r="C258" s="4"/>
+      <c r="C258" s="5"/>
     </row>
     <row r="259">
-      <c r="C259" s="4"/>
+      <c r="C259" s="5"/>
     </row>
     <row r="260">
-      <c r="C260" s="4"/>
+      <c r="C260" s="5"/>
     </row>
     <row r="261">
-      <c r="C261" s="4"/>
+      <c r="C261" s="5"/>
     </row>
     <row r="262">
-      <c r="C262" s="4"/>
+      <c r="C262" s="5"/>
     </row>
     <row r="263">
-      <c r="C263" s="4"/>
+      <c r="C263" s="5"/>
     </row>
     <row r="264">
-      <c r="C264" s="4"/>
+      <c r="C264" s="5"/>
     </row>
     <row r="265">
-      <c r="C265" s="4"/>
+      <c r="C265" s="5"/>
     </row>
     <row r="266">
-      <c r="C266" s="4"/>
+      <c r="C266" s="5"/>
     </row>
     <row r="267">
-      <c r="C267" s="4"/>
+      <c r="C267" s="5"/>
     </row>
     <row r="268">
-      <c r="C268" s="4"/>
+      <c r="C268" s="5"/>
     </row>
     <row r="269">
-      <c r="C269" s="4"/>
+      <c r="C269" s="5"/>
     </row>
     <row r="270">
-      <c r="C270" s="4"/>
+      <c r="C270" s="5"/>
     </row>
     <row r="271">
-      <c r="C271" s="4"/>
+      <c r="C271" s="5"/>
     </row>
     <row r="272">
-      <c r="C272" s="4"/>
+      <c r="C272" s="5"/>
     </row>
     <row r="273">
-      <c r="C273" s="4"/>
+      <c r="C273" s="5"/>
     </row>
     <row r="274">
-      <c r="C274" s="4"/>
+      <c r="C274" s="5"/>
     </row>
     <row r="275">
-      <c r="C275" s="4"/>
+      <c r="C275" s="5"/>
     </row>
     <row r="276">
-      <c r="C276" s="4"/>
+      <c r="C276" s="5"/>
     </row>
     <row r="277">
-      <c r="C277" s="4"/>
+      <c r="C277" s="5"/>
     </row>
     <row r="278">
-      <c r="C278" s="4"/>
+      <c r="C278" s="5"/>
     </row>
     <row r="279">
-      <c r="C279" s="4"/>
+      <c r="C279" s="5"/>
     </row>
     <row r="280">
-      <c r="C280" s="4"/>
+      <c r="C280" s="5"/>
     </row>
     <row r="281">
-      <c r="C281" s="4"/>
+      <c r="C281" s="5"/>
     </row>
     <row r="282">
-      <c r="C282" s="4"/>
+      <c r="C282" s="5"/>
     </row>
     <row r="283">
-      <c r="C283" s="4"/>
+      <c r="C283" s="5"/>
     </row>
     <row r="284">
-      <c r="C284" s="4"/>
+      <c r="C284" s="5"/>
     </row>
     <row r="285">
-      <c r="C285" s="4"/>
+      <c r="C285" s="5"/>
     </row>
     <row r="286">
-      <c r="C286" s="4"/>
+      <c r="C286" s="5"/>
     </row>
     <row r="287">
-      <c r="C287" s="4"/>
+      <c r="C287" s="5"/>
     </row>
     <row r="288">
-      <c r="C288" s="4"/>
+      <c r="C288" s="5"/>
     </row>
     <row r="289">
-      <c r="C289" s="4"/>
+      <c r="C289" s="5"/>
     </row>
     <row r="290">
-      <c r="C290" s="4"/>
+      <c r="C290" s="5"/>
     </row>
     <row r="291">
-      <c r="C291" s="4"/>
+      <c r="C291" s="5"/>
     </row>
     <row r="292">
-      <c r="C292" s="4"/>
+      <c r="C292" s="5"/>
     </row>
     <row r="293">
-      <c r="C293" s="4"/>
+      <c r="C293" s="5"/>
     </row>
     <row r="294">
-      <c r="C294" s="4"/>
+      <c r="C294" s="5"/>
     </row>
     <row r="295">
-      <c r="C295" s="4"/>
+      <c r="C295" s="5"/>
     </row>
     <row r="296">
-      <c r="C296" s="4"/>
+      <c r="C296" s="5"/>
     </row>
     <row r="297">
-      <c r="C297" s="4"/>
+      <c r="C297" s="5"/>
     </row>
     <row r="298">
-      <c r="C298" s="4"/>
+      <c r="C298" s="5"/>
     </row>
     <row r="299">
-      <c r="C299" s="4"/>
+      <c r="C299" s="5"/>
     </row>
     <row r="300">
-      <c r="C300" s="4"/>
+      <c r="C300" s="5"/>
     </row>
     <row r="301">
-      <c r="C301" s="4"/>
+      <c r="C301" s="5"/>
     </row>
     <row r="302">
-      <c r="C302" s="4"/>
+      <c r="C302" s="5"/>
     </row>
     <row r="303">
-      <c r="C303" s="4"/>
+      <c r="C303" s="5"/>
     </row>
     <row r="304">
-      <c r="C304" s="4"/>
+      <c r="C304" s="5"/>
     </row>
     <row r="305">
-      <c r="C305" s="4"/>
+      <c r="C305" s="5"/>
     </row>
     <row r="306">
-      <c r="C306" s="4"/>
+      <c r="C306" s="5"/>
     </row>
     <row r="307">
-      <c r="C307" s="4"/>
+      <c r="C307" s="5"/>
     </row>
     <row r="308">
-      <c r="C308" s="4"/>
+      <c r="C308" s="5"/>
     </row>
     <row r="309">
-      <c r="C309" s="4"/>
+      <c r="C309" s="5"/>
     </row>
     <row r="310">
-      <c r="C310" s="4"/>
+      <c r="C310" s="5"/>
     </row>
     <row r="311">
-      <c r="C311" s="4"/>
+      <c r="C311" s="5"/>
     </row>
     <row r="312">
-      <c r="C312" s="4"/>
+      <c r="C312" s="5"/>
     </row>
     <row r="313">
-      <c r="C313" s="4"/>
+      <c r="C313" s="5"/>
     </row>
     <row r="314">
-      <c r="C314" s="4"/>
+      <c r="C314" s="5"/>
     </row>
     <row r="315">
-      <c r="C315" s="4"/>
+      <c r="C315" s="5"/>
     </row>
     <row r="316">
-      <c r="C316" s="4"/>
+      <c r="C316" s="5"/>
     </row>
     <row r="317">
-      <c r="C317" s="4"/>
+      <c r="C317" s="5"/>
     </row>
     <row r="318">
-      <c r="C318" s="4"/>
+      <c r="C318" s="5"/>
     </row>
     <row r="319">
-      <c r="C319" s="4"/>
+      <c r="C319" s="5"/>
     </row>
     <row r="320">
-      <c r="C320" s="4"/>
+      <c r="C320" s="5"/>
     </row>
     <row r="321">
-      <c r="C321" s="4"/>
+      <c r="C321" s="5"/>
     </row>
     <row r="322">
-      <c r="C322" s="4"/>
+      <c r="C322" s="5"/>
     </row>
     <row r="323">
-      <c r="C323" s="4"/>
+      <c r="C323" s="5"/>
     </row>
     <row r="324">
-      <c r="C324" s="4"/>
+      <c r="C324" s="5"/>
     </row>
     <row r="325">
-      <c r="C325" s="4"/>
+      <c r="C325" s="5"/>
     </row>
     <row r="326">
-      <c r="C326" s="4"/>
+      <c r="C326" s="5"/>
     </row>
     <row r="327">
-      <c r="C327" s="4"/>
+      <c r="C327" s="5"/>
     </row>
     <row r="328">
-      <c r="C328" s="4"/>
+      <c r="C328" s="5"/>
     </row>
     <row r="329">
-      <c r="C329" s="4"/>
+      <c r="C329" s="5"/>
     </row>
     <row r="330">
-      <c r="C330" s="4"/>
+      <c r="C330" s="5"/>
     </row>
     <row r="331">
-      <c r="C331" s="4"/>
+      <c r="C331" s="5"/>
     </row>
     <row r="332">
-      <c r="C332" s="4"/>
+      <c r="C332" s="5"/>
     </row>
     <row r="333">
-      <c r="C333" s="4"/>
+      <c r="C333" s="5"/>
     </row>
     <row r="334">
-      <c r="C334" s="4"/>
+      <c r="C334" s="5"/>
     </row>
     <row r="335">
-      <c r="C335" s="4"/>
+      <c r="C335" s="5"/>
     </row>
     <row r="336">
-      <c r="C336" s="4"/>
+      <c r="C336" s="5"/>
     </row>
     <row r="337">
-      <c r="C337" s="4"/>
+      <c r="C337" s="5"/>
     </row>
     <row r="338">
-      <c r="C338" s="4"/>
+      <c r="C338" s="5"/>
     </row>
     <row r="339">
-      <c r="C339" s="4"/>
+      <c r="C339" s="5"/>
     </row>
     <row r="340">
-      <c r="C340" s="4"/>
+      <c r="C340" s="5"/>
     </row>
     <row r="341">
-      <c r="C341" s="4"/>
+      <c r="C341" s="5"/>
     </row>
     <row r="342">
-      <c r="C342" s="4"/>
+      <c r="C342" s="5"/>
     </row>
     <row r="343">
-      <c r="C343" s="4"/>
+      <c r="C343" s="5"/>
     </row>
     <row r="344">
-      <c r="C344" s="4"/>
+      <c r="C344" s="5"/>
     </row>
     <row r="345">
-      <c r="C345" s="4"/>
+      <c r="C345" s="5"/>
     </row>
     <row r="346">
-      <c r="C346" s="4"/>
+      <c r="C346" s="5"/>
     </row>
     <row r="347">
-      <c r="C347" s="4"/>
+      <c r="C347" s="5"/>
     </row>
     <row r="348">
-      <c r="C348" s="4"/>
+      <c r="C348" s="5"/>
     </row>
     <row r="349">
-      <c r="C349" s="4"/>
+      <c r="C349" s="5"/>
     </row>
     <row r="350">
-      <c r="C350" s="4"/>
+      <c r="C350" s="5"/>
     </row>
     <row r="351">
-      <c r="C351" s="4"/>
+      <c r="C351" s="5"/>
     </row>
     <row r="352">
-      <c r="C352" s="4"/>
+      <c r="C352" s="5"/>
     </row>
     <row r="353">
-      <c r="C353" s="4"/>
+      <c r="C353" s="5"/>
     </row>
     <row r="354">
-      <c r="C354" s="4"/>
+      <c r="C354" s="5"/>
     </row>
     <row r="355">
-      <c r="C355" s="4"/>
+      <c r="C355" s="5"/>
     </row>
     <row r="356">
-      <c r="C356" s="4"/>
+      <c r="C356" s="5"/>
     </row>
     <row r="357">
-      <c r="C357" s="4"/>
+      <c r="C357" s="5"/>
     </row>
     <row r="358">
-      <c r="C358" s="4"/>
+      <c r="C358" s="5"/>
     </row>
     <row r="359">
-      <c r="C359" s="4"/>
+      <c r="C359" s="5"/>
     </row>
     <row r="360">
-      <c r="C360" s="4"/>
+      <c r="C360" s="5"/>
     </row>
     <row r="361">
-      <c r="C361" s="4"/>
+      <c r="C361" s="5"/>
     </row>
     <row r="362">
-      <c r="C362" s="4"/>
+      <c r="C362" s="5"/>
     </row>
     <row r="363">
-      <c r="C363" s="4"/>
+      <c r="C363" s="5"/>
     </row>
     <row r="364">
-      <c r="C364" s="4"/>
+      <c r="C364" s="5"/>
     </row>
     <row r="365">
-      <c r="C365" s="4"/>
+      <c r="C365" s="5"/>
     </row>
     <row r="366">
-      <c r="C366" s="4"/>
+      <c r="C366" s="5"/>
     </row>
     <row r="367">
-      <c r="C367" s="4"/>
+      <c r="C367" s="5"/>
     </row>
     <row r="368">
-      <c r="C368" s="4"/>
+      <c r="C368" s="5"/>
     </row>
     <row r="369">
-      <c r="C369" s="4"/>
+      <c r="C369" s="5"/>
     </row>
     <row r="370">
-      <c r="C370" s="4"/>
+      <c r="C370" s="5"/>
     </row>
     <row r="371">
-      <c r="C371" s="4"/>
+      <c r="C371" s="5"/>
     </row>
     <row r="372">
-      <c r="C372" s="4"/>
+      <c r="C372" s="5"/>
     </row>
     <row r="373">
-      <c r="C373" s="4"/>
+      <c r="C373" s="5"/>
     </row>
     <row r="374">
-      <c r="C374" s="4"/>
+      <c r="C374" s="5"/>
     </row>
     <row r="375">
-      <c r="C375" s="4"/>
+      <c r="C375" s="5"/>
     </row>
     <row r="376">
-      <c r="C376" s="4"/>
+      <c r="C376" s="5"/>
     </row>
     <row r="377">
-      <c r="C377" s="4"/>
+      <c r="C377" s="5"/>
     </row>
     <row r="378">
-      <c r="C378" s="4"/>
+      <c r="C378" s="5"/>
     </row>
     <row r="379">
-      <c r="C379" s="4"/>
+      <c r="C379" s="5"/>
     </row>
     <row r="380">
-      <c r="C380" s="4"/>
+      <c r="C380" s="5"/>
     </row>
     <row r="381">
-      <c r="C381" s="4"/>
+      <c r="C381" s="5"/>
     </row>
     <row r="382">
-      <c r="C382" s="4"/>
+      <c r="C382" s="5"/>
     </row>
     <row r="383">
-      <c r="C383" s="4"/>
+      <c r="C383" s="5"/>
     </row>
     <row r="384">
-      <c r="C384" s="4"/>
+      <c r="C384" s="5"/>
     </row>
     <row r="385">
-      <c r="C385" s="4"/>
+      <c r="C385" s="5"/>
     </row>
     <row r="386">
-      <c r="C386" s="4"/>
+      <c r="C386" s="5"/>
     </row>
     <row r="387">
-      <c r="C387" s="4"/>
+      <c r="C387" s="5"/>
     </row>
     <row r="388">
-      <c r="C388" s="4"/>
+      <c r="C388" s="5"/>
     </row>
     <row r="389">
-      <c r="C389" s="4"/>
+      <c r="C389" s="5"/>
     </row>
     <row r="390">
-      <c r="C390" s="4"/>
+      <c r="C390" s="5"/>
     </row>
     <row r="391">
-      <c r="C391" s="4"/>
+      <c r="C391" s="5"/>
     </row>
     <row r="392">
-      <c r="C392" s="4"/>
+      <c r="C392" s="5"/>
     </row>
     <row r="393">
-      <c r="C393" s="4"/>
+      <c r="C393" s="5"/>
     </row>
     <row r="394">
-      <c r="C394" s="4"/>
+      <c r="C394" s="5"/>
     </row>
     <row r="395">
-      <c r="C395" s="4"/>
+      <c r="C395" s="5"/>
     </row>
     <row r="396">
-      <c r="C396" s="4"/>
+      <c r="C396" s="5"/>
     </row>
     <row r="397">
-      <c r="C397" s="4"/>
+      <c r="C397" s="5"/>
     </row>
     <row r="398">
-      <c r="C398" s="4"/>
+      <c r="C398" s="5"/>
     </row>
     <row r="399">
-      <c r="C399" s="4"/>
+      <c r="C399" s="5"/>
     </row>
     <row r="400">
-      <c r="C400" s="4"/>
+      <c r="C400" s="5"/>
     </row>
     <row r="401">
-      <c r="C401" s="4"/>
+      <c r="C401" s="5"/>
     </row>
     <row r="402">
-      <c r="C402" s="4"/>
+      <c r="C402" s="5"/>
     </row>
     <row r="403">
-      <c r="C403" s="4"/>
+      <c r="C403" s="5"/>
     </row>
     <row r="404">
-      <c r="C404" s="4"/>
+      <c r="C404" s="5"/>
     </row>
     <row r="405">
-      <c r="C405" s="4"/>
+      <c r="C405" s="5"/>
     </row>
     <row r="406">
-      <c r="C406" s="4"/>
+      <c r="C406" s="5"/>
     </row>
     <row r="407">
-      <c r="C407" s="4"/>
+      <c r="C407" s="5"/>
     </row>
     <row r="408">
-      <c r="C408" s="4"/>
+      <c r="C408" s="5"/>
     </row>
     <row r="409">
-      <c r="C409" s="4"/>
+      <c r="C409" s="5"/>
     </row>
     <row r="410">
-      <c r="C410" s="4"/>
+      <c r="C410" s="5"/>
     </row>
     <row r="411">
-      <c r="C411" s="4"/>
+      <c r="C411" s="5"/>
     </row>
     <row r="412">
-      <c r="C412" s="4"/>
+      <c r="C412" s="5"/>
     </row>
     <row r="413">
-      <c r="C413" s="4"/>
+      <c r="C413" s="5"/>
     </row>
     <row r="414">
-      <c r="C414" s="4"/>
+      <c r="C414" s="5"/>
     </row>
     <row r="415">
-      <c r="C415" s="4"/>
+      <c r="C415" s="5"/>
     </row>
     <row r="416">
-      <c r="C416" s="4"/>
+      <c r="C416" s="5"/>
     </row>
     <row r="417">
-      <c r="C417" s="4"/>
+      <c r="C417" s="5"/>
     </row>
     <row r="418">
-      <c r="C418" s="4"/>
+      <c r="C418" s="5"/>
     </row>
     <row r="419">
-      <c r="C419" s="4"/>
+      <c r="C419" s="5"/>
     </row>
     <row r="420">
-      <c r="C420" s="4"/>
+      <c r="C420" s="5"/>
     </row>
     <row r="421">
-      <c r="C421" s="4"/>
+      <c r="C421" s="5"/>
     </row>
     <row r="422">
-      <c r="C422" s="4"/>
+      <c r="C422" s="5"/>
     </row>
     <row r="423">
-      <c r="C423" s="4"/>
+      <c r="C423" s="5"/>
     </row>
     <row r="424">
-      <c r="C424" s="4"/>
+      <c r="C424" s="5"/>
     </row>
     <row r="425">
-      <c r="C425" s="4"/>
+      <c r="C425" s="5"/>
     </row>
     <row r="426">
-      <c r="C426" s="4"/>
+      <c r="C426" s="5"/>
     </row>
     <row r="427">
-      <c r="C427" s="4"/>
+      <c r="C427" s="5"/>
     </row>
     <row r="428">
-      <c r="C428" s="4"/>
+      <c r="C428" s="5"/>
     </row>
     <row r="429">
-      <c r="C429" s="4"/>
+      <c r="C429" s="5"/>
     </row>
     <row r="430">
-      <c r="C430" s="4"/>
+      <c r="C430" s="5"/>
     </row>
     <row r="431">
-      <c r="C431" s="4"/>
+      <c r="C431" s="5"/>
     </row>
     <row r="432">
-      <c r="C432" s="4"/>
+      <c r="C432" s="5"/>
     </row>
     <row r="433">
-      <c r="C433" s="4"/>
+      <c r="C433" s="5"/>
     </row>
     <row r="434">
-      <c r="C434" s="4"/>
+      <c r="C434" s="5"/>
     </row>
     <row r="435">
-      <c r="C435" s="4"/>
+      <c r="C435" s="5"/>
     </row>
     <row r="436">
-      <c r="C436" s="4"/>
+      <c r="C436" s="5"/>
     </row>
     <row r="437">
-      <c r="C437" s="4"/>
+      <c r="C437" s="5"/>
     </row>
     <row r="438">
-      <c r="C438" s="4"/>
+      <c r="C438" s="5"/>
     </row>
     <row r="439">
-      <c r="C439" s="4"/>
+      <c r="C439" s="5"/>
     </row>
     <row r="440">
-      <c r="C440" s="4"/>
+      <c r="C440" s="5"/>
     </row>
     <row r="441">
-      <c r="C441" s="4"/>
+      <c r="C441" s="5"/>
     </row>
     <row r="442">
-      <c r="C442" s="4"/>
+      <c r="C442" s="5"/>
     </row>
     <row r="443">
-      <c r="C443" s="4"/>
+      <c r="C443" s="5"/>
     </row>
     <row r="444">
-      <c r="C444" s="4"/>
+      <c r="C444" s="5"/>
     </row>
     <row r="445">
-      <c r="C445" s="4"/>
+      <c r="C445" s="5"/>
     </row>
     <row r="446">
-      <c r="C446" s="4"/>
+      <c r="C446" s="5"/>
     </row>
     <row r="447">
-      <c r="C447" s="4"/>
+      <c r="C447" s="5"/>
     </row>
     <row r="448">
-      <c r="C448" s="4"/>
+      <c r="C448" s="5"/>
     </row>
     <row r="449">
-      <c r="C449" s="4"/>
+      <c r="C449" s="5"/>
     </row>
     <row r="450">
-      <c r="C450" s="4"/>
+      <c r="C450" s="5"/>
     </row>
     <row r="451">
-      <c r="C451" s="4"/>
+      <c r="C451" s="5"/>
     </row>
     <row r="452">
-      <c r="C452" s="4"/>
+      <c r="C452" s="5"/>
     </row>
     <row r="453">
-      <c r="C453" s="4"/>
+      <c r="C453" s="5"/>
     </row>
     <row r="454">
-      <c r="C454" s="4"/>
+      <c r="C454" s="5"/>
     </row>
     <row r="455">
-      <c r="C455" s="4"/>
+      <c r="C455" s="5"/>
     </row>
     <row r="456">
-      <c r="C456" s="4"/>
+      <c r="C456" s="5"/>
     </row>
     <row r="457">
-      <c r="C457" s="4"/>
+      <c r="C457" s="5"/>
     </row>
     <row r="458">
-      <c r="C458" s="4"/>
+      <c r="C458" s="5"/>
     </row>
     <row r="459">
-      <c r="C459" s="4"/>
+      <c r="C459" s="5"/>
     </row>
     <row r="460">
-      <c r="C460" s="4"/>
+      <c r="C460" s="5"/>
     </row>
     <row r="461">
-      <c r="C461" s="4"/>
+      <c r="C461" s="5"/>
     </row>
     <row r="462">
-      <c r="C462" s="4"/>
+      <c r="C462" s="5"/>
     </row>
     <row r="463">
-      <c r="C463" s="4"/>
+      <c r="C463" s="5"/>
     </row>
     <row r="464">
-      <c r="C464" s="4"/>
+      <c r="C464" s="5"/>
     </row>
     <row r="465">
-      <c r="C465" s="4"/>
+      <c r="C465" s="5"/>
     </row>
     <row r="466">
-      <c r="C466" s="4"/>
+      <c r="C466" s="5"/>
     </row>
     <row r="467">
-      <c r="C467" s="4"/>
+      <c r="C467" s="5"/>
     </row>
     <row r="468">
-      <c r="C468" s="4"/>
+      <c r="C468" s="5"/>
     </row>
     <row r="469">
-      <c r="C469" s="4"/>
+      <c r="C469" s="5"/>
     </row>
     <row r="470">
-      <c r="C470" s="4"/>
+      <c r="C470" s="5"/>
     </row>
     <row r="471">
-      <c r="C471" s="4"/>
+      <c r="C471" s="5"/>
     </row>
     <row r="472">
-      <c r="C472" s="4"/>
+      <c r="C472" s="5"/>
     </row>
     <row r="473">
-      <c r="C473" s="4"/>
+      <c r="C473" s="5"/>
     </row>
     <row r="474">
-      <c r="C474" s="4"/>
+      <c r="C474" s="5"/>
     </row>
     <row r="475">
-      <c r="C475" s="4"/>
+      <c r="C475" s="5"/>
     </row>
     <row r="476">
-      <c r="C476" s="4"/>
+      <c r="C476" s="5"/>
     </row>
     <row r="477">
-      <c r="C477" s="4"/>
+      <c r="C477" s="5"/>
     </row>
     <row r="478">
-      <c r="C478" s="4"/>
+      <c r="C478" s="5"/>
     </row>
     <row r="479">
-      <c r="C479" s="4"/>
+      <c r="C479" s="5"/>
     </row>
     <row r="480">
-      <c r="C480" s="4"/>
+      <c r="C480" s="5"/>
     </row>
     <row r="481">
-      <c r="C481" s="4"/>
+      <c r="C481" s="5"/>
     </row>
     <row r="482">
-      <c r="C482" s="4"/>
+      <c r="C482" s="5"/>
     </row>
     <row r="483">
-      <c r="C483" s="4"/>
+      <c r="C483" s="5"/>
     </row>
     <row r="484">
-      <c r="C484" s="4"/>
+      <c r="C484" s="5"/>
     </row>
     <row r="485">
-      <c r="C485" s="4"/>
+      <c r="C485" s="5"/>
     </row>
     <row r="486">
-      <c r="C486" s="4"/>
+      <c r="C486" s="5"/>
     </row>
     <row r="487">
-      <c r="C487" s="4"/>
+      <c r="C487" s="5"/>
     </row>
     <row r="488">
-      <c r="C488" s="4"/>
+      <c r="C488" s="5"/>
     </row>
     <row r="489">
-      <c r="C489" s="4"/>
+      <c r="C489" s="5"/>
     </row>
     <row r="490">
-      <c r="C490" s="4"/>
+      <c r="C490" s="5"/>
     </row>
     <row r="491">
-      <c r="C491" s="4"/>
+      <c r="C491" s="5"/>
     </row>
     <row r="492">
-      <c r="C492" s="4"/>
+      <c r="C492" s="5"/>
     </row>
     <row r="493">
-      <c r="C493" s="4"/>
+      <c r="C493" s="5"/>
     </row>
     <row r="494">
-      <c r="C494" s="4"/>
+      <c r="C494" s="5"/>
     </row>
     <row r="495">
-      <c r="C495" s="4"/>
+      <c r="C495" s="5"/>
     </row>
     <row r="496">
-      <c r="C496" s="4"/>
+      <c r="C496" s="5"/>
     </row>
     <row r="497">
-      <c r="C497" s="4"/>
+      <c r="C497" s="5"/>
     </row>
     <row r="498">
-      <c r="C498" s="4"/>
+      <c r="C498" s="5"/>
     </row>
     <row r="499">
-      <c r="C499" s="4"/>
+      <c r="C499" s="5"/>
     </row>
     <row r="500">
-      <c r="C500" s="4"/>
+      <c r="C500" s="5"/>
     </row>
     <row r="501">
-      <c r="C501" s="4"/>
+      <c r="C501" s="5"/>
     </row>
     <row r="502">
-      <c r="C502" s="4"/>
+      <c r="C502" s="5"/>
     </row>
     <row r="503">
-      <c r="C503" s="4"/>
+      <c r="C503" s="5"/>
     </row>
     <row r="504">
-      <c r="C504" s="4"/>
+      <c r="C504" s="5"/>
     </row>
     <row r="505">
-      <c r="C505" s="4"/>
+      <c r="C505" s="5"/>
     </row>
     <row r="506">
-      <c r="C506" s="4"/>
+      <c r="C506" s="5"/>
     </row>
     <row r="507">
-      <c r="C507" s="4"/>
+      <c r="C507" s="5"/>
     </row>
     <row r="508">
-      <c r="C508" s="4"/>
+      <c r="C508" s="5"/>
     </row>
     <row r="509">
-      <c r="C509" s="4"/>
+      <c r="C509" s="5"/>
     </row>
     <row r="510">
-      <c r="C510" s="4"/>
+      <c r="C510" s="5"/>
     </row>
     <row r="511">
-      <c r="C511" s="4"/>
+      <c r="C511" s="5"/>
     </row>
     <row r="512">
-      <c r="C512" s="4"/>
+      <c r="C512" s="5"/>
     </row>
     <row r="513">
-      <c r="C513" s="4"/>
+      <c r="C513" s="5"/>
     </row>
     <row r="514">
-      <c r="C514" s="4"/>
+      <c r="C514" s="5"/>
     </row>
     <row r="515">
-      <c r="C515" s="4"/>
+      <c r="C515" s="5"/>
     </row>
     <row r="516">
-      <c r="C516" s="4"/>
+      <c r="C516" s="5"/>
     </row>
     <row r="517">
-      <c r="C517" s="4"/>
+      <c r="C517" s="5"/>
     </row>
     <row r="518">
-      <c r="C518" s="4"/>
+      <c r="C518" s="5"/>
     </row>
     <row r="519">
-      <c r="C519" s="4"/>
+      <c r="C519" s="5"/>
     </row>
     <row r="520">
-      <c r="C520" s="4"/>
+      <c r="C520" s="5"/>
     </row>
     <row r="521">
-      <c r="C521" s="4"/>
+      <c r="C521" s="5"/>
     </row>
     <row r="522">
-      <c r="C522" s="4"/>
+      <c r="C522" s="5"/>
     </row>
     <row r="523">
-      <c r="C523" s="4"/>
+      <c r="C523" s="5"/>
     </row>
     <row r="524">
-      <c r="C524" s="4"/>
+      <c r="C524" s="5"/>
     </row>
     <row r="525">
-      <c r="C525" s="4"/>
+      <c r="C525" s="5"/>
     </row>
     <row r="526">
-      <c r="C526" s="4"/>
+      <c r="C526" s="5"/>
     </row>
     <row r="527">
-      <c r="C527" s="4"/>
+      <c r="C527" s="5"/>
     </row>
     <row r="528">
-      <c r="C528" s="4"/>
+      <c r="C528" s="5"/>
     </row>
     <row r="529">
-      <c r="C529" s="4"/>
+      <c r="C529" s="5"/>
     </row>
     <row r="530">
-      <c r="C530" s="4"/>
+      <c r="C530" s="5"/>
     </row>
     <row r="531">
-      <c r="C531" s="4"/>
+      <c r="C531" s="5"/>
     </row>
     <row r="532">
-      <c r="C532" s="4"/>
+      <c r="C532" s="5"/>
     </row>
     <row r="533">
-      <c r="C533" s="4"/>
+      <c r="C533" s="5"/>
     </row>
     <row r="534">
-      <c r="C534" s="4"/>
+      <c r="C534" s="5"/>
     </row>
     <row r="535">
-      <c r="C535" s="4"/>
+      <c r="C535" s="5"/>
     </row>
     <row r="536">
-      <c r="C536" s="4"/>
+      <c r="C536" s="5"/>
     </row>
     <row r="537">
-      <c r="C537" s="4"/>
+      <c r="C537" s="5"/>
     </row>
     <row r="538">
-      <c r="C538" s="4"/>
+      <c r="C538" s="5"/>
     </row>
     <row r="539">
-      <c r="C539" s="4"/>
+      <c r="C539" s="5"/>
     </row>
     <row r="540">
-      <c r="C540" s="4"/>
+      <c r="C540" s="5"/>
     </row>
     <row r="541">
-      <c r="C541" s="4"/>
+      <c r="C541" s="5"/>
     </row>
     <row r="542">
-      <c r="C542" s="4"/>
+      <c r="C542" s="5"/>
     </row>
     <row r="543">
-      <c r="C543" s="4"/>
+      <c r="C543" s="5"/>
     </row>
     <row r="544">
-      <c r="C544" s="4"/>
+      <c r="C544" s="5"/>
     </row>
     <row r="545">
-      <c r="C545" s="4"/>
+      <c r="C545" s="5"/>
     </row>
     <row r="546">
-      <c r="C546" s="4"/>
+      <c r="C546" s="5"/>
     </row>
     <row r="547">
-      <c r="C547" s="4"/>
+      <c r="C547" s="5"/>
     </row>
     <row r="548">
-      <c r="C548" s="4"/>
+      <c r="C548" s="5"/>
     </row>
     <row r="549">
-      <c r="C549" s="4"/>
+      <c r="C549" s="5"/>
     </row>
     <row r="550">
-      <c r="C550" s="4"/>
+      <c r="C550" s="5"/>
     </row>
     <row r="551">
-      <c r="C551" s="4"/>
+      <c r="C551" s="5"/>
     </row>
     <row r="552">
-      <c r="C552" s="4"/>
+      <c r="C552" s="5"/>
     </row>
     <row r="553">
-      <c r="C553" s="4"/>
+      <c r="C553" s="5"/>
     </row>
     <row r="554">
-      <c r="C554" s="4"/>
+      <c r="C554" s="5"/>
     </row>
     <row r="555">
-      <c r="C555" s="4"/>
+      <c r="C555" s="5"/>
     </row>
     <row r="556">
-      <c r="C556" s="4"/>
+      <c r="C556" s="5"/>
     </row>
     <row r="557">
-      <c r="C557" s="4"/>
+      <c r="C557" s="5"/>
     </row>
     <row r="558">
-      <c r="C558" s="4"/>
+      <c r="C558" s="5"/>
     </row>
     <row r="559">
-      <c r="C559" s="4"/>
+      <c r="C559" s="5"/>
     </row>
     <row r="560">
-      <c r="C560" s="4"/>
+      <c r="C560" s="5"/>
     </row>
     <row r="561">
-      <c r="C561" s="4"/>
+      <c r="C561" s="5"/>
     </row>
     <row r="562">
-      <c r="C562" s="4"/>
+      <c r="C562" s="5"/>
     </row>
     <row r="563">
-      <c r="C563" s="4"/>
+      <c r="C563" s="5"/>
     </row>
     <row r="564">
-      <c r="C564" s="4"/>
+      <c r="C564" s="5"/>
     </row>
     <row r="565">
-      <c r="C565" s="4"/>
+      <c r="C565" s="5"/>
     </row>
     <row r="566">
-      <c r="C566" s="4"/>
+      <c r="C566" s="5"/>
     </row>
     <row r="567">
-      <c r="C567" s="4"/>
+      <c r="C567" s="5"/>
     </row>
     <row r="568">
-      <c r="C568" s="4"/>
+      <c r="C568" s="5"/>
     </row>
     <row r="569">
-      <c r="C569" s="4"/>
+      <c r="C569" s="5"/>
     </row>
     <row r="570">
-      <c r="C570" s="4"/>
+      <c r="C570" s="5"/>
     </row>
     <row r="571">
-      <c r="C571" s="4"/>
+      <c r="C571" s="5"/>
     </row>
     <row r="572">
-      <c r="C572" s="4"/>
+      <c r="C572" s="5"/>
     </row>
     <row r="573">
-      <c r="C573" s="4"/>
+      <c r="C573" s="5"/>
     </row>
     <row r="574">
-      <c r="C574" s="4"/>
+      <c r="C574" s="5"/>
     </row>
     <row r="575">
-      <c r="C575" s="4"/>
+      <c r="C575" s="5"/>
     </row>
     <row r="576">
-      <c r="C576" s="4"/>
+      <c r="C576" s="5"/>
     </row>
     <row r="577">
-      <c r="C577" s="4"/>
+      <c r="C577" s="5"/>
     </row>
     <row r="578">
-      <c r="C578" s="4"/>
+      <c r="C578" s="5"/>
     </row>
     <row r="579">
-      <c r="C579" s="4"/>
+      <c r="C579" s="5"/>
     </row>
     <row r="580">
-      <c r="C580" s="4"/>
+      <c r="C580" s="5"/>
     </row>
     <row r="581">
-      <c r="C581" s="4"/>
+      <c r="C581" s="5"/>
     </row>
     <row r="582">
-      <c r="C582" s="4"/>
+      <c r="C582" s="5"/>
     </row>
     <row r="583">
-      <c r="C583" s="4"/>
+      <c r="C583" s="5"/>
     </row>
     <row r="584">
-      <c r="C584" s="4"/>
+      <c r="C584" s="5"/>
     </row>
     <row r="585">
-      <c r="C585" s="4"/>
+      <c r="C585" s="5"/>
     </row>
     <row r="586">
-      <c r="C586" s="4"/>
+      <c r="C586" s="5"/>
     </row>
     <row r="587">
-      <c r="C587" s="4"/>
+      <c r="C587" s="5"/>
     </row>
     <row r="588">
-      <c r="C588" s="4"/>
+      <c r="C588" s="5"/>
     </row>
     <row r="589">
-      <c r="C589" s="4"/>
+      <c r="C589" s="5"/>
     </row>
     <row r="590">
-      <c r="C590" s="4"/>
+      <c r="C590" s="5"/>
     </row>
     <row r="591">
-      <c r="C591" s="4"/>
+      <c r="C591" s="5"/>
     </row>
     <row r="592">
-      <c r="C592" s="4"/>
+      <c r="C592" s="5"/>
     </row>
     <row r="593">
-      <c r="C593" s="4"/>
+      <c r="C593" s="5"/>
     </row>
     <row r="594">
-      <c r="C594" s="4"/>
+      <c r="C594" s="5"/>
     </row>
     <row r="595">
-      <c r="C595" s="4"/>
+      <c r="C595" s="5"/>
     </row>
     <row r="596">
-      <c r="C596" s="4"/>
+      <c r="C596" s="5"/>
     </row>
     <row r="597">
-      <c r="C597" s="4"/>
+      <c r="C597" s="5"/>
     </row>
     <row r="598">
-      <c r="C598" s="4"/>
+      <c r="C598" s="5"/>
     </row>
     <row r="599">
-      <c r="C599" s="4"/>
+      <c r="C599" s="5"/>
     </row>
     <row r="600">
-      <c r="C600" s="4"/>
+      <c r="C600" s="5"/>
     </row>
     <row r="601">
-      <c r="C601" s="4"/>
+      <c r="C601" s="5"/>
     </row>
     <row r="602">
-      <c r="C602" s="4"/>
+      <c r="C602" s="5"/>
     </row>
     <row r="603">
-      <c r="C603" s="4"/>
+      <c r="C603" s="5"/>
     </row>
     <row r="604">
-      <c r="C604" s="4"/>
+      <c r="C604" s="5"/>
     </row>
     <row r="605">
-      <c r="C605" s="4"/>
+      <c r="C605" s="5"/>
     </row>
     <row r="606">
-      <c r="C606" s="4"/>
+      <c r="C606" s="5"/>
     </row>
     <row r="607">
-      <c r="C607" s="4"/>
+      <c r="C607" s="5"/>
     </row>
     <row r="608">
-      <c r="C608" s="4"/>
+      <c r="C608" s="5"/>
     </row>
     <row r="609">
-      <c r="C609" s="4"/>
+      <c r="C609" s="5"/>
     </row>
     <row r="610">
-      <c r="C610" s="4"/>
+      <c r="C610" s="5"/>
     </row>
     <row r="611">
-      <c r="C611" s="4"/>
+      <c r="C611" s="5"/>
     </row>
     <row r="612">
-      <c r="C612" s="4"/>
+      <c r="C612" s="5"/>
     </row>
     <row r="613">
-      <c r="C613" s="4"/>
+      <c r="C613" s="5"/>
     </row>
     <row r="614">
-      <c r="C614" s="4"/>
+      <c r="C614" s="5"/>
     </row>
     <row r="615">
-      <c r="C615" s="4"/>
+      <c r="C615" s="5"/>
     </row>
     <row r="616">
-      <c r="C616" s="4"/>
+      <c r="C616" s="5"/>
     </row>
     <row r="617">
-      <c r="C617" s="4"/>
+      <c r="C617" s="5"/>
     </row>
     <row r="618">
-      <c r="C618" s="4"/>
+      <c r="C618" s="5"/>
     </row>
     <row r="619">
-      <c r="C619" s="4"/>
+      <c r="C619" s="5"/>
     </row>
     <row r="620">
-      <c r="C620" s="4"/>
+      <c r="C620" s="5"/>
     </row>
     <row r="621">
-      <c r="C621" s="4"/>
+      <c r="C621" s="5"/>
     </row>
     <row r="622">
-      <c r="C622" s="4"/>
+      <c r="C622" s="5"/>
     </row>
     <row r="623">
-      <c r="C623" s="4"/>
+      <c r="C623" s="5"/>
     </row>
     <row r="624">
-      <c r="C624" s="4"/>
+      <c r="C624" s="5"/>
     </row>
     <row r="625">
-      <c r="C625" s="4"/>
+      <c r="C625" s="5"/>
     </row>
     <row r="626">
-      <c r="C626" s="4"/>
+      <c r="C626" s="5"/>
     </row>
     <row r="627">
-      <c r="C627" s="4"/>
+      <c r="C627" s="5"/>
     </row>
     <row r="628">
-      <c r="C628" s="4"/>
+      <c r="C628" s="5"/>
     </row>
     <row r="629">
-      <c r="C629" s="4"/>
+      <c r="C629" s="5"/>
     </row>
     <row r="630">
-      <c r="C630" s="4"/>
+      <c r="C630" s="5"/>
     </row>
     <row r="631">
-      <c r="C631" s="4"/>
+      <c r="C631" s="5"/>
     </row>
     <row r="632">
-      <c r="C632" s="4"/>
+      <c r="C632" s="5"/>
     </row>
     <row r="633">
-      <c r="C633" s="4"/>
+      <c r="C633" s="5"/>
     </row>
     <row r="634">
-      <c r="C634" s="4"/>
+      <c r="C634" s="5"/>
     </row>
     <row r="635">
-      <c r="C635" s="4"/>
+      <c r="C635" s="5"/>
     </row>
     <row r="636">
-      <c r="C636" s="4"/>
+      <c r="C636" s="5"/>
     </row>
     <row r="637">
-      <c r="C637" s="4"/>
+      <c r="C637" s="5"/>
     </row>
     <row r="638">
-      <c r="C638" s="4"/>
+      <c r="C638" s="5"/>
     </row>
     <row r="639">
-      <c r="C639" s="4"/>
+      <c r="C639" s="5"/>
     </row>
     <row r="640">
-      <c r="C640" s="4"/>
+      <c r="C640" s="5"/>
     </row>
     <row r="641">
-      <c r="C641" s="4"/>
+      <c r="C641" s="5"/>
     </row>
     <row r="642">
-      <c r="C642" s="4"/>
+      <c r="C642" s="5"/>
     </row>
     <row r="643">
-      <c r="C643" s="4"/>
+      <c r="C643" s="5"/>
     </row>
     <row r="644">
-      <c r="C644" s="4"/>
+      <c r="C644" s="5"/>
     </row>
     <row r="645">
-      <c r="C645" s="4"/>
+      <c r="C645" s="5"/>
     </row>
     <row r="646">
-      <c r="C646" s="4"/>
+      <c r="C646" s="5"/>
     </row>
     <row r="647">
-      <c r="C647" s="4"/>
+      <c r="C647" s="5"/>
     </row>
     <row r="648">
-      <c r="C648" s="4"/>
+      <c r="C648" s="5"/>
     </row>
     <row r="649">
-      <c r="C649" s="4"/>
+      <c r="C649" s="5"/>
     </row>
     <row r="650">
-      <c r="C650" s="4"/>
+      <c r="C650" s="5"/>
     </row>
     <row r="651">
-      <c r="C651" s="4"/>
+      <c r="C651" s="5"/>
     </row>
     <row r="652">
-      <c r="C652" s="4"/>
+      <c r="C652" s="5"/>
     </row>
     <row r="653">
-      <c r="C653" s="4"/>
+      <c r="C653" s="5"/>
     </row>
     <row r="654">
-      <c r="C654" s="4"/>
+      <c r="C654" s="5"/>
     </row>
     <row r="655">
-      <c r="C655" s="4"/>
+      <c r="C655" s="5"/>
     </row>
     <row r="656">
-      <c r="C656" s="4"/>
+      <c r="C656" s="5"/>
     </row>
     <row r="657">
-      <c r="C657" s="4"/>
+      <c r="C657" s="5"/>
     </row>
     <row r="658">
-      <c r="C658" s="4"/>
+      <c r="C658" s="5"/>
     </row>
     <row r="659">
-      <c r="C659" s="4"/>
+      <c r="C659" s="5"/>
     </row>
     <row r="660">
-      <c r="C660" s="4"/>
+      <c r="C660" s="5"/>
     </row>
     <row r="661">
-      <c r="C661" s="4"/>
+      <c r="C661" s="5"/>
     </row>
     <row r="662">
-      <c r="C662" s="4"/>
+      <c r="C662" s="5"/>
     </row>
     <row r="663">
-      <c r="C663" s="4"/>
+      <c r="C663" s="5"/>
     </row>
     <row r="664">
-      <c r="C664" s="4"/>
+      <c r="C664" s="5"/>
     </row>
     <row r="665">
-      <c r="C665" s="4"/>
+      <c r="C665" s="5"/>
     </row>
     <row r="666">
-      <c r="C666" s="4"/>
+      <c r="C666" s="5"/>
     </row>
     <row r="667">
-      <c r="C667" s="4"/>
+      <c r="C667" s="5"/>
     </row>
     <row r="668">
-      <c r="C668" s="4"/>
+      <c r="C668" s="5"/>
     </row>
     <row r="669">
-      <c r="C669" s="4"/>
+      <c r="C669" s="5"/>
     </row>
     <row r="670">
-      <c r="C670" s="4"/>
+      <c r="C670" s="5"/>
     </row>
     <row r="671">
-      <c r="C671" s="4"/>
+      <c r="C671" s="5"/>
     </row>
     <row r="672">
-      <c r="C672" s="4"/>
+      <c r="C672" s="5"/>
     </row>
     <row r="673">
-      <c r="C673" s="4"/>
+      <c r="C673" s="5"/>
     </row>
     <row r="674">
-      <c r="C674" s="4"/>
+      <c r="C674" s="5"/>
     </row>
     <row r="675">
-      <c r="C675" s="4"/>
+      <c r="C675" s="5"/>
     </row>
     <row r="676">
-      <c r="C676" s="4"/>
+      <c r="C676" s="5"/>
     </row>
     <row r="677">
-      <c r="C677" s="4"/>
+      <c r="C677" s="5"/>
     </row>
     <row r="678">
-      <c r="C678" s="4"/>
+      <c r="C678" s="5"/>
     </row>
     <row r="679">
-      <c r="C679" s="4"/>
+      <c r="C679" s="5"/>
     </row>
     <row r="680">
-      <c r="C680" s="4"/>
+      <c r="C680" s="5"/>
     </row>
     <row r="681">
-      <c r="C681" s="4"/>
+      <c r="C681" s="5"/>
     </row>
     <row r="682">
-      <c r="C682" s="4"/>
+      <c r="C682" s="5"/>
     </row>
     <row r="683">
-      <c r="C683" s="4"/>
+      <c r="C683" s="5"/>
     </row>
     <row r="684">
-      <c r="C684" s="4"/>
+      <c r="C684" s="5"/>
     </row>
     <row r="685">
-      <c r="C685" s="4"/>
+      <c r="C685" s="5"/>
     </row>
     <row r="686">
-      <c r="C686" s="4"/>
+      <c r="C686" s="5"/>
     </row>
     <row r="687">
-      <c r="C687" s="4"/>
+      <c r="C687" s="5"/>
     </row>
     <row r="688">
-      <c r="C688" s="4"/>
+      <c r="C688" s="5"/>
     </row>
     <row r="689">
-      <c r="C689" s="4"/>
+      <c r="C689" s="5"/>
     </row>
     <row r="690">
-      <c r="C690" s="4"/>
+      <c r="C690" s="5"/>
     </row>
     <row r="691">
-      <c r="C691" s="4"/>
+      <c r="C691" s="5"/>
     </row>
     <row r="692">
-      <c r="C692" s="4"/>
+      <c r="C692" s="5"/>
     </row>
     <row r="693">
-      <c r="C693" s="4"/>
+      <c r="C693" s="5"/>
     </row>
     <row r="694">
-      <c r="C694" s="4"/>
+      <c r="C694" s="5"/>
     </row>
     <row r="695">
-      <c r="C695" s="4"/>
+      <c r="C695" s="5"/>
     </row>
     <row r="696">
-      <c r="C696" s="4"/>
+      <c r="C696" s="5"/>
     </row>
     <row r="697">
-      <c r="C697" s="4"/>
+      <c r="C697" s="5"/>
     </row>
     <row r="698">
-      <c r="C698" s="4"/>
+      <c r="C698" s="5"/>
     </row>
     <row r="699">
-      <c r="C699" s="4"/>
+      <c r="C699" s="5"/>
     </row>
     <row r="700">
-      <c r="C700" s="4"/>
+      <c r="C700" s="5"/>
     </row>
     <row r="701">
-      <c r="C701" s="4"/>
+      <c r="C701" s="5"/>
     </row>
     <row r="702">
-      <c r="C702" s="4"/>
+      <c r="C702" s="5"/>
     </row>
     <row r="703">
-      <c r="C703" s="4"/>
+      <c r="C703" s="5"/>
     </row>
     <row r="704">
-      <c r="C704" s="4"/>
+      <c r="C704" s="5"/>
     </row>
     <row r="705">
-      <c r="C705" s="4"/>
+      <c r="C705" s="5"/>
     </row>
     <row r="706">
-      <c r="C706" s="4"/>
+      <c r="C706" s="5"/>
     </row>
     <row r="707">
-      <c r="C707" s="4"/>
+      <c r="C707" s="5"/>
     </row>
     <row r="708">
-      <c r="C708" s="4"/>
+      <c r="C708" s="5"/>
     </row>
     <row r="709">
-      <c r="C709" s="4"/>
+      <c r="C709" s="5"/>
     </row>
     <row r="710">
-      <c r="C710" s="4"/>
+      <c r="C710" s="5"/>
     </row>
     <row r="711">
-      <c r="C711" s="4"/>
+      <c r="C711" s="5"/>
     </row>
     <row r="712">
-      <c r="C712" s="4"/>
+      <c r="C712" s="5"/>
     </row>
     <row r="713">
-      <c r="C713" s="4"/>
+      <c r="C713" s="5"/>
     </row>
     <row r="714">
-      <c r="C714" s="4"/>
+      <c r="C714" s="5"/>
     </row>
     <row r="715">
-      <c r="C715" s="4"/>
+      <c r="C715" s="5"/>
     </row>
     <row r="716">
-      <c r="C716" s="4"/>
+      <c r="C716" s="5"/>
     </row>
     <row r="717">
-      <c r="C717" s="4"/>
+      <c r="C717" s="5"/>
     </row>
     <row r="718">
-      <c r="C718" s="4"/>
+      <c r="C718" s="5"/>
     </row>
     <row r="719">
-      <c r="C719" s="4"/>
+      <c r="C719" s="5"/>
     </row>
     <row r="720">
-      <c r="C720" s="4"/>
+      <c r="C720" s="5"/>
     </row>
     <row r="721">
-      <c r="C721" s="4"/>
+      <c r="C721" s="5"/>
     </row>
     <row r="722">
-      <c r="C722" s="4"/>
+      <c r="C722" s="5"/>
     </row>
     <row r="723">
-      <c r="C723" s="4"/>
+      <c r="C723" s="5"/>
     </row>
     <row r="724">
-      <c r="C724" s="4"/>
+      <c r="C724" s="5"/>
     </row>
     <row r="725">
-      <c r="C725" s="4"/>
+      <c r="C725" s="5"/>
     </row>
     <row r="726">
-      <c r="C726" s="4"/>
+      <c r="C726" s="5"/>
     </row>
     <row r="727">
-      <c r="C727" s="4"/>
+      <c r="C727" s="5"/>
     </row>
     <row r="728">
-      <c r="C728" s="4"/>
+      <c r="C728" s="5"/>
     </row>
     <row r="729">
-      <c r="C729" s="4"/>
+      <c r="C729" s="5"/>
     </row>
     <row r="730">
-      <c r="C730" s="4"/>
+      <c r="C730" s="5"/>
     </row>
     <row r="731">
-      <c r="C731" s="4"/>
+      <c r="C731" s="5"/>
     </row>
     <row r="732">
-      <c r="C732" s="4"/>
+      <c r="C732" s="5"/>
     </row>
     <row r="733">
-      <c r="C733" s="4"/>
+      <c r="C733" s="5"/>
     </row>
     <row r="734">
-      <c r="C734" s="4"/>
+      <c r="C734" s="5"/>
     </row>
     <row r="735">
-      <c r="C735" s="4"/>
+      <c r="C735" s="5"/>
     </row>
     <row r="736">
-      <c r="C736" s="4"/>
+      <c r="C736" s="5"/>
     </row>
     <row r="737">
-      <c r="C737" s="4"/>
+      <c r="C737" s="5"/>
     </row>
     <row r="738">
-      <c r="C738" s="4"/>
+      <c r="C738" s="5"/>
     </row>
     <row r="739">
-      <c r="C739" s="4"/>
+      <c r="C739" s="5"/>
     </row>
     <row r="740">
-      <c r="C740" s="4"/>
+      <c r="C740" s="5"/>
     </row>
     <row r="741">
-      <c r="C741" s="4"/>
+      <c r="C741" s="5"/>
     </row>
     <row r="742">
-      <c r="C742" s="4"/>
+      <c r="C742" s="5"/>
     </row>
     <row r="743">
-      <c r="C743" s="4"/>
+      <c r="C743" s="5"/>
     </row>
     <row r="744">
-      <c r="C744" s="4"/>
+      <c r="C744" s="5"/>
     </row>
     <row r="745">
-      <c r="C745" s="4"/>
+      <c r="C745" s="5"/>
     </row>
     <row r="746">
-      <c r="C746" s="4"/>
+      <c r="C746" s="5"/>
     </row>
     <row r="747">
-      <c r="C747" s="4"/>
+      <c r="C747" s="5"/>
     </row>
     <row r="748">
-      <c r="C748" s="4"/>
+      <c r="C748" s="5"/>
     </row>
     <row r="749">
-      <c r="C749" s="4"/>
+      <c r="C749" s="5"/>
     </row>
     <row r="750">
-      <c r="C750" s="4"/>
+      <c r="C750" s="5"/>
     </row>
     <row r="751">
-      <c r="C751" s="4"/>
+      <c r="C751" s="5"/>
     </row>
     <row r="752">
-      <c r="C752" s="4"/>
+      <c r="C752" s="5"/>
     </row>
     <row r="753">
-      <c r="C753" s="4"/>
+      <c r="C753" s="5"/>
     </row>
     <row r="754">
-      <c r="C754" s="4"/>
+      <c r="C754" s="5"/>
     </row>
     <row r="755">
-      <c r="C755" s="4"/>
+      <c r="C755" s="5"/>
     </row>
     <row r="756">
-      <c r="C756" s="4"/>
+      <c r="C756" s="5"/>
     </row>
     <row r="757">
-      <c r="C757" s="4"/>
+      <c r="C757" s="5"/>
     </row>
     <row r="758">
-      <c r="C758" s="4"/>
+      <c r="C758" s="5"/>
     </row>
     <row r="759">
-      <c r="C759" s="4"/>
+      <c r="C759" s="5"/>
     </row>
     <row r="760">
-      <c r="C760" s="4"/>
+      <c r="C760" s="5"/>
     </row>
     <row r="761">
-      <c r="C761" s="4"/>
+      <c r="C761" s="5"/>
     </row>
     <row r="762">
-      <c r="C762" s="4"/>
+      <c r="C762" s="5"/>
     </row>
     <row r="763">
-      <c r="C763" s="4"/>
+      <c r="C763" s="5"/>
     </row>
     <row r="764">
-      <c r="C764" s="4"/>
+      <c r="C764" s="5"/>
     </row>
     <row r="765">
-      <c r="C765" s="4"/>
+      <c r="C765" s="5"/>
     </row>
     <row r="766">
-      <c r="C766" s="4"/>
+      <c r="C766" s="5"/>
     </row>
     <row r="767">
-      <c r="C767" s="4"/>
+      <c r="C767" s="5"/>
     </row>
     <row r="768">
-      <c r="C768" s="4"/>
+      <c r="C768" s="5"/>
     </row>
     <row r="769">
-      <c r="C769" s="4"/>
+      <c r="C769" s="5"/>
     </row>
     <row r="770">
-      <c r="C770" s="4"/>
+      <c r="C770" s="5"/>
     </row>
     <row r="771">
-      <c r="C771" s="4"/>
+      <c r="C771" s="5"/>
     </row>
     <row r="772">
-      <c r="C772" s="4"/>
+      <c r="C772" s="5"/>
     </row>
     <row r="773">
-      <c r="C773" s="4"/>
+      <c r="C773" s="5"/>
     </row>
     <row r="774">
-      <c r="C774" s="4"/>
+      <c r="C774" s="5"/>
     </row>
     <row r="775">
-      <c r="C775" s="4"/>
+      <c r="C775" s="5"/>
     </row>
     <row r="776">
-      <c r="C776" s="4"/>
+      <c r="C776" s="5"/>
     </row>
     <row r="777">
-      <c r="C777" s="4"/>
+      <c r="C777" s="5"/>
     </row>
     <row r="778">
-      <c r="C778" s="4"/>
+      <c r="C778" s="5"/>
     </row>
     <row r="779">
-      <c r="C779" s="4"/>
+      <c r="C779" s="5"/>
     </row>
     <row r="780">
-      <c r="C780" s="4"/>
+      <c r="C780" s="5"/>
     </row>
     <row r="781">
-      <c r="C781" s="4"/>
+      <c r="C781" s="5"/>
     </row>
     <row r="782">
-      <c r="C782" s="4"/>
+      <c r="C782" s="5"/>
     </row>
     <row r="783">
-      <c r="C783" s="4"/>
+      <c r="C783" s="5"/>
     </row>
     <row r="784">
-      <c r="C784" s="4"/>
+      <c r="C784" s="5"/>
     </row>
     <row r="785">
-      <c r="C785" s="4"/>
+      <c r="C785" s="5"/>
     </row>
     <row r="786">
-      <c r="C786" s="4"/>
+      <c r="C786" s="5"/>
     </row>
     <row r="787">
-      <c r="C787" s="4"/>
+      <c r="C787" s="5"/>
     </row>
     <row r="788">
-      <c r="C788" s="4"/>
+      <c r="C788" s="5"/>
     </row>
     <row r="789">
-      <c r="C789" s="4"/>
+      <c r="C789" s="5"/>
     </row>
     <row r="790">
-      <c r="C790" s="4"/>
+      <c r="C790" s="5"/>
     </row>
     <row r="791">
-      <c r="C791" s="4"/>
+      <c r="C791" s="5"/>
     </row>
     <row r="792">
-      <c r="C792" s="4"/>
+      <c r="C792" s="5"/>
     </row>
     <row r="793">
-      <c r="C793" s="4"/>
+      <c r="C793" s="5"/>
     </row>
     <row r="794">
-      <c r="C794" s="4"/>
+      <c r="C794" s="5"/>
     </row>
     <row r="795">
-      <c r="C795" s="4"/>
+      <c r="C795" s="5"/>
     </row>
     <row r="796">
-      <c r="C796" s="4"/>
+      <c r="C796" s="5"/>
     </row>
     <row r="797">
-      <c r="C797" s="4"/>
+      <c r="C797" s="5"/>
     </row>
     <row r="798">
-      <c r="C798" s="4"/>
+      <c r="C798" s="5"/>
     </row>
     <row r="799">
-      <c r="C799" s="4"/>
+      <c r="C799" s="5"/>
     </row>
     <row r="800">
-      <c r="C800" s="4"/>
+      <c r="C800" s="5"/>
     </row>
     <row r="801">
-      <c r="C801" s="4"/>
+      <c r="C801" s="5"/>
     </row>
     <row r="802">
-      <c r="C802" s="4"/>
+      <c r="C802" s="5"/>
     </row>
     <row r="803">
-      <c r="C803" s="4"/>
+      <c r="C803" s="5"/>
     </row>
     <row r="804">
-      <c r="C804" s="4"/>
+      <c r="C804" s="5"/>
     </row>
     <row r="805">
-      <c r="C805" s="4"/>
+      <c r="C805" s="5"/>
     </row>
     <row r="806">
-      <c r="C806" s="4"/>
+      <c r="C806" s="5"/>
     </row>
     <row r="807">
-      <c r="C807" s="4"/>
+      <c r="C807" s="5"/>
     </row>
     <row r="808">
-      <c r="C808" s="4"/>
+      <c r="C808" s="5"/>
     </row>
     <row r="809">
-      <c r="C809" s="4"/>
+      <c r="C809" s="5"/>
     </row>
     <row r="810">
-      <c r="C810" s="4"/>
+      <c r="C810" s="5"/>
     </row>
     <row r="811">
-      <c r="C811" s="4"/>
+      <c r="C811" s="5"/>
     </row>
     <row r="812">
-      <c r="C812" s="4"/>
+      <c r="C812" s="5"/>
     </row>
     <row r="813">
-      <c r="C813" s="4"/>
+      <c r="C813" s="5"/>
     </row>
     <row r="814">
-      <c r="C814" s="4"/>
+      <c r="C814" s="5"/>
     </row>
     <row r="815">
-      <c r="C815" s="4"/>
+      <c r="C815" s="5"/>
     </row>
     <row r="816">
-      <c r="C816" s="4"/>
+      <c r="C816" s="5"/>
     </row>
     <row r="817">
-      <c r="C817" s="4"/>
+      <c r="C817" s="5"/>
     </row>
     <row r="818">
-      <c r="C818" s="4"/>
+      <c r="C818" s="5"/>
     </row>
     <row r="819">
-      <c r="C819" s="4"/>
+      <c r="C819" s="5"/>
     </row>
     <row r="820">
-      <c r="C820" s="4"/>
+      <c r="C820" s="5"/>
     </row>
     <row r="821">
-      <c r="C821" s="4"/>
+      <c r="C821" s="5"/>
     </row>
     <row r="822">
-      <c r="C822" s="4"/>
+      <c r="C822" s="5"/>
     </row>
     <row r="823">
-      <c r="C823" s="4"/>
+      <c r="C823" s="5"/>
     </row>
     <row r="824">
-      <c r="C824" s="4"/>
+      <c r="C824" s="5"/>
     </row>
     <row r="825">
-      <c r="C825" s="4"/>
+      <c r="C825" s="5"/>
     </row>
     <row r="826">
-      <c r="C826" s="4"/>
+      <c r="C826" s="5"/>
     </row>
     <row r="827">
-      <c r="C827" s="4"/>
+      <c r="C827" s="5"/>
     </row>
     <row r="828">
-      <c r="C828" s="4"/>
+      <c r="C828" s="5"/>
     </row>
     <row r="829">
-      <c r="C829" s="4"/>
+      <c r="C829" s="5"/>
     </row>
     <row r="830">
-      <c r="C830" s="4"/>
+      <c r="C830" s="5"/>
     </row>
     <row r="831">
-      <c r="C831" s="4"/>
+      <c r="C831" s="5"/>
     </row>
     <row r="832">
-      <c r="C832" s="4"/>
+      <c r="C832" s="5"/>
     </row>
     <row r="833">
-      <c r="C833" s="4"/>
+      <c r="C833" s="5"/>
     </row>
     <row r="834">
-      <c r="C834" s="4"/>
+      <c r="C834" s="5"/>
     </row>
     <row r="835">
-      <c r="C835" s="4"/>
+      <c r="C835" s="5"/>
     </row>
     <row r="836">
-      <c r="C836" s="4"/>
+      <c r="C836" s="5"/>
     </row>
     <row r="837">
-      <c r="C837" s="4"/>
+      <c r="C837" s="5"/>
     </row>
     <row r="838">
-      <c r="C838" s="4"/>
+      <c r="C838" s="5"/>
     </row>
     <row r="839">
-      <c r="C839" s="4"/>
+      <c r="C839" s="5"/>
     </row>
     <row r="840">
-      <c r="C840" s="4"/>
+      <c r="C840" s="5"/>
     </row>
     <row r="841">
-      <c r="C841" s="4"/>
+      <c r="C841" s="5"/>
     </row>
     <row r="842">
-      <c r="C842" s="4"/>
+      <c r="C842" s="5"/>
     </row>
     <row r="843">
-      <c r="C843" s="4"/>
+      <c r="C843" s="5"/>
     </row>
     <row r="844">
-      <c r="C844" s="4"/>
+      <c r="C844" s="5"/>
     </row>
     <row r="845">
-      <c r="C845" s="4"/>
+      <c r="C845" s="5"/>
     </row>
     <row r="846">
-      <c r="C846" s="4"/>
+      <c r="C846" s="5"/>
     </row>
     <row r="847">
-      <c r="C847" s="4"/>
+      <c r="C847" s="5"/>
     </row>
     <row r="848">
-      <c r="C848" s="4"/>
+      <c r="C848" s="5"/>
     </row>
     <row r="849">
-      <c r="C849" s="4"/>
+      <c r="C849" s="5"/>
     </row>
     <row r="850">
-      <c r="C850" s="4"/>
+      <c r="C850" s="5"/>
     </row>
     <row r="851">
-      <c r="C851" s="4"/>
+      <c r="C851" s="5"/>
     </row>
     <row r="852">
-      <c r="C852" s="4"/>
+      <c r="C852" s="5"/>
     </row>
     <row r="853">
-      <c r="C853" s="4"/>
+      <c r="C853" s="5"/>
     </row>
     <row r="854">
-      <c r="C854" s="4"/>
+      <c r="C854" s="5"/>
     </row>
     <row r="855">
-      <c r="C855" s="4"/>
+      <c r="C855" s="5"/>
     </row>
     <row r="856">
-      <c r="C856" s="4"/>
+      <c r="C856" s="5"/>
     </row>
     <row r="857">
-      <c r="C857" s="4"/>
+      <c r="C857" s="5"/>
     </row>
     <row r="858">
-      <c r="C858" s="4"/>
+      <c r="C858" s="5"/>
     </row>
     <row r="859">
-      <c r="C859" s="4"/>
+      <c r="C859" s="5"/>
     </row>
     <row r="860">
-      <c r="C860" s="4"/>
+      <c r="C860" s="5"/>
     </row>
     <row r="861">
-      <c r="C861" s="4"/>
+      <c r="C861" s="5"/>
     </row>
     <row r="862">
-      <c r="C862" s="4"/>
+      <c r="C862" s="5"/>
     </row>
     <row r="863">
-      <c r="C863" s="4"/>
+      <c r="C863" s="5"/>
     </row>
     <row r="864">
-      <c r="C864" s="4"/>
+      <c r="C864" s="5"/>
     </row>
     <row r="865">
-      <c r="C865" s="4"/>
+      <c r="C865" s="5"/>
     </row>
     <row r="866">
-      <c r="C866" s="4"/>
+      <c r="C866" s="5"/>
     </row>
     <row r="867">
-      <c r="C867" s="4"/>
+      <c r="C867" s="5"/>
     </row>
     <row r="868">
-      <c r="C868" s="4"/>
+      <c r="C868" s="5"/>
     </row>
     <row r="869">
-      <c r="C869" s="4"/>
+      <c r="C869" s="5"/>
     </row>
     <row r="870">
-      <c r="C870" s="4"/>
+      <c r="C870" s="5"/>
     </row>
     <row r="871">
-      <c r="C871" s="4"/>
+      <c r="C871" s="5"/>
     </row>
     <row r="872">
-      <c r="C872" s="4"/>
+      <c r="C872" s="5"/>
     </row>
     <row r="873">
-      <c r="C873" s="4"/>
+      <c r="C873" s="5"/>
     </row>
     <row r="874">
-      <c r="C874" s="4"/>
+      <c r="C874" s="5"/>
     </row>
     <row r="875">
-      <c r="C875" s="4"/>
+      <c r="C875" s="5"/>
     </row>
     <row r="876">
-      <c r="C876" s="4"/>
+      <c r="C876" s="5"/>
     </row>
     <row r="877">
-      <c r="C877" s="4"/>
+      <c r="C877" s="5"/>
     </row>
     <row r="878">
-      <c r="C878" s="4"/>
+      <c r="C878" s="5"/>
     </row>
     <row r="879">
-      <c r="C879" s="4"/>
+      <c r="C879" s="5"/>
     </row>
     <row r="880">
-      <c r="C880" s="4"/>
+      <c r="C880" s="5"/>
     </row>
     <row r="881">
-      <c r="C881" s="4"/>
+      <c r="C881" s="5"/>
     </row>
     <row r="882">
-      <c r="C882" s="4"/>
+      <c r="C882" s="5"/>
     </row>
     <row r="883">
-      <c r="C883" s="4"/>
+      <c r="C883" s="5"/>
     </row>
     <row r="884">
-      <c r="C884" s="4"/>
+      <c r="C884" s="5"/>
     </row>
     <row r="885">
-      <c r="C885" s="4"/>
+      <c r="C885" s="5"/>
     </row>
     <row r="886">
-      <c r="C886" s="4"/>
+      <c r="C886" s="5"/>
     </row>
     <row r="887">
-      <c r="C887" s="4"/>
+      <c r="C887" s="5"/>
     </row>
     <row r="888">
-      <c r="C888" s="4"/>
+      <c r="C888" s="5"/>
     </row>
     <row r="889">
-      <c r="C889" s="4"/>
+      <c r="C889" s="5"/>
     </row>
     <row r="890">
-      <c r="C890" s="4"/>
+      <c r="C890" s="5"/>
     </row>
     <row r="891">
-      <c r="C891" s="4"/>
+      <c r="C891" s="5"/>
     </row>
     <row r="892">
-      <c r="C892" s="4"/>
+      <c r="C892" s="5"/>
     </row>
     <row r="893">
-      <c r="C893" s="4"/>
+      <c r="C893" s="5"/>
     </row>
     <row r="894">
-      <c r="C894" s="4"/>
+      <c r="C894" s="5"/>
     </row>
     <row r="895">
-      <c r="C895" s="4"/>
+      <c r="C895" s="5"/>
     </row>
     <row r="896">
-      <c r="C896" s="4"/>
+      <c r="C896" s="5"/>
     </row>
     <row r="897">
-      <c r="C897" s="4"/>
+      <c r="C897" s="5"/>
     </row>
     <row r="898">
-      <c r="C898" s="4"/>
+      <c r="C898" s="5"/>
     </row>
     <row r="899">
-      <c r="C899" s="4"/>
+      <c r="C899" s="5"/>
     </row>
     <row r="900">
-      <c r="C900" s="4"/>
+      <c r="C900" s="5"/>
     </row>
     <row r="901">
-      <c r="C901" s="4"/>
+      <c r="C901" s="5"/>
     </row>
     <row r="902">
-      <c r="C902" s="4"/>
+      <c r="C902" s="5"/>
     </row>
     <row r="903">
-      <c r="C903" s="4"/>
+      <c r="C903" s="5"/>
     </row>
     <row r="904">
-      <c r="C904" s="4"/>
+      <c r="C904" s="5"/>
     </row>
     <row r="905">
-      <c r="C905" s="4"/>
+      <c r="C905" s="5"/>
     </row>
     <row r="906">
-      <c r="C906" s="4"/>
+      <c r="C906" s="5"/>
     </row>
     <row r="907">
-      <c r="C907" s="4"/>
+      <c r="C907" s="5"/>
     </row>
     <row r="908">
-      <c r="C908" s="4"/>
+      <c r="C908" s="5"/>
     </row>
     <row r="909">
-      <c r="C909" s="4"/>
+      <c r="C909" s="5"/>
     </row>
     <row r="910">
-      <c r="C910" s="4"/>
+      <c r="C910" s="5"/>
     </row>
     <row r="911">
-      <c r="C911" s="4"/>
+      <c r="C911" s="5"/>
     </row>
     <row r="912">
-      <c r="C912" s="4"/>
+      <c r="C912" s="5"/>
     </row>
     <row r="913">
-      <c r="C913" s="4"/>
+      <c r="C913" s="5"/>
     </row>
     <row r="914">
-      <c r="C914" s="4"/>
+      <c r="C914" s="5"/>
     </row>
     <row r="915">
-      <c r="C915" s="4"/>
+      <c r="C915" s="5"/>
     </row>
     <row r="916">
-      <c r="C916" s="4"/>
+      <c r="C916" s="5"/>
     </row>
     <row r="917">
-      <c r="C917" s="4"/>
+      <c r="C917" s="5"/>
     </row>
     <row r="918">
-      <c r="C918" s="4"/>
+      <c r="C918" s="5"/>
     </row>
     <row r="919">
-      <c r="C919" s="4"/>
+      <c r="C919" s="5"/>
     </row>
     <row r="920">
-      <c r="C920" s="4"/>
+      <c r="C920" s="5"/>
     </row>
     <row r="921">
-      <c r="C921" s="4"/>
+      <c r="C921" s="5"/>
     </row>
     <row r="922">
-      <c r="C922" s="4"/>
+      <c r="C922" s="5"/>
     </row>
     <row r="923">
-      <c r="C923" s="4"/>
+      <c r="C923" s="5"/>
     </row>
     <row r="924">
-      <c r="C924" s="4"/>
+      <c r="C924" s="5"/>
     </row>
     <row r="925">
-      <c r="C925" s="4"/>
+      <c r="C925" s="5"/>
     </row>
     <row r="926">
-      <c r="C926" s="4"/>
+      <c r="C926" s="5"/>
     </row>
     <row r="927">
-      <c r="C927" s="4"/>
+      <c r="C927" s="5"/>
     </row>
     <row r="928">
-      <c r="C928" s="4"/>
+      <c r="C928" s="5"/>
     </row>
     <row r="929">
-      <c r="C929" s="4"/>
+      <c r="C929" s="5"/>
     </row>
     <row r="930">
-      <c r="C930" s="4"/>
+      <c r="C930" s="5"/>
     </row>
     <row r="931">
-      <c r="C931" s="4"/>
+      <c r="C931" s="5"/>
     </row>
     <row r="932">
-      <c r="C932" s="4"/>
+      <c r="C932" s="5"/>
     </row>
     <row r="933">
-      <c r="C933" s="4"/>
+      <c r="C933" s="5"/>
     </row>
     <row r="934">
-      <c r="C934" s="4"/>
+      <c r="C934" s="5"/>
     </row>
     <row r="935">
-      <c r="C935" s="4"/>
+      <c r="C935" s="5"/>
     </row>
     <row r="936">
-      <c r="C936" s="4"/>
+      <c r="C936" s="5"/>
     </row>
     <row r="937">
-      <c r="C937" s="4"/>
+      <c r="C937" s="5"/>
     </row>
     <row r="938">
-      <c r="C938" s="4"/>
+      <c r="C938" s="5"/>
     </row>
     <row r="939">
-      <c r="C939" s="4"/>
+      <c r="C939" s="5"/>
     </row>
     <row r="940">
-      <c r="C940" s="4"/>
+      <c r="C940" s="5"/>
     </row>
     <row r="941">
-      <c r="C941" s="4"/>
+      <c r="C941" s="5"/>
     </row>
     <row r="942">
-      <c r="C942" s="4"/>
+      <c r="C942" s="5"/>
     </row>
     <row r="943">
-      <c r="C943" s="4"/>
+      <c r="C943" s="5"/>
     </row>
     <row r="944">
-      <c r="C944" s="4"/>
+      <c r="C944" s="5"/>
     </row>
     <row r="945">
-      <c r="C945" s="4"/>
+      <c r="C945" s="5"/>
     </row>
     <row r="946">
-      <c r="C946" s="4"/>
+      <c r="C946" s="5"/>
     </row>
     <row r="947">
-      <c r="C947" s="4"/>
+      <c r="C947" s="5"/>
     </row>
     <row r="948">
-      <c r="C948" s="4"/>
+      <c r="C948" s="5"/>
     </row>
     <row r="949">
-      <c r="C949" s="4"/>
+      <c r="C949" s="5"/>
     </row>
     <row r="950">
-      <c r="C950" s="4"/>
+      <c r="C950" s="5"/>
     </row>
     <row r="951">
-      <c r="C951" s="4"/>
+      <c r="C951" s="5"/>
     </row>
     <row r="952">
-      <c r="C952" s="4"/>
+      <c r="C952" s="5"/>
     </row>
     <row r="953">
-      <c r="C953" s="4"/>
+      <c r="C953" s="5"/>
     </row>
     <row r="954">
-      <c r="C954" s="4"/>
+      <c r="C954" s="5"/>
     </row>
     <row r="955">
-      <c r="C955" s="4"/>
+      <c r="C955" s="5"/>
     </row>
     <row r="956">
-      <c r="C956" s="4"/>
+      <c r="C956" s="5"/>
     </row>
     <row r="957">
-      <c r="C957" s="4"/>
+      <c r="C957" s="5"/>
     </row>
     <row r="958">
-      <c r="C958" s="4"/>
+      <c r="C958" s="5"/>
     </row>
     <row r="959">
-      <c r="C959" s="4"/>
+      <c r="C959" s="5"/>
     </row>
     <row r="960">
-      <c r="C960" s="4"/>
+      <c r="C960" s="5"/>
     </row>
     <row r="961">
-      <c r="C961" s="4"/>
+      <c r="C961" s="5"/>
     </row>
     <row r="962">
-      <c r="C962" s="4"/>
+      <c r="C962" s="5"/>
     </row>
     <row r="963">
-      <c r="C963" s="4"/>
+      <c r="C963" s="5"/>
     </row>
     <row r="964">
-      <c r="C964" s="4"/>
+      <c r="C964" s="5"/>
     </row>
     <row r="965">
-      <c r="C965" s="4"/>
+      <c r="C965" s="5"/>
     </row>
     <row r="966">
-      <c r="C966" s="4"/>
+      <c r="C966" s="5"/>
     </row>
     <row r="967">
-      <c r="C967" s="4"/>
+      <c r="C967" s="5"/>
     </row>
     <row r="968">
-      <c r="C968" s="4"/>
+      <c r="C968" s="5"/>
     </row>
     <row r="969">
-      <c r="C969" s="4"/>
+      <c r="C969" s="5"/>
     </row>
     <row r="970">
-      <c r="C970" s="4"/>
+      <c r="C970" s="5"/>
     </row>
     <row r="971">
-      <c r="C971" s="4"/>
+      <c r="C971" s="5"/>
     </row>
     <row r="972">
-      <c r="C972" s="4"/>
+      <c r="C972" s="5"/>
     </row>
     <row r="973">
-      <c r="C973" s="4"/>
+      <c r="C973" s="5"/>
     </row>
     <row r="974">
-      <c r="C974" s="4"/>
+      <c r="C974" s="5"/>
     </row>
     <row r="975">
-      <c r="C975" s="4"/>
+      <c r="C975" s="5"/>
     </row>
     <row r="976">
-      <c r="C976" s="4"/>
+      <c r="C976" s="5"/>
     </row>
     <row r="977">
-      <c r="C977" s="4"/>
+      <c r="C977" s="5"/>
     </row>
     <row r="978">
-      <c r="C978" s="4"/>
+      <c r="C978" s="5"/>
     </row>
     <row r="979">
-      <c r="C979" s="4"/>
+      <c r="C979" s="5"/>
     </row>
     <row r="980">
-      <c r="C980" s="4"/>
+      <c r="C980" s="5"/>
     </row>
     <row r="981">
-      <c r="C981" s="4"/>
+      <c r="C981" s="5"/>
     </row>
     <row r="982">
-      <c r="C982" s="4"/>
+      <c r="C982" s="5"/>
     </row>
     <row r="983">
-      <c r="C983" s="4"/>
+      <c r="C983" s="5"/>
     </row>
     <row r="984">
-      <c r="C984" s="4"/>
+      <c r="C984" s="5"/>
     </row>
     <row r="985">
-      <c r="C985" s="4"/>
+      <c r="C985" s="5"/>
     </row>
     <row r="986">
-      <c r="C986" s="4"/>
+      <c r="C986" s="5"/>
     </row>
     <row r="987">
-      <c r="C987" s="4"/>
+      <c r="C987" s="5"/>
     </row>
     <row r="988">
-      <c r="C988" s="4"/>
+      <c r="C988" s="5"/>
     </row>
     <row r="989">
-      <c r="C989" s="4"/>
+      <c r="C989" s="5"/>
     </row>
     <row r="990">
-      <c r="C990" s="4"/>
+      <c r="C990" s="5"/>
     </row>
     <row r="991">
-      <c r="C991" s="4"/>
+      <c r="C991" s="5"/>
     </row>
     <row r="992">
-      <c r="C992" s="4"/>
+      <c r="C992" s="5"/>
     </row>
     <row r="993">
-      <c r="C993" s="4"/>
+      <c r="C993" s="5"/>
     </row>
     <row r="994">
-      <c r="C994" s="4"/>
+      <c r="C994" s="5"/>
     </row>
     <row r="995">
-      <c r="C995" s="4"/>
+      <c r="C995" s="5"/>
     </row>
     <row r="996">
-      <c r="C996" s="4"/>
+      <c r="C996" s="5"/>
     </row>
     <row r="997">
-      <c r="C997" s="4"/>
+      <c r="C997" s="5"/>
     </row>
     <row r="998">
-      <c r="C998" s="4"/>
+      <c r="C998" s="5"/>
     </row>
     <row r="999">
-      <c r="C999" s="4"/>
+      <c r="C999" s="5"/>
     </row>
     <row r="1000">
-      <c r="C1000" s="4"/>
+      <c r="C1000" s="5"/>
     </row>
     <row r="1001">
-      <c r="C1001" s="4"/>
+      <c r="C1001" s="5"/>
     </row>
     <row r="1002">
-      <c r="C1002" s="4"/>
+      <c r="C1002" s="5"/>
     </row>
     <row r="1003">
-      <c r="C1003" s="4"/>
+      <c r="C1003" s="5"/>
     </row>
     <row r="1004">
-      <c r="C1004" s="4"/>
+      <c r="C1004" s="5"/>
     </row>
     <row r="1005">
-      <c r="C1005" s="4"/>
+      <c r="C1005" s="5"/>
     </row>
     <row r="1006">
-      <c r="C1006" s="4"/>
+      <c r="C1006" s="5"/>
     </row>
     <row r="1007">
-      <c r="C1007" s="4"/>
+      <c r="C1007" s="5"/>
     </row>
     <row r="1008">
-      <c r="C1008" s="4"/>
+      <c r="C1008" s="5"/>
     </row>
     <row r="1009">
-      <c r="C1009" s="4"/>
+      <c r="C1009" s="5"/>
     </row>
     <row r="1010">
-      <c r="C1010" s="4"/>
+      <c r="C1010" s="5"/>
     </row>
     <row r="1011">
-      <c r="C1011" s="4"/>
+      <c r="C1011" s="5"/>
     </row>
     <row r="1012">
-      <c r="C1012" s="4"/>
+      <c r="C1012" s="5"/>
     </row>
     <row r="1013">
-      <c r="C1013" s="4"/>
+      <c r="C1013" s="5"/>
     </row>
     <row r="1014">
-      <c r="C1014" s="4"/>
+      <c r="C1014" s="5"/>
     </row>
     <row r="1015">
-      <c r="C1015" s="4"/>
+      <c r="C1015" s="5"/>
     </row>
     <row r="1016">
-      <c r="C1016" s="4"/>
+      <c r="C1016" s="5"/>
     </row>
     <row r="1017">
-      <c r="C1017" s="4"/>
+      <c r="C1017" s="5"/>
     </row>
     <row r="1018">
-      <c r="C1018" s="4"/>
+      <c r="C1018" s="5"/>
     </row>
     <row r="1019">
-      <c r="C1019" s="4"/>
+      <c r="C1019" s="5"/>
     </row>
     <row r="1020">
-      <c r="C1020" s="4"/>
+      <c r="C1020" s="5"/>
     </row>
     <row r="1021">
-      <c r="C1021" s="4"/>
+      <c r="C1021" s="5"/>
     </row>
     <row r="1022">
-      <c r="C1022" s="4"/>
+      <c r="C1022" s="5"/>
     </row>
     <row r="1023">
-      <c r="C1023" s="4"/>
+      <c r="C1023" s="5"/>
     </row>
     <row r="1024">
-      <c r="C1024" s="4"/>
+      <c r="C1024" s="5"/>
     </row>
     <row r="1025">
-      <c r="C1025" s="4"/>
+      <c r="C1025" s="5"/>
     </row>
     <row r="1026">
-      <c r="C1026" s="4"/>
+      <c r="C1026" s="5"/>
     </row>
     <row r="1027">
-      <c r="C1027" s="4"/>
+      <c r="C1027" s="5"/>
     </row>
     <row r="1028">
-      <c r="C1028" s="4"/>
+      <c r="C1028" s="5"/>
     </row>
     <row r="1029">
-      <c r="C1029" s="4"/>
+      <c r="C1029" s="5"/>
     </row>
     <row r="1030">
-      <c r="C1030" s="4"/>
+      <c r="C1030" s="5"/>
     </row>
     <row r="1031">
-      <c r="C1031" s="4"/>
+      <c r="C1031" s="5"/>
     </row>
     <row r="1032">
-      <c r="C1032" s="4"/>
+      <c r="C1032" s="5"/>
     </row>
     <row r="1033">
-      <c r="C1033" s="4"/>
+      <c r="C1033" s="5"/>
     </row>
     <row r="1034">
-      <c r="C1034" s="4"/>
+      <c r="C1034" s="5"/>
     </row>
     <row r="1035">
-      <c r="C1035" s="4"/>
+      <c r="C1035" s="5"/>
     </row>
     <row r="1036">
-      <c r="C1036" s="4"/>
+      <c r="C1036" s="5"/>
     </row>
     <row r="1037">
-      <c r="C1037" s="4"/>
+      <c r="C1037" s="5"/>
     </row>
     <row r="1038">
-      <c r="C1038" s="4"/>
+      <c r="C1038" s="5"/>
     </row>
     <row r="1039">
-      <c r="C1039" s="4"/>
+      <c r="C1039" s="5"/>
     </row>
     <row r="1040">
-      <c r="C1040" s="4"/>
+      <c r="C1040" s="5"/>
     </row>
     <row r="1041">
-      <c r="C1041" s="4"/>
+      <c r="C1041" s="5"/>
     </row>
     <row r="1042">
-      <c r="C1042" s="4"/>
+      <c r="C1042" s="5"/>
     </row>
     <row r="1043">
-      <c r="C1043" s="4"/>
+      <c r="C1043" s="5"/>
     </row>
     <row r="1044">
-      <c r="C1044" s="4"/>
+      <c r="C1044" s="5"/>
     </row>
     <row r="1045">
-      <c r="C1045" s="4"/>
+      <c r="C1045" s="5"/>
     </row>
     <row r="1046">
-      <c r="C1046" s="4"/>
+      <c r="C1046" s="5"/>
     </row>
     <row r="1047">
-      <c r="C1047" s="4"/>
+      <c r="C1047" s="5"/>
     </row>
     <row r="1048">
-      <c r="C1048" s="4"/>
+      <c r="C1048" s="5"/>
     </row>
     <row r="1049">
-      <c r="C1049" s="4"/>
+      <c r="C1049" s="5"/>
     </row>
     <row r="1050">
-      <c r="C1050" s="4"/>
+      <c r="C1050" s="5"/>
     </row>
     <row r="1051">
-      <c r="C1051" s="4"/>
+      <c r="C1051" s="5"/>
     </row>
     <row r="1052">
-      <c r="C1052" s="4"/>
+      <c r="C1052" s="5"/>
     </row>
     <row r="1053">
-      <c r="C1053" s="4"/>
+      <c r="C1053" s="5"/>
     </row>
     <row r="1054">
-      <c r="C1054" s="4"/>
+      <c r="C1054" s="5"/>
     </row>
     <row r="1055">
-      <c r="C1055" s="4"/>
+      <c r="C1055" s="5"/>
     </row>
     <row r="1056">
-      <c r="C1056" s="4"/>
+      <c r="C1056" s="5"/>
     </row>
     <row r="1057">
-      <c r="C1057" s="4"/>
+      <c r="C1057" s="5"/>
     </row>
     <row r="1058">
-      <c r="C1058" s="4"/>
+      <c r="C1058" s="5"/>
     </row>
     <row r="1059">
-      <c r="C1059" s="4"/>
+      <c r="C1059" s="5"/>
     </row>
     <row r="1060">
-      <c r="C1060" s="4"/>
+      <c r="C1060" s="5"/>
     </row>
     <row r="1061">
-      <c r="C1061" s="4"/>
+      <c r="C1061" s="5"/>
     </row>
     <row r="1062">
-      <c r="C1062" s="4"/>
+      <c r="C1062" s="5"/>
     </row>
     <row r="1063">
-      <c r="C1063" s="4"/>
+      <c r="C1063" s="5"/>
     </row>
     <row r="1064">
-      <c r="C1064" s="4"/>
+      <c r="C1064" s="5"/>
     </row>
     <row r="1065">
-      <c r="C1065" s="4"/>
+      <c r="C1065" s="5"/>
     </row>
     <row r="1066">
-      <c r="C1066" s="4"/>
+      <c r="C1066" s="5"/>
     </row>
     <row r="1067">
-      <c r="C1067" s="4"/>
+      <c r="C1067" s="5"/>
     </row>
     <row r="1068">
-      <c r="C1068" s="4"/>
+      <c r="C1068" s="5"/>
     </row>
     <row r="1069">
-      <c r="C1069" s="4"/>
+      <c r="C1069" s="5"/>
     </row>
     <row r="1070">
-      <c r="C1070" s="4"/>
+      <c r="C1070" s="5"/>
     </row>
     <row r="1071">
-      <c r="C1071" s="4"/>
+      <c r="C1071" s="5"/>
     </row>
     <row r="1072">
-      <c r="C1072" s="4"/>
+      <c r="C1072" s="5"/>
     </row>
     <row r="1073">
-      <c r="C1073" s="4"/>
+      <c r="C1073" s="5"/>
     </row>
     <row r="1074">
-      <c r="C1074" s="4"/>
+      <c r="C1074" s="5"/>
     </row>
     <row r="1075">
-      <c r="C1075" s="4"/>
+      <c r="C1075" s="5"/>
     </row>
     <row r="1076">
-      <c r="C1076" s="4"/>
+      <c r="C1076" s="5"/>
     </row>
     <row r="1077">
-      <c r="C1077" s="4"/>
+      <c r="C1077" s="5"/>
     </row>
     <row r="1078">
-      <c r="C1078" s="4"/>
+      <c r="C1078" s="5"/>
     </row>
     <row r="1079">
-      <c r="C1079" s="4"/>
+      <c r="C1079" s="5"/>
     </row>
     <row r="1080">
-      <c r="C1080" s="4"/>
+      <c r="C1080" s="5"/>
     </row>
     <row r="1081">
-      <c r="C1081" s="4"/>
+      <c r="C1081" s="5"/>
     </row>
     <row r="1082">
-      <c r="C1082" s="4"/>
+      <c r="C1082" s="5"/>
     </row>
     <row r="1083">
-      <c r="C1083" s="4"/>
+      <c r="C1083" s="5"/>
     </row>
     <row r="1084">
-      <c r="C1084" s="4"/>
+      <c r="C1084" s="5"/>
     </row>
     <row r="1085">
-      <c r="C1085" s="4"/>
+      <c r="C1085" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/SQ1 Leaderboard-Points.xlsx
+++ b/SQ1 Leaderboard-Points.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="393">
   <si>
     <t>Name</t>
   </si>
@@ -810,6 +810,390 @@
   </si>
   <si>
     <t>201ME207</t>
+  </si>
+  <si>
+    <t>Danish Juneja</t>
+  </si>
+  <si>
+    <t>201EC218</t>
+  </si>
+  <si>
+    <t>Devvrat Ashtaputre</t>
+  </si>
+  <si>
+    <t>201EC118</t>
+  </si>
+  <si>
+    <t>R S Muthukumar</t>
+  </si>
+  <si>
+    <t>201EC149</t>
+  </si>
+  <si>
+    <t>Akil Vanam</t>
+  </si>
+  <si>
+    <t>201MN005</t>
+  </si>
+  <si>
+    <t>Harshavardhan U Palegar</t>
+  </si>
+  <si>
+    <t>201mn025</t>
+  </si>
+  <si>
+    <t>201MN020</t>
+  </si>
+  <si>
+    <t>Suhas SG</t>
+  </si>
+  <si>
+    <t>MALVIKA SHENOY</t>
+  </si>
+  <si>
+    <t>201CH033</t>
+  </si>
+  <si>
+    <t>MANTHAN MOHITE</t>
+  </si>
+  <si>
+    <t>Aviral Vinit</t>
+  </si>
+  <si>
+    <t>201ME309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HARI KRISHNA </t>
+  </si>
+  <si>
+    <t>Harsha satija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harshitha Killi </t>
+  </si>
+  <si>
+    <t>201ME328</t>
+  </si>
+  <si>
+    <t>Hrishikesh Kulkarni</t>
+  </si>
+  <si>
+    <t>201ee101</t>
+  </si>
+  <si>
+    <t>Jharna Chaudhari</t>
+  </si>
+  <si>
+    <t>201CH019</t>
+  </si>
+  <si>
+    <t>Mahesh Alluri</t>
+  </si>
+  <si>
+    <t>201CH030</t>
+  </si>
+  <si>
+    <t>ojas agrawal</t>
+  </si>
+  <si>
+    <t>201ch042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Om Thakur </t>
+  </si>
+  <si>
+    <t>201ME360</t>
+  </si>
+  <si>
+    <t>patti sathwik</t>
+  </si>
+  <si>
+    <t>201MN039</t>
+  </si>
+  <si>
+    <t>Protyush roy</t>
+  </si>
+  <si>
+    <t>Rohit taparia</t>
+  </si>
+  <si>
+    <t>201IT151</t>
+  </si>
+  <si>
+    <t>201CH046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saee Sholapurkar </t>
+  </si>
+  <si>
+    <t>201ME253</t>
+  </si>
+  <si>
+    <t>Saksham Goel</t>
+  </si>
+  <si>
+    <t>201IT152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPATHKUMAR TARUN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">201MN048 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shivani YS </t>
+  </si>
+  <si>
+    <t>201ME353</t>
+  </si>
+  <si>
+    <t>Shreeranjita Kowshik K</t>
+  </si>
+  <si>
+    <t>201ME354</t>
+  </si>
+  <si>
+    <t>Soumyakanta Sahoo</t>
+  </si>
+  <si>
+    <t>201CH053</t>
+  </si>
+  <si>
+    <t>Vanshika jolly</t>
+  </si>
+  <si>
+    <t>201IT263</t>
+  </si>
+  <si>
+    <t>100-mesh</t>
+  </si>
+  <si>
+    <t>Abel George</t>
+  </si>
+  <si>
+    <t>201CV101</t>
+  </si>
+  <si>
+    <t>Aman singh hada</t>
+  </si>
+  <si>
+    <t>201cs206</t>
+  </si>
+  <si>
+    <t>Anuran Saikia</t>
+  </si>
+  <si>
+    <t>201mt007</t>
+  </si>
+  <si>
+    <t>Aryaman</t>
+  </si>
+  <si>
+    <t>201MT009</t>
+  </si>
+  <si>
+    <t>Dhruv Yadav</t>
+  </si>
+  <si>
+    <t>201ME318</t>
+  </si>
+  <si>
+    <t>Hanuma Vamsi</t>
+  </si>
+  <si>
+    <t>201IT222</t>
+  </si>
+  <si>
+    <t>K B PRAMOD</t>
+  </si>
+  <si>
+    <t>201ME125</t>
+  </si>
+  <si>
+    <t>Kunal Singh Tawar</t>
+  </si>
+  <si>
+    <t>201IT130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kushagra </t>
+  </si>
+  <si>
+    <t>201EE232</t>
+  </si>
+  <si>
+    <t>Nitin Kumar</t>
+  </si>
+  <si>
+    <t>201MT034</t>
+  </si>
+  <si>
+    <t>Parth Mittal</t>
+  </si>
+  <si>
+    <t>201EC243</t>
+  </si>
+  <si>
+    <t>201MT037</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>SKaswin</t>
+  </si>
+  <si>
+    <t>Sudarshan M</t>
+  </si>
+  <si>
+    <t>201ME356</t>
+  </si>
+  <si>
+    <t>SUJAN KUMAR</t>
+  </si>
+  <si>
+    <t>201CV253</t>
+  </si>
+  <si>
+    <t>Tarush Shankar</t>
+  </si>
+  <si>
+    <t>201mt057</t>
+  </si>
+  <si>
+    <t>Uday kumar</t>
+  </si>
+  <si>
+    <t>201EE261</t>
+  </si>
+  <si>
+    <t>Vaishali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinay kumar lohan </t>
+  </si>
+  <si>
+    <t>201it165</t>
+  </si>
+  <si>
+    <t>Akshita Jain</t>
+  </si>
+  <si>
+    <t>D S Krishna Souri</t>
+  </si>
+  <si>
+    <t>201CH022</t>
+  </si>
+  <si>
+    <t>MATCHA NITIN</t>
+  </si>
+  <si>
+    <t>201ME233</t>
+  </si>
+  <si>
+    <t>Nihal Badiger</t>
+  </si>
+  <si>
+    <t>201cv135</t>
+  </si>
+  <si>
+    <t>Pankhuri Patel</t>
+  </si>
+  <si>
+    <t>201EE139</t>
+  </si>
+  <si>
+    <t>S.kmAswin</t>
+  </si>
+  <si>
+    <t>Samiksha Kantamneni</t>
+  </si>
+  <si>
+    <t>Saniya Bhargava</t>
+  </si>
+  <si>
+    <t>201ee151</t>
+  </si>
+  <si>
+    <t>Sanket Mane</t>
+  </si>
+  <si>
+    <t>Satvik R Kashyap</t>
+  </si>
+  <si>
+    <t>201MT049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yoganath </t>
+  </si>
+  <si>
+    <t xml:space="preserve">201mt063 </t>
+  </si>
+  <si>
+    <t>Akshay ranjana</t>
+  </si>
+  <si>
+    <t>201CH006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ameya Patil </t>
+  </si>
+  <si>
+    <t>Anurag Kumar</t>
+  </si>
+  <si>
+    <t>201IT209</t>
+  </si>
+  <si>
+    <t>Ashish</t>
+  </si>
+  <si>
+    <t>201cs208</t>
+  </si>
+  <si>
+    <t>ashwin Choudhary</t>
+  </si>
+  <si>
+    <t>201IT111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Balaji L Sagave </t>
+  </si>
+  <si>
+    <t xml:space="preserve">201CS114 </t>
+  </si>
+  <si>
+    <t>Bhuvan</t>
+  </si>
+  <si>
+    <t>201ME115</t>
+  </si>
+  <si>
+    <t>Deepam Damu Naik</t>
+  </si>
+  <si>
+    <t>201CS169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deepanshu Gupta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">201EE119 </t>
+  </si>
+  <si>
+    <t>Mahesh kumar</t>
+  </si>
+  <si>
+    <t>201CH031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pranav Agarwal </t>
+  </si>
+  <si>
+    <t>201CS241</t>
+  </si>
+  <si>
+    <t>201it258</t>
   </si>
 </sst>
 </file>
@@ -828,9 +1212,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-    </font>
-    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -840,19 +1221,37 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <name val="Calibri"/>
+      <b/>
     </font>
     <font>
       <name val="Arial"/>
     </font>
+    <font/>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A86E8"/>
+        <bgColor rgb="FF4A86E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -861,43 +1260,50 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1127,12 +1533,15 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="25.43"/>
-    <col customWidth="1" min="9" max="9" width="19.29"/>
+    <col customWidth="1" min="9" max="9" width="14.14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1154,75 +1563,75 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="6"/>
+      <c r="C2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5"/>
       <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6" t="s">
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -1230,22 +1639,22 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="6" t="s">
@@ -1253,4582 +1662,4582 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="2"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M5" s="1"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="9"/>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="4"/>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
-      <c r="P7" s="11"/>
+      <c r="P7" s="10"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="11"/>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="10"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P9" s="11"/>
+      <c r="C9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P9" s="10"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="C10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="C12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="C14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="C16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="C17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="C18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="C19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="C20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="C21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="6" t="s">
+      <c r="C22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="C23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="C24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="C25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="C26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="C27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="C28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="C29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="C30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="C31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="C32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="C33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="C34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="C35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="C36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="C37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="6" t="s">
+      <c r="C38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="C39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="C40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="C41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="6" t="s">
+      <c r="C42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="C43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="6" t="s">
+      <c r="C44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D45" s="6" t="s">
+      <c r="C45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="6" t="s">
+      <c r="C46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D47" s="6" t="s">
+      <c r="C47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="6" t="s">
+      <c r="C48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="6" t="s">
+      <c r="C49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="6" t="s">
+      <c r="C50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D51" s="6" t="s">
+      <c r="C51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D52" s="6" t="s">
+      <c r="C52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D53" s="6" t="s">
+      <c r="C53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="6" t="s">
+      <c r="C54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55" s="6" t="s">
+      <c r="C55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D56" s="6" t="s">
+      <c r="C56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D57" s="6" t="s">
+      <c r="C57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D58" s="6" t="s">
+      <c r="C58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="6" t="s">
+      <c r="C59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D60" s="6" t="s">
+      <c r="C60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D61" s="6" t="s">
+      <c r="C61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="6" t="s">
+      <c r="C62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D63" s="6" t="s">
+      <c r="C63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="6" t="s">
+      <c r="C64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="6" t="s">
+      <c r="C65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="6" t="s">
+      <c r="C66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D67" s="6" t="s">
+      <c r="C67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D68" s="6" t="s">
+      <c r="C68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D69" s="6" t="s">
+      <c r="C69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D70" s="6" t="s">
+      <c r="C70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="6" t="s">
+      <c r="C71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D72" s="6" t="s">
+      <c r="C72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D73" s="6" t="s">
+      <c r="C73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="6" t="s">
+      <c r="C74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="6" t="s">
+      <c r="C75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="6" t="s">
+      <c r="C76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="6" t="s">
+      <c r="C77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="4" t="s">
+      <c r="A85" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B85" s="4" t="s">
+      <c r="B85" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" s="6" t="s">
+      <c r="C98" s="4"/>
+      <c r="D98" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="6" t="s">
+      <c r="C99" s="4"/>
+      <c r="D99" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="6" t="s">
+      <c r="C100" s="4"/>
+      <c r="D100" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="6" t="s">
+      <c r="C101" s="4"/>
+      <c r="D101" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="6" t="s">
+      <c r="C102" s="4"/>
+      <c r="D102" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="6" t="s">
+      <c r="C103" s="4"/>
+      <c r="D103" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="6" t="s">
+      <c r="C104" s="4"/>
+      <c r="D104" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C105" s="5"/>
-      <c r="D105" s="6" t="s">
+      <c r="C105" s="4"/>
+      <c r="D105" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C106" s="5"/>
-      <c r="D106" s="6" t="s">
+      <c r="C106" s="4"/>
+      <c r="D106" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="5" t="s">
+      <c r="A107" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="6" t="s">
+      <c r="C107" s="4"/>
+      <c r="D107" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C108" s="5"/>
-      <c r="D108" s="6" t="s">
+      <c r="C108" s="4"/>
+      <c r="D108" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="C109" s="5"/>
-      <c r="D109" s="6" t="s">
+      <c r="C109" s="4"/>
+      <c r="D109" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="C110" s="5"/>
-      <c r="D110" s="6" t="s">
+      <c r="C110" s="4"/>
+      <c r="D110" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="5" t="s">
+      <c r="A111" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C111" s="5"/>
-      <c r="D111" s="6" t="s">
+      <c r="C111" s="4"/>
+      <c r="D111" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C112" s="5"/>
-      <c r="D112" s="6" t="s">
+      <c r="C112" s="4"/>
+      <c r="D112" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C113" s="5"/>
-      <c r="D113" s="6" t="s">
+      <c r="C113" s="4"/>
+      <c r="D113" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C114" s="5"/>
-      <c r="D114" s="6" t="s">
+      <c r="C114" s="4"/>
+      <c r="D114" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="5" t="s">
+      <c r="A115" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C115" s="5"/>
-      <c r="D115" s="6" t="s">
+      <c r="C115" s="4"/>
+      <c r="D115" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="6" t="s">
+      <c r="A116" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C116" s="5"/>
-      <c r="E116" s="6" t="s">
+      <c r="C116" s="4"/>
+      <c r="E116" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="C117" s="5"/>
-      <c r="E117" s="6" t="s">
+      <c r="C117" s="4"/>
+      <c r="E117" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="5" t="s">
+      <c r="A118" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C118" s="5"/>
+      <c r="C118" s="4"/>
     </row>
     <row r="119">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C119" s="5"/>
+      <c r="C119" s="4"/>
     </row>
     <row r="120">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C120" s="5"/>
+      <c r="C120" s="4"/>
     </row>
     <row r="121">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="C121" s="5"/>
+      <c r="C121" s="4"/>
     </row>
     <row r="122">
-      <c r="A122" s="5" t="s">
+      <c r="A122" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C122" s="5"/>
+      <c r="C122" s="4"/>
     </row>
     <row r="123">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="C123" s="5"/>
+      <c r="C123" s="4"/>
     </row>
     <row r="124">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C124" s="5"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="8"/>
+      <c r="C124" s="4"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="3"/>
     </row>
     <row r="125">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C125" s="5"/>
+      <c r="C125" s="4"/>
     </row>
     <row r="126">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C126" s="5"/>
+      <c r="C126" s="4"/>
     </row>
     <row r="127">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="C127" s="5"/>
+      <c r="C127" s="4"/>
     </row>
     <row r="128">
-      <c r="A128" s="5" t="s">
+      <c r="A128" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B128" s="5" t="s">
+      <c r="B128" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C128" s="5"/>
+      <c r="C128" s="4"/>
     </row>
     <row r="129">
-      <c r="C129" s="5"/>
+      <c r="C129" s="4"/>
     </row>
     <row r="130">
-      <c r="C130" s="5"/>
+      <c r="C130" s="4"/>
     </row>
     <row r="131">
-      <c r="C131" s="5"/>
+      <c r="C131" s="4"/>
     </row>
     <row r="132">
-      <c r="C132" s="5"/>
+      <c r="C132" s="4"/>
     </row>
     <row r="133">
-      <c r="C133" s="5"/>
+      <c r="C133" s="4"/>
     </row>
     <row r="134">
-      <c r="C134" s="5"/>
+      <c r="C134" s="4"/>
     </row>
     <row r="135">
-      <c r="C135" s="5"/>
+      <c r="C135" s="4"/>
     </row>
     <row r="136">
-      <c r="C136" s="5"/>
+      <c r="C136" s="4"/>
     </row>
     <row r="137">
-      <c r="C137" s="5"/>
+      <c r="C137" s="4"/>
     </row>
     <row r="138">
-      <c r="C138" s="5"/>
+      <c r="C138" s="4"/>
     </row>
     <row r="139">
-      <c r="C139" s="5"/>
+      <c r="C139" s="4"/>
     </row>
     <row r="140">
-      <c r="C140" s="5"/>
+      <c r="C140" s="4"/>
     </row>
     <row r="141">
-      <c r="C141" s="5"/>
+      <c r="C141" s="4"/>
     </row>
     <row r="142">
-      <c r="C142" s="5"/>
+      <c r="C142" s="4"/>
     </row>
     <row r="143">
-      <c r="C143" s="5"/>
+      <c r="C143" s="4"/>
     </row>
     <row r="144">
-      <c r="C144" s="5"/>
+      <c r="C144" s="4"/>
     </row>
     <row r="145">
-      <c r="C145" s="5"/>
+      <c r="C145" s="4"/>
     </row>
     <row r="146">
-      <c r="A146" s="5"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="5"/>
+      <c r="A146" s="4"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="4"/>
     </row>
     <row r="147">
-      <c r="A147" s="5"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="5"/>
+      <c r="A147" s="4"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="4"/>
     </row>
     <row r="148">
-      <c r="A148" s="5"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="5"/>
+      <c r="A148" s="4"/>
+      <c r="B148" s="9"/>
+      <c r="C148" s="4"/>
     </row>
     <row r="149">
-      <c r="A149" s="5"/>
-      <c r="B149" s="12"/>
-      <c r="C149" s="5"/>
+      <c r="A149" s="4"/>
+      <c r="B149" s="9"/>
+      <c r="C149" s="4"/>
     </row>
     <row r="150">
-      <c r="A150" s="5"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="5"/>
+      <c r="A150" s="4"/>
+      <c r="B150" s="9"/>
+      <c r="C150" s="4"/>
     </row>
     <row r="151">
-      <c r="A151" s="5"/>
-      <c r="B151" s="12"/>
-      <c r="C151" s="5"/>
+      <c r="A151" s="4"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="4"/>
     </row>
     <row r="152">
-      <c r="A152" s="5"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="5"/>
+      <c r="A152" s="4"/>
+      <c r="B152" s="9"/>
+      <c r="C152" s="4"/>
     </row>
     <row r="153">
-      <c r="A153" s="5"/>
-      <c r="B153" s="12"/>
-      <c r="C153" s="5"/>
+      <c r="A153" s="4"/>
+      <c r="B153" s="9"/>
+      <c r="C153" s="4"/>
     </row>
     <row r="154">
-      <c r="A154" s="5"/>
-      <c r="B154" s="12"/>
-      <c r="C154" s="5"/>
+      <c r="A154" s="4"/>
+      <c r="B154" s="9"/>
+      <c r="C154" s="4"/>
     </row>
     <row r="155">
-      <c r="C155" s="5"/>
+      <c r="C155" s="4"/>
     </row>
     <row r="156">
-      <c r="C156" s="5"/>
+      <c r="C156" s="4"/>
     </row>
     <row r="157">
-      <c r="C157" s="5"/>
+      <c r="C157" s="4"/>
     </row>
     <row r="158">
-      <c r="C158" s="5"/>
+      <c r="C158" s="4"/>
     </row>
     <row r="159">
-      <c r="C159" s="5"/>
+      <c r="C159" s="4"/>
     </row>
     <row r="160">
-      <c r="C160" s="5"/>
+      <c r="C160" s="4"/>
     </row>
     <row r="161">
-      <c r="C161" s="5"/>
+      <c r="C161" s="4"/>
     </row>
     <row r="162">
-      <c r="C162" s="5"/>
+      <c r="C162" s="4"/>
     </row>
     <row r="163">
-      <c r="C163" s="5"/>
+      <c r="C163" s="4"/>
     </row>
     <row r="164">
-      <c r="C164" s="5"/>
+      <c r="C164" s="4"/>
     </row>
     <row r="165">
-      <c r="C165" s="5"/>
+      <c r="C165" s="4"/>
     </row>
     <row r="166">
-      <c r="C166" s="5"/>
+      <c r="C166" s="4"/>
     </row>
     <row r="167">
-      <c r="C167" s="5"/>
+      <c r="C167" s="4"/>
     </row>
     <row r="168">
-      <c r="C168" s="5"/>
+      <c r="C168" s="4"/>
     </row>
     <row r="169">
-      <c r="C169" s="5"/>
+      <c r="C169" s="4"/>
     </row>
     <row r="170">
-      <c r="C170" s="5"/>
+      <c r="C170" s="4"/>
     </row>
     <row r="171">
-      <c r="C171" s="5"/>
+      <c r="C171" s="4"/>
     </row>
     <row r="172">
-      <c r="C172" s="5"/>
+      <c r="C172" s="4"/>
     </row>
     <row r="173">
-      <c r="C173" s="5"/>
+      <c r="C173" s="4"/>
     </row>
     <row r="174">
-      <c r="C174" s="5"/>
+      <c r="C174" s="4"/>
     </row>
     <row r="175">
-      <c r="C175" s="5"/>
+      <c r="C175" s="4"/>
     </row>
     <row r="176">
-      <c r="C176" s="5"/>
+      <c r="C176" s="4"/>
     </row>
     <row r="177">
-      <c r="C177" s="5"/>
+      <c r="C177" s="4"/>
     </row>
     <row r="178">
-      <c r="C178" s="5"/>
+      <c r="C178" s="4"/>
     </row>
     <row r="179">
-      <c r="C179" s="5"/>
+      <c r="C179" s="4"/>
     </row>
     <row r="180">
-      <c r="C180" s="5"/>
+      <c r="C180" s="4"/>
     </row>
     <row r="181">
-      <c r="C181" s="5"/>
+      <c r="C181" s="4"/>
     </row>
     <row r="182">
-      <c r="C182" s="5"/>
+      <c r="C182" s="4"/>
     </row>
     <row r="183">
-      <c r="C183" s="5"/>
+      <c r="C183" s="4"/>
     </row>
     <row r="184">
-      <c r="C184" s="5"/>
+      <c r="C184" s="4"/>
     </row>
     <row r="185">
-      <c r="C185" s="5"/>
+      <c r="C185" s="4"/>
     </row>
     <row r="186">
-      <c r="C186" s="5"/>
+      <c r="C186" s="4"/>
     </row>
     <row r="187">
-      <c r="C187" s="5"/>
+      <c r="C187" s="4"/>
     </row>
     <row r="188">
-      <c r="C188" s="5"/>
+      <c r="C188" s="4"/>
     </row>
     <row r="189">
-      <c r="C189" s="5"/>
+      <c r="C189" s="4"/>
     </row>
     <row r="190">
-      <c r="C190" s="5"/>
+      <c r="C190" s="4"/>
     </row>
     <row r="191">
-      <c r="C191" s="5"/>
+      <c r="C191" s="4"/>
     </row>
     <row r="192">
-      <c r="C192" s="5"/>
+      <c r="C192" s="4"/>
     </row>
     <row r="193">
-      <c r="C193" s="5"/>
+      <c r="C193" s="4"/>
     </row>
     <row r="194">
-      <c r="C194" s="5"/>
+      <c r="C194" s="4"/>
     </row>
     <row r="195">
-      <c r="C195" s="5"/>
+      <c r="C195" s="4"/>
     </row>
     <row r="196">
-      <c r="C196" s="5"/>
+      <c r="C196" s="4"/>
     </row>
     <row r="197">
-      <c r="C197" s="5"/>
+      <c r="C197" s="4"/>
     </row>
     <row r="198">
-      <c r="C198" s="5"/>
+      <c r="C198" s="4"/>
     </row>
     <row r="199">
-      <c r="C199" s="5"/>
+      <c r="C199" s="4"/>
     </row>
     <row r="200">
-      <c r="C200" s="5"/>
+      <c r="C200" s="4"/>
     </row>
     <row r="201">
-      <c r="C201" s="5"/>
+      <c r="C201" s="4"/>
     </row>
     <row r="202">
-      <c r="C202" s="5"/>
+      <c r="C202" s="4"/>
     </row>
     <row r="203">
-      <c r="C203" s="5"/>
+      <c r="C203" s="4"/>
     </row>
     <row r="204">
-      <c r="C204" s="5"/>
+      <c r="C204" s="4"/>
     </row>
     <row r="205">
-      <c r="C205" s="5"/>
+      <c r="C205" s="4"/>
     </row>
     <row r="206">
-      <c r="C206" s="5"/>
+      <c r="C206" s="4"/>
     </row>
     <row r="207">
-      <c r="C207" s="5"/>
+      <c r="C207" s="4"/>
     </row>
     <row r="208">
-      <c r="C208" s="5"/>
+      <c r="C208" s="4"/>
     </row>
     <row r="209">
-      <c r="C209" s="5"/>
+      <c r="C209" s="4"/>
     </row>
     <row r="210">
-      <c r="C210" s="5"/>
+      <c r="C210" s="4"/>
     </row>
     <row r="211">
-      <c r="C211" s="5"/>
+      <c r="C211" s="4"/>
     </row>
     <row r="212">
-      <c r="C212" s="5"/>
+      <c r="C212" s="4"/>
     </row>
     <row r="213">
-      <c r="C213" s="5"/>
+      <c r="C213" s="4"/>
     </row>
     <row r="214">
-      <c r="C214" s="5"/>
+      <c r="C214" s="4"/>
     </row>
     <row r="215">
-      <c r="C215" s="5"/>
+      <c r="C215" s="4"/>
     </row>
     <row r="216">
-      <c r="C216" s="5"/>
+      <c r="C216" s="4"/>
     </row>
     <row r="217">
-      <c r="C217" s="5"/>
+      <c r="C217" s="4"/>
     </row>
     <row r="218">
-      <c r="C218" s="5"/>
+      <c r="C218" s="4"/>
     </row>
     <row r="219">
-      <c r="C219" s="5"/>
+      <c r="C219" s="4"/>
     </row>
     <row r="220">
-      <c r="C220" s="5"/>
+      <c r="C220" s="4"/>
     </row>
     <row r="221">
-      <c r="C221" s="5"/>
+      <c r="C221" s="4"/>
     </row>
     <row r="222">
-      <c r="C222" s="5"/>
+      <c r="C222" s="4"/>
     </row>
     <row r="223">
-      <c r="C223" s="5"/>
+      <c r="C223" s="4"/>
     </row>
     <row r="224">
-      <c r="C224" s="5"/>
+      <c r="C224" s="4"/>
     </row>
     <row r="225">
-      <c r="C225" s="5"/>
+      <c r="C225" s="4"/>
     </row>
     <row r="226">
-      <c r="C226" s="5"/>
+      <c r="C226" s="4"/>
     </row>
     <row r="227">
-      <c r="C227" s="5"/>
+      <c r="C227" s="4"/>
     </row>
     <row r="228">
-      <c r="C228" s="5"/>
+      <c r="C228" s="4"/>
     </row>
     <row r="229">
-      <c r="C229" s="5"/>
+      <c r="C229" s="4"/>
     </row>
     <row r="230">
-      <c r="C230" s="5"/>
+      <c r="C230" s="4"/>
     </row>
     <row r="231">
-      <c r="C231" s="5"/>
+      <c r="C231" s="4"/>
     </row>
     <row r="232">
-      <c r="C232" s="5"/>
+      <c r="C232" s="4"/>
     </row>
     <row r="233">
-      <c r="C233" s="5"/>
+      <c r="C233" s="4"/>
     </row>
     <row r="234">
-      <c r="C234" s="5"/>
+      <c r="C234" s="4"/>
     </row>
     <row r="235">
-      <c r="C235" s="5"/>
+      <c r="C235" s="4"/>
     </row>
     <row r="236">
-      <c r="C236" s="5"/>
+      <c r="C236" s="4"/>
     </row>
     <row r="237">
-      <c r="C237" s="5"/>
+      <c r="C237" s="4"/>
     </row>
     <row r="238">
-      <c r="C238" s="5"/>
+      <c r="C238" s="4"/>
     </row>
     <row r="239">
-      <c r="C239" s="5"/>
+      <c r="C239" s="4"/>
     </row>
     <row r="240">
-      <c r="C240" s="5"/>
+      <c r="C240" s="4"/>
     </row>
     <row r="241">
-      <c r="C241" s="5"/>
+      <c r="C241" s="4"/>
     </row>
     <row r="242">
-      <c r="C242" s="5"/>
+      <c r="C242" s="4"/>
     </row>
     <row r="243">
-      <c r="C243" s="5"/>
+      <c r="C243" s="4"/>
     </row>
     <row r="244">
-      <c r="C244" s="5"/>
+      <c r="C244" s="4"/>
     </row>
     <row r="245">
-      <c r="C245" s="5"/>
+      <c r="C245" s="4"/>
     </row>
     <row r="246">
-      <c r="C246" s="5"/>
+      <c r="C246" s="4"/>
     </row>
     <row r="247">
-      <c r="C247" s="5"/>
+      <c r="C247" s="4"/>
     </row>
     <row r="248">
-      <c r="C248" s="5"/>
+      <c r="C248" s="4"/>
     </row>
     <row r="249">
-      <c r="C249" s="5"/>
+      <c r="C249" s="4"/>
     </row>
     <row r="250">
-      <c r="C250" s="5"/>
+      <c r="C250" s="4"/>
     </row>
     <row r="251">
-      <c r="C251" s="5"/>
+      <c r="C251" s="4"/>
     </row>
     <row r="252">
-      <c r="C252" s="5"/>
+      <c r="C252" s="4"/>
     </row>
     <row r="253">
-      <c r="C253" s="5"/>
+      <c r="C253" s="4"/>
     </row>
     <row r="254">
-      <c r="C254" s="5"/>
+      <c r="C254" s="4"/>
     </row>
     <row r="255">
-      <c r="C255" s="5"/>
+      <c r="C255" s="4"/>
     </row>
     <row r="256">
-      <c r="C256" s="5"/>
+      <c r="C256" s="4"/>
     </row>
     <row r="257">
-      <c r="C257" s="5"/>
+      <c r="C257" s="4"/>
     </row>
     <row r="258">
-      <c r="C258" s="5"/>
+      <c r="C258" s="4"/>
     </row>
     <row r="259">
-      <c r="C259" s="5"/>
+      <c r="C259" s="4"/>
     </row>
     <row r="260">
-      <c r="C260" s="5"/>
+      <c r="C260" s="4"/>
     </row>
     <row r="261">
-      <c r="C261" s="5"/>
+      <c r="C261" s="4"/>
     </row>
     <row r="262">
-      <c r="C262" s="5"/>
+      <c r="C262" s="4"/>
     </row>
     <row r="263">
-      <c r="C263" s="5"/>
+      <c r="C263" s="4"/>
     </row>
     <row r="264">
-      <c r="C264" s="5"/>
+      <c r="C264" s="4"/>
     </row>
     <row r="265">
-      <c r="C265" s="5"/>
+      <c r="C265" s="4"/>
     </row>
     <row r="266">
-      <c r="C266" s="5"/>
+      <c r="C266" s="4"/>
     </row>
     <row r="267">
-      <c r="C267" s="5"/>
+      <c r="C267" s="4"/>
     </row>
     <row r="268">
-      <c r="C268" s="5"/>
+      <c r="C268" s="4"/>
     </row>
     <row r="269">
-      <c r="C269" s="5"/>
+      <c r="C269" s="4"/>
     </row>
     <row r="270">
-      <c r="C270" s="5"/>
+      <c r="C270" s="4"/>
     </row>
     <row r="271">
-      <c r="C271" s="5"/>
+      <c r="C271" s="4"/>
     </row>
     <row r="272">
-      <c r="C272" s="5"/>
+      <c r="C272" s="4"/>
     </row>
     <row r="273">
-      <c r="C273" s="5"/>
+      <c r="C273" s="4"/>
     </row>
     <row r="274">
-      <c r="C274" s="5"/>
+      <c r="C274" s="4"/>
     </row>
     <row r="275">
-      <c r="C275" s="5"/>
+      <c r="C275" s="4"/>
     </row>
     <row r="276">
-      <c r="C276" s="5"/>
+      <c r="C276" s="4"/>
     </row>
     <row r="277">
-      <c r="C277" s="5"/>
+      <c r="C277" s="4"/>
     </row>
     <row r="278">
-      <c r="C278" s="5"/>
+      <c r="C278" s="4"/>
     </row>
     <row r="279">
-      <c r="C279" s="5"/>
+      <c r="C279" s="4"/>
     </row>
     <row r="280">
-      <c r="C280" s="5"/>
+      <c r="C280" s="4"/>
     </row>
     <row r="281">
-      <c r="C281" s="5"/>
+      <c r="C281" s="4"/>
     </row>
     <row r="282">
-      <c r="C282" s="5"/>
+      <c r="C282" s="4"/>
     </row>
     <row r="283">
-      <c r="C283" s="5"/>
+      <c r="C283" s="4"/>
     </row>
     <row r="284">
-      <c r="C284" s="5"/>
+      <c r="C284" s="4"/>
     </row>
     <row r="285">
-      <c r="C285" s="5"/>
+      <c r="C285" s="4"/>
     </row>
     <row r="286">
-      <c r="C286" s="5"/>
+      <c r="C286" s="4"/>
     </row>
     <row r="287">
-      <c r="C287" s="5"/>
+      <c r="C287" s="4"/>
     </row>
     <row r="288">
-      <c r="C288" s="5"/>
+      <c r="C288" s="4"/>
     </row>
     <row r="289">
-      <c r="C289" s="5"/>
+      <c r="C289" s="4"/>
     </row>
     <row r="290">
-      <c r="C290" s="5"/>
+      <c r="C290" s="4"/>
     </row>
     <row r="291">
-      <c r="C291" s="5"/>
+      <c r="C291" s="4"/>
     </row>
     <row r="292">
-      <c r="C292" s="5"/>
+      <c r="C292" s="4"/>
     </row>
     <row r="293">
-      <c r="C293" s="5"/>
+      <c r="C293" s="4"/>
     </row>
     <row r="294">
-      <c r="C294" s="5"/>
+      <c r="C294" s="4"/>
     </row>
     <row r="295">
-      <c r="C295" s="5"/>
+      <c r="C295" s="4"/>
     </row>
     <row r="296">
-      <c r="C296" s="5"/>
+      <c r="C296" s="4"/>
     </row>
     <row r="297">
-      <c r="C297" s="5"/>
+      <c r="C297" s="4"/>
     </row>
     <row r="298">
-      <c r="C298" s="5"/>
+      <c r="C298" s="4"/>
     </row>
     <row r="299">
-      <c r="C299" s="5"/>
+      <c r="C299" s="4"/>
     </row>
     <row r="300">
-      <c r="C300" s="5"/>
+      <c r="C300" s="4"/>
     </row>
     <row r="301">
-      <c r="C301" s="5"/>
+      <c r="C301" s="4"/>
     </row>
     <row r="302">
-      <c r="C302" s="5"/>
+      <c r="C302" s="4"/>
     </row>
     <row r="303">
-      <c r="C303" s="5"/>
+      <c r="C303" s="4"/>
     </row>
     <row r="304">
-      <c r="C304" s="5"/>
+      <c r="C304" s="4"/>
     </row>
     <row r="305">
-      <c r="C305" s="5"/>
+      <c r="C305" s="4"/>
     </row>
     <row r="306">
-      <c r="C306" s="5"/>
+      <c r="C306" s="4"/>
     </row>
     <row r="307">
-      <c r="C307" s="5"/>
+      <c r="C307" s="4"/>
     </row>
     <row r="308">
-      <c r="C308" s="5"/>
+      <c r="C308" s="4"/>
     </row>
     <row r="309">
-      <c r="C309" s="5"/>
+      <c r="C309" s="4"/>
     </row>
     <row r="310">
-      <c r="C310" s="5"/>
+      <c r="C310" s="4"/>
     </row>
     <row r="311">
-      <c r="C311" s="5"/>
+      <c r="C311" s="4"/>
     </row>
     <row r="312">
-      <c r="C312" s="5"/>
+      <c r="C312" s="4"/>
     </row>
     <row r="313">
-      <c r="C313" s="5"/>
+      <c r="C313" s="4"/>
     </row>
     <row r="314">
-      <c r="C314" s="5"/>
+      <c r="C314" s="4"/>
     </row>
     <row r="315">
-      <c r="C315" s="5"/>
+      <c r="C315" s="4"/>
     </row>
     <row r="316">
-      <c r="C316" s="5"/>
+      <c r="C316" s="4"/>
     </row>
     <row r="317">
-      <c r="C317" s="5"/>
+      <c r="C317" s="4"/>
     </row>
     <row r="318">
-      <c r="C318" s="5"/>
+      <c r="C318" s="4"/>
     </row>
     <row r="319">
-      <c r="C319" s="5"/>
+      <c r="C319" s="4"/>
     </row>
     <row r="320">
-      <c r="C320" s="5"/>
+      <c r="C320" s="4"/>
     </row>
     <row r="321">
-      <c r="C321" s="5"/>
+      <c r="C321" s="4"/>
     </row>
     <row r="322">
-      <c r="C322" s="5"/>
+      <c r="C322" s="4"/>
     </row>
     <row r="323">
-      <c r="C323" s="5"/>
+      <c r="C323" s="4"/>
     </row>
     <row r="324">
-      <c r="C324" s="5"/>
+      <c r="C324" s="4"/>
     </row>
     <row r="325">
-      <c r="C325" s="5"/>
+      <c r="C325" s="4"/>
     </row>
     <row r="326">
-      <c r="C326" s="5"/>
+      <c r="C326" s="4"/>
     </row>
     <row r="327">
-      <c r="C327" s="5"/>
+      <c r="C327" s="4"/>
     </row>
     <row r="328">
-      <c r="C328" s="5"/>
+      <c r="C328" s="4"/>
     </row>
     <row r="329">
-      <c r="C329" s="5"/>
+      <c r="C329" s="4"/>
     </row>
     <row r="330">
-      <c r="C330" s="5"/>
+      <c r="C330" s="4"/>
     </row>
     <row r="331">
-      <c r="C331" s="5"/>
+      <c r="C331" s="4"/>
     </row>
     <row r="332">
-      <c r="C332" s="5"/>
+      <c r="C332" s="4"/>
     </row>
     <row r="333">
-      <c r="C333" s="5"/>
+      <c r="C333" s="4"/>
     </row>
     <row r="334">
-      <c r="C334" s="5"/>
+      <c r="C334" s="4"/>
     </row>
     <row r="335">
-      <c r="C335" s="5"/>
+      <c r="C335" s="4"/>
     </row>
     <row r="336">
-      <c r="C336" s="5"/>
+      <c r="C336" s="4"/>
     </row>
     <row r="337">
-      <c r="C337" s="5"/>
+      <c r="C337" s="4"/>
     </row>
     <row r="338">
-      <c r="C338" s="5"/>
+      <c r="C338" s="4"/>
     </row>
     <row r="339">
-      <c r="C339" s="5"/>
+      <c r="C339" s="4"/>
     </row>
     <row r="340">
-      <c r="C340" s="5"/>
+      <c r="C340" s="4"/>
     </row>
     <row r="341">
-      <c r="C341" s="5"/>
+      <c r="C341" s="4"/>
     </row>
     <row r="342">
-      <c r="C342" s="5"/>
+      <c r="C342" s="4"/>
     </row>
     <row r="343">
-      <c r="C343" s="5"/>
+      <c r="C343" s="4"/>
     </row>
     <row r="344">
-      <c r="C344" s="5"/>
+      <c r="C344" s="4"/>
     </row>
     <row r="345">
-      <c r="C345" s="5"/>
+      <c r="C345" s="4"/>
     </row>
     <row r="346">
-      <c r="C346" s="5"/>
+      <c r="C346" s="4"/>
     </row>
     <row r="347">
-      <c r="C347" s="5"/>
+      <c r="C347" s="4"/>
     </row>
     <row r="348">
-      <c r="C348" s="5"/>
+      <c r="C348" s="4"/>
     </row>
     <row r="349">
-      <c r="C349" s="5"/>
+      <c r="C349" s="4"/>
     </row>
     <row r="350">
-      <c r="C350" s="5"/>
+      <c r="C350" s="4"/>
     </row>
     <row r="351">
-      <c r="C351" s="5"/>
+      <c r="C351" s="4"/>
     </row>
     <row r="352">
-      <c r="C352" s="5"/>
+      <c r="C352" s="4"/>
     </row>
     <row r="353">
-      <c r="C353" s="5"/>
+      <c r="C353" s="4"/>
     </row>
     <row r="354">
-      <c r="C354" s="5"/>
+      <c r="C354" s="4"/>
     </row>
     <row r="355">
-      <c r="C355" s="5"/>
+      <c r="C355" s="4"/>
     </row>
     <row r="356">
-      <c r="C356" s="5"/>
+      <c r="C356" s="4"/>
     </row>
     <row r="357">
-      <c r="C357" s="5"/>
+      <c r="C357" s="4"/>
     </row>
     <row r="358">
-      <c r="C358" s="5"/>
+      <c r="C358" s="4"/>
     </row>
     <row r="359">
-      <c r="C359" s="5"/>
+      <c r="C359" s="4"/>
     </row>
     <row r="360">
-      <c r="C360" s="5"/>
+      <c r="C360" s="4"/>
     </row>
     <row r="361">
-      <c r="C361" s="5"/>
+      <c r="C361" s="4"/>
     </row>
     <row r="362">
-      <c r="C362" s="5"/>
+      <c r="C362" s="4"/>
     </row>
     <row r="363">
-      <c r="C363" s="5"/>
+      <c r="C363" s="4"/>
     </row>
     <row r="364">
-      <c r="C364" s="5"/>
+      <c r="C364" s="4"/>
     </row>
     <row r="365">
-      <c r="C365" s="5"/>
+      <c r="C365" s="4"/>
     </row>
     <row r="366">
-      <c r="C366" s="5"/>
+      <c r="C366" s="4"/>
     </row>
     <row r="367">
-      <c r="C367" s="5"/>
+      <c r="C367" s="4"/>
     </row>
     <row r="368">
-      <c r="C368" s="5"/>
+      <c r="C368" s="4"/>
     </row>
     <row r="369">
-      <c r="C369" s="5"/>
+      <c r="C369" s="4"/>
     </row>
     <row r="370">
-      <c r="C370" s="5"/>
+      <c r="C370" s="4"/>
     </row>
     <row r="371">
-      <c r="C371" s="5"/>
+      <c r="C371" s="4"/>
     </row>
     <row r="372">
-      <c r="C372" s="5"/>
+      <c r="C372" s="4"/>
     </row>
     <row r="373">
-      <c r="C373" s="5"/>
+      <c r="C373" s="4"/>
     </row>
     <row r="374">
-      <c r="C374" s="5"/>
+      <c r="C374" s="4"/>
     </row>
     <row r="375">
-      <c r="C375" s="5"/>
+      <c r="C375" s="4"/>
     </row>
     <row r="376">
-      <c r="C376" s="5"/>
+      <c r="C376" s="4"/>
     </row>
     <row r="377">
-      <c r="C377" s="5"/>
+      <c r="C377" s="4"/>
     </row>
     <row r="378">
-      <c r="C378" s="5"/>
+      <c r="C378" s="4"/>
     </row>
     <row r="379">
-      <c r="C379" s="5"/>
+      <c r="C379" s="4"/>
     </row>
     <row r="380">
-      <c r="C380" s="5"/>
+      <c r="C380" s="4"/>
     </row>
     <row r="381">
-      <c r="C381" s="5"/>
+      <c r="C381" s="4"/>
     </row>
     <row r="382">
-      <c r="C382" s="5"/>
+      <c r="C382" s="4"/>
     </row>
     <row r="383">
-      <c r="C383" s="5"/>
+      <c r="C383" s="4"/>
     </row>
     <row r="384">
-      <c r="C384" s="5"/>
+      <c r="C384" s="4"/>
     </row>
     <row r="385">
-      <c r="C385" s="5"/>
+      <c r="C385" s="4"/>
     </row>
     <row r="386">
-      <c r="C386" s="5"/>
+      <c r="C386" s="4"/>
     </row>
     <row r="387">
-      <c r="C387" s="5"/>
+      <c r="C387" s="4"/>
     </row>
     <row r="388">
-      <c r="C388" s="5"/>
+      <c r="C388" s="4"/>
     </row>
     <row r="389">
-      <c r="C389" s="5"/>
+      <c r="C389" s="4"/>
     </row>
     <row r="390">
-      <c r="C390" s="5"/>
+      <c r="C390" s="4"/>
     </row>
     <row r="391">
-      <c r="C391" s="5"/>
+      <c r="C391" s="4"/>
     </row>
     <row r="392">
-      <c r="C392" s="5"/>
+      <c r="C392" s="4"/>
     </row>
     <row r="393">
-      <c r="C393" s="5"/>
+      <c r="C393" s="4"/>
     </row>
     <row r="394">
-      <c r="C394" s="5"/>
+      <c r="C394" s="4"/>
     </row>
     <row r="395">
-      <c r="C395" s="5"/>
+      <c r="C395" s="4"/>
     </row>
     <row r="396">
-      <c r="C396" s="5"/>
+      <c r="C396" s="4"/>
     </row>
     <row r="397">
-      <c r="C397" s="5"/>
+      <c r="C397" s="4"/>
     </row>
     <row r="398">
-      <c r="C398" s="5"/>
+      <c r="C398" s="4"/>
     </row>
     <row r="399">
-      <c r="C399" s="5"/>
+      <c r="C399" s="4"/>
     </row>
     <row r="400">
-      <c r="C400" s="5"/>
+      <c r="C400" s="4"/>
     </row>
     <row r="401">
-      <c r="C401" s="5"/>
+      <c r="C401" s="4"/>
     </row>
     <row r="402">
-      <c r="C402" s="5"/>
+      <c r="C402" s="4"/>
     </row>
     <row r="403">
-      <c r="C403" s="5"/>
+      <c r="C403" s="4"/>
     </row>
     <row r="404">
-      <c r="C404" s="5"/>
+      <c r="C404" s="4"/>
     </row>
     <row r="405">
-      <c r="C405" s="5"/>
+      <c r="C405" s="4"/>
     </row>
     <row r="406">
-      <c r="C406" s="5"/>
+      <c r="C406" s="4"/>
     </row>
     <row r="407">
-      <c r="C407" s="5"/>
+      <c r="C407" s="4"/>
     </row>
     <row r="408">
-      <c r="C408" s="5"/>
+      <c r="C408" s="4"/>
     </row>
     <row r="409">
-      <c r="C409" s="5"/>
+      <c r="C409" s="4"/>
     </row>
     <row r="410">
-      <c r="C410" s="5"/>
+      <c r="C410" s="4"/>
     </row>
     <row r="411">
-      <c r="C411" s="5"/>
+      <c r="C411" s="4"/>
     </row>
     <row r="412">
-      <c r="C412" s="5"/>
+      <c r="C412" s="4"/>
     </row>
     <row r="413">
-      <c r="C413" s="5"/>
+      <c r="C413" s="4"/>
     </row>
     <row r="414">
-      <c r="C414" s="5"/>
+      <c r="C414" s="4"/>
     </row>
     <row r="415">
-      <c r="C415" s="5"/>
+      <c r="C415" s="4"/>
     </row>
     <row r="416">
-      <c r="C416" s="5"/>
+      <c r="C416" s="4"/>
     </row>
     <row r="417">
-      <c r="C417" s="5"/>
+      <c r="C417" s="4"/>
     </row>
     <row r="418">
-      <c r="C418" s="5"/>
+      <c r="C418" s="4"/>
     </row>
     <row r="419">
-      <c r="C419" s="5"/>
+      <c r="C419" s="4"/>
     </row>
     <row r="420">
-      <c r="C420" s="5"/>
+      <c r="C420" s="4"/>
     </row>
     <row r="421">
-      <c r="C421" s="5"/>
+      <c r="C421" s="4"/>
     </row>
     <row r="422">
-      <c r="C422" s="5"/>
+      <c r="C422" s="4"/>
     </row>
     <row r="423">
-      <c r="C423" s="5"/>
+      <c r="C423" s="4"/>
     </row>
     <row r="424">
-      <c r="C424" s="5"/>
+      <c r="C424" s="4"/>
     </row>
     <row r="425">
-      <c r="C425" s="5"/>
+      <c r="C425" s="4"/>
     </row>
     <row r="426">
-      <c r="C426" s="5"/>
+      <c r="C426" s="4"/>
     </row>
     <row r="427">
-      <c r="C427" s="5"/>
+      <c r="C427" s="4"/>
     </row>
     <row r="428">
-      <c r="C428" s="5"/>
+      <c r="C428" s="4"/>
     </row>
     <row r="429">
-      <c r="C429" s="5"/>
+      <c r="C429" s="4"/>
     </row>
     <row r="430">
-      <c r="C430" s="5"/>
+      <c r="C430" s="4"/>
     </row>
     <row r="431">
-      <c r="C431" s="5"/>
+      <c r="C431" s="4"/>
     </row>
     <row r="432">
-      <c r="C432" s="5"/>
+      <c r="C432" s="4"/>
     </row>
     <row r="433">
-      <c r="C433" s="5"/>
+      <c r="C433" s="4"/>
     </row>
     <row r="434">
-      <c r="C434" s="5"/>
+      <c r="C434" s="4"/>
     </row>
     <row r="435">
-      <c r="C435" s="5"/>
+      <c r="C435" s="4"/>
     </row>
     <row r="436">
-      <c r="C436" s="5"/>
+      <c r="C436" s="4"/>
     </row>
     <row r="437">
-      <c r="C437" s="5"/>
+      <c r="C437" s="4"/>
     </row>
     <row r="438">
-      <c r="C438" s="5"/>
+      <c r="C438" s="4"/>
     </row>
     <row r="439">
-      <c r="C439" s="5"/>
+      <c r="C439" s="4"/>
     </row>
     <row r="440">
-      <c r="C440" s="5"/>
+      <c r="C440" s="4"/>
     </row>
     <row r="441">
-      <c r="C441" s="5"/>
+      <c r="C441" s="4"/>
     </row>
     <row r="442">
-      <c r="C442" s="5"/>
+      <c r="C442" s="4"/>
     </row>
     <row r="443">
-      <c r="C443" s="5"/>
+      <c r="C443" s="4"/>
     </row>
     <row r="444">
-      <c r="C444" s="5"/>
+      <c r="C444" s="4"/>
     </row>
     <row r="445">
-      <c r="C445" s="5"/>
+      <c r="C445" s="4"/>
     </row>
     <row r="446">
-      <c r="C446" s="5"/>
+      <c r="C446" s="4"/>
     </row>
     <row r="447">
-      <c r="C447" s="5"/>
+      <c r="C447" s="4"/>
     </row>
     <row r="448">
-      <c r="C448" s="5"/>
+      <c r="C448" s="4"/>
     </row>
     <row r="449">
-      <c r="C449" s="5"/>
+      <c r="C449" s="4"/>
     </row>
     <row r="450">
-      <c r="C450" s="5"/>
+      <c r="C450" s="4"/>
     </row>
     <row r="451">
-      <c r="C451" s="5"/>
+      <c r="C451" s="4"/>
     </row>
     <row r="452">
-      <c r="C452" s="5"/>
+      <c r="C452" s="4"/>
     </row>
     <row r="453">
-      <c r="C453" s="5"/>
+      <c r="C453" s="4"/>
     </row>
     <row r="454">
-      <c r="C454" s="5"/>
+      <c r="C454" s="4"/>
     </row>
     <row r="455">
-      <c r="C455" s="5"/>
+      <c r="C455" s="4"/>
     </row>
     <row r="456">
-      <c r="C456" s="5"/>
+      <c r="C456" s="4"/>
     </row>
     <row r="457">
-      <c r="C457" s="5"/>
+      <c r="C457" s="4"/>
     </row>
     <row r="458">
-      <c r="C458" s="5"/>
+      <c r="C458" s="4"/>
     </row>
     <row r="459">
-      <c r="C459" s="5"/>
+      <c r="C459" s="4"/>
     </row>
     <row r="460">
-      <c r="C460" s="5"/>
+      <c r="C460" s="4"/>
     </row>
     <row r="461">
-      <c r="C461" s="5"/>
+      <c r="C461" s="4"/>
     </row>
     <row r="462">
-      <c r="C462" s="5"/>
+      <c r="C462" s="4"/>
     </row>
     <row r="463">
-      <c r="C463" s="5"/>
+      <c r="C463" s="4"/>
     </row>
     <row r="464">
-      <c r="C464" s="5"/>
+      <c r="C464" s="4"/>
     </row>
     <row r="465">
-      <c r="C465" s="5"/>
+      <c r="C465" s="4"/>
     </row>
     <row r="466">
-      <c r="C466" s="5"/>
+      <c r="C466" s="4"/>
     </row>
     <row r="467">
-      <c r="C467" s="5"/>
+      <c r="C467" s="4"/>
     </row>
     <row r="468">
-      <c r="C468" s="5"/>
+      <c r="C468" s="4"/>
     </row>
     <row r="469">
-      <c r="C469" s="5"/>
+      <c r="C469" s="4"/>
     </row>
     <row r="470">
-      <c r="C470" s="5"/>
+      <c r="C470" s="4"/>
     </row>
     <row r="471">
-      <c r="C471" s="5"/>
+      <c r="C471" s="4"/>
     </row>
     <row r="472">
-      <c r="C472" s="5"/>
+      <c r="C472" s="4"/>
     </row>
     <row r="473">
-      <c r="C473" s="5"/>
+      <c r="C473" s="4"/>
     </row>
     <row r="474">
-      <c r="C474" s="5"/>
+      <c r="C474" s="4"/>
     </row>
     <row r="475">
-      <c r="C475" s="5"/>
+      <c r="C475" s="4"/>
     </row>
     <row r="476">
-      <c r="C476" s="5"/>
+      <c r="C476" s="4"/>
     </row>
     <row r="477">
-      <c r="C477" s="5"/>
+      <c r="C477" s="4"/>
     </row>
     <row r="478">
-      <c r="C478" s="5"/>
+      <c r="C478" s="4"/>
     </row>
     <row r="479">
-      <c r="C479" s="5"/>
+      <c r="C479" s="4"/>
     </row>
     <row r="480">
-      <c r="C480" s="5"/>
+      <c r="C480" s="4"/>
     </row>
     <row r="481">
-      <c r="C481" s="5"/>
+      <c r="C481" s="4"/>
     </row>
     <row r="482">
-      <c r="C482" s="5"/>
+      <c r="C482" s="4"/>
     </row>
     <row r="483">
-      <c r="C483" s="5"/>
+      <c r="C483" s="4"/>
     </row>
     <row r="484">
-      <c r="C484" s="5"/>
+      <c r="C484" s="4"/>
     </row>
     <row r="485">
-      <c r="C485" s="5"/>
+      <c r="C485" s="4"/>
     </row>
     <row r="486">
-      <c r="C486" s="5"/>
+      <c r="C486" s="4"/>
     </row>
     <row r="487">
-      <c r="C487" s="5"/>
+      <c r="C487" s="4"/>
     </row>
     <row r="488">
-      <c r="C488" s="5"/>
+      <c r="C488" s="4"/>
     </row>
     <row r="489">
-      <c r="C489" s="5"/>
+      <c r="C489" s="4"/>
     </row>
     <row r="490">
-      <c r="C490" s="5"/>
+      <c r="C490" s="4"/>
     </row>
     <row r="491">
-      <c r="C491" s="5"/>
+      <c r="C491" s="4"/>
     </row>
     <row r="492">
-      <c r="C492" s="5"/>
+      <c r="C492" s="4"/>
     </row>
     <row r="493">
-      <c r="C493" s="5"/>
+      <c r="C493" s="4"/>
     </row>
     <row r="494">
-      <c r="C494" s="5"/>
+      <c r="C494" s="4"/>
     </row>
     <row r="495">
-      <c r="C495" s="5"/>
+      <c r="C495" s="4"/>
     </row>
     <row r="496">
-      <c r="C496" s="5"/>
+      <c r="C496" s="4"/>
     </row>
     <row r="497">
-      <c r="C497" s="5"/>
+      <c r="C497" s="4"/>
     </row>
     <row r="498">
-      <c r="C498" s="5"/>
+      <c r="C498" s="4"/>
     </row>
     <row r="499">
-      <c r="C499" s="5"/>
+      <c r="C499" s="4"/>
     </row>
     <row r="500">
-      <c r="C500" s="5"/>
+      <c r="C500" s="4"/>
     </row>
     <row r="501">
-      <c r="C501" s="5"/>
+      <c r="C501" s="4"/>
     </row>
     <row r="502">
-      <c r="C502" s="5"/>
+      <c r="C502" s="4"/>
     </row>
     <row r="503">
-      <c r="C503" s="5"/>
+      <c r="C503" s="4"/>
     </row>
     <row r="504">
-      <c r="C504" s="5"/>
+      <c r="C504" s="4"/>
     </row>
     <row r="505">
-      <c r="C505" s="5"/>
+      <c r="C505" s="4"/>
     </row>
     <row r="506">
-      <c r="C506" s="5"/>
+      <c r="C506" s="4"/>
     </row>
     <row r="507">
-      <c r="C507" s="5"/>
+      <c r="C507" s="4"/>
     </row>
     <row r="508">
-      <c r="C508" s="5"/>
+      <c r="C508" s="4"/>
     </row>
     <row r="509">
-      <c r="C509" s="5"/>
+      <c r="C509" s="4"/>
     </row>
     <row r="510">
-      <c r="C510" s="5"/>
+      <c r="C510" s="4"/>
     </row>
     <row r="511">
-      <c r="C511" s="5"/>
+      <c r="C511" s="4"/>
     </row>
     <row r="512">
-      <c r="C512" s="5"/>
+      <c r="C512" s="4"/>
     </row>
     <row r="513">
-      <c r="C513" s="5"/>
+      <c r="C513" s="4"/>
     </row>
     <row r="514">
-      <c r="C514" s="5"/>
+      <c r="C514" s="4"/>
     </row>
     <row r="515">
-      <c r="C515" s="5"/>
+      <c r="C515" s="4"/>
     </row>
     <row r="516">
-      <c r="C516" s="5"/>
+      <c r="C516" s="4"/>
     </row>
     <row r="517">
-      <c r="C517" s="5"/>
+      <c r="C517" s="4"/>
     </row>
     <row r="518">
-      <c r="C518" s="5"/>
+      <c r="C518" s="4"/>
     </row>
     <row r="519">
-      <c r="C519" s="5"/>
+      <c r="C519" s="4"/>
     </row>
     <row r="520">
-      <c r="C520" s="5"/>
+      <c r="C520" s="4"/>
     </row>
     <row r="521">
-      <c r="C521" s="5"/>
+      <c r="C521" s="4"/>
     </row>
     <row r="522">
-      <c r="C522" s="5"/>
+      <c r="C522" s="4"/>
     </row>
     <row r="523">
-      <c r="C523" s="5"/>
+      <c r="C523" s="4"/>
     </row>
     <row r="524">
-      <c r="C524" s="5"/>
+      <c r="C524" s="4"/>
     </row>
     <row r="525">
-      <c r="C525" s="5"/>
+      <c r="C525" s="4"/>
     </row>
     <row r="526">
-      <c r="C526" s="5"/>
+      <c r="C526" s="4"/>
     </row>
     <row r="527">
-      <c r="C527" s="5"/>
+      <c r="C527" s="4"/>
     </row>
     <row r="528">
-      <c r="C528" s="5"/>
+      <c r="C528" s="4"/>
     </row>
     <row r="529">
-      <c r="C529" s="5"/>
+      <c r="C529" s="4"/>
     </row>
     <row r="530">
-      <c r="C530" s="5"/>
+      <c r="C530" s="4"/>
     </row>
     <row r="531">
-      <c r="C531" s="5"/>
+      <c r="C531" s="4"/>
     </row>
     <row r="532">
-      <c r="C532" s="5"/>
+      <c r="C532" s="4"/>
     </row>
     <row r="533">
-      <c r="C533" s="5"/>
+      <c r="C533" s="4"/>
     </row>
     <row r="534">
-      <c r="C534" s="5"/>
+      <c r="C534" s="4"/>
     </row>
     <row r="535">
-      <c r="C535" s="5"/>
+      <c r="C535" s="4"/>
     </row>
     <row r="536">
-      <c r="C536" s="5"/>
+      <c r="C536" s="4"/>
     </row>
     <row r="537">
-      <c r="C537" s="5"/>
+      <c r="C537" s="4"/>
     </row>
     <row r="538">
-      <c r="C538" s="5"/>
+      <c r="C538" s="4"/>
     </row>
     <row r="539">
-      <c r="C539" s="5"/>
+      <c r="C539" s="4"/>
     </row>
     <row r="540">
-      <c r="C540" s="5"/>
+      <c r="C540" s="4"/>
     </row>
     <row r="541">
-      <c r="C541" s="5"/>
+      <c r="C541" s="4"/>
     </row>
     <row r="542">
-      <c r="C542" s="5"/>
+      <c r="C542" s="4"/>
     </row>
     <row r="543">
-      <c r="C543" s="5"/>
+      <c r="C543" s="4"/>
     </row>
     <row r="544">
-      <c r="C544" s="5"/>
+      <c r="C544" s="4"/>
     </row>
     <row r="545">
-      <c r="C545" s="5"/>
+      <c r="C545" s="4"/>
     </row>
     <row r="546">
-      <c r="C546" s="5"/>
+      <c r="C546" s="4"/>
     </row>
     <row r="547">
-      <c r="C547" s="5"/>
+      <c r="C547" s="4"/>
     </row>
     <row r="548">
-      <c r="C548" s="5"/>
+      <c r="C548" s="4"/>
     </row>
     <row r="549">
-      <c r="C549" s="5"/>
+      <c r="C549" s="4"/>
     </row>
     <row r="550">
-      <c r="C550" s="5"/>
+      <c r="C550" s="4"/>
     </row>
     <row r="551">
-      <c r="C551" s="5"/>
+      <c r="C551" s="4"/>
     </row>
     <row r="552">
-      <c r="C552" s="5"/>
+      <c r="C552" s="4"/>
     </row>
     <row r="553">
-      <c r="C553" s="5"/>
+      <c r="C553" s="4"/>
     </row>
     <row r="554">
-      <c r="C554" s="5"/>
+      <c r="C554" s="4"/>
     </row>
     <row r="555">
-      <c r="C555" s="5"/>
+      <c r="C555" s="4"/>
     </row>
     <row r="556">
-      <c r="C556" s="5"/>
+      <c r="C556" s="4"/>
     </row>
     <row r="557">
-      <c r="C557" s="5"/>
+      <c r="C557" s="4"/>
     </row>
     <row r="558">
-      <c r="C558" s="5"/>
+      <c r="C558" s="4"/>
     </row>
     <row r="559">
-      <c r="C559" s="5"/>
+      <c r="C559" s="4"/>
     </row>
     <row r="560">
-      <c r="C560" s="5"/>
+      <c r="C560" s="4"/>
     </row>
     <row r="561">
-      <c r="C561" s="5"/>
+      <c r="C561" s="4"/>
     </row>
     <row r="562">
-      <c r="C562" s="5"/>
+      <c r="C562" s="4"/>
     </row>
     <row r="563">
-      <c r="C563" s="5"/>
+      <c r="C563" s="4"/>
     </row>
     <row r="564">
-      <c r="C564" s="5"/>
+      <c r="C564" s="4"/>
     </row>
     <row r="565">
-      <c r="C565" s="5"/>
+      <c r="C565" s="4"/>
     </row>
     <row r="566">
-      <c r="C566" s="5"/>
+      <c r="C566" s="4"/>
     </row>
     <row r="567">
-      <c r="C567" s="5"/>
+      <c r="C567" s="4"/>
     </row>
     <row r="568">
-      <c r="C568" s="5"/>
+      <c r="C568" s="4"/>
     </row>
     <row r="569">
-      <c r="C569" s="5"/>
+      <c r="C569" s="4"/>
     </row>
     <row r="570">
-      <c r="C570" s="5"/>
+      <c r="C570" s="4"/>
     </row>
     <row r="571">
-      <c r="C571" s="5"/>
+      <c r="C571" s="4"/>
     </row>
     <row r="572">
-      <c r="C572" s="5"/>
+      <c r="C572" s="4"/>
     </row>
     <row r="573">
-      <c r="C573" s="5"/>
+      <c r="C573" s="4"/>
     </row>
     <row r="574">
-      <c r="C574" s="5"/>
+      <c r="C574" s="4"/>
     </row>
     <row r="575">
-      <c r="C575" s="5"/>
+      <c r="C575" s="4"/>
     </row>
     <row r="576">
-      <c r="C576" s="5"/>
+      <c r="C576" s="4"/>
     </row>
     <row r="577">
-      <c r="C577" s="5"/>
+      <c r="C577" s="4"/>
     </row>
     <row r="578">
-      <c r="C578" s="5"/>
+      <c r="C578" s="4"/>
     </row>
     <row r="579">
-      <c r="C579" s="5"/>
+      <c r="C579" s="4"/>
     </row>
     <row r="580">
-      <c r="C580" s="5"/>
+      <c r="C580" s="4"/>
     </row>
     <row r="581">
-      <c r="C581" s="5"/>
+      <c r="C581" s="4"/>
     </row>
     <row r="582">
-      <c r="C582" s="5"/>
+      <c r="C582" s="4"/>
     </row>
     <row r="583">
-      <c r="C583" s="5"/>
+      <c r="C583" s="4"/>
     </row>
     <row r="584">
-      <c r="C584" s="5"/>
+      <c r="C584" s="4"/>
     </row>
     <row r="585">
-      <c r="C585" s="5"/>
+      <c r="C585" s="4"/>
     </row>
     <row r="586">
-      <c r="C586" s="5"/>
+      <c r="C586" s="4"/>
     </row>
     <row r="587">
-      <c r="C587" s="5"/>
+      <c r="C587" s="4"/>
     </row>
     <row r="588">
-      <c r="C588" s="5"/>
+      <c r="C588" s="4"/>
     </row>
     <row r="589">
-      <c r="C589" s="5"/>
+      <c r="C589" s="4"/>
     </row>
     <row r="590">
-      <c r="C590" s="5"/>
+      <c r="C590" s="4"/>
     </row>
     <row r="591">
-      <c r="C591" s="5"/>
+      <c r="C591" s="4"/>
     </row>
     <row r="592">
-      <c r="C592" s="5"/>
+      <c r="C592" s="4"/>
     </row>
     <row r="593">
-      <c r="C593" s="5"/>
+      <c r="C593" s="4"/>
     </row>
     <row r="594">
-      <c r="C594" s="5"/>
+      <c r="C594" s="4"/>
     </row>
     <row r="595">
-      <c r="C595" s="5"/>
+      <c r="C595" s="4"/>
     </row>
     <row r="596">
-      <c r="C596" s="5"/>
+      <c r="C596" s="4"/>
     </row>
     <row r="597">
-      <c r="C597" s="5"/>
+      <c r="C597" s="4"/>
     </row>
     <row r="598">
-      <c r="C598" s="5"/>
+      <c r="C598" s="4"/>
     </row>
     <row r="599">
-      <c r="C599" s="5"/>
+      <c r="C599" s="4"/>
     </row>
     <row r="600">
-      <c r="C600" s="5"/>
+      <c r="C600" s="4"/>
     </row>
     <row r="601">
-      <c r="C601" s="5"/>
+      <c r="C601" s="4"/>
     </row>
     <row r="602">
-      <c r="C602" s="5"/>
+      <c r="C602" s="4"/>
     </row>
     <row r="603">
-      <c r="C603" s="5"/>
+      <c r="C603" s="4"/>
     </row>
     <row r="604">
-      <c r="C604" s="5"/>
+      <c r="C604" s="4"/>
     </row>
     <row r="605">
-      <c r="C605" s="5"/>
+      <c r="C605" s="4"/>
     </row>
     <row r="606">
-      <c r="C606" s="5"/>
+      <c r="C606" s="4"/>
     </row>
     <row r="607">
-      <c r="C607" s="5"/>
+      <c r="C607" s="4"/>
     </row>
     <row r="608">
-      <c r="C608" s="5"/>
+      <c r="C608" s="4"/>
     </row>
     <row r="609">
-      <c r="C609" s="5"/>
+      <c r="C609" s="4"/>
     </row>
     <row r="610">
-      <c r="C610" s="5"/>
+      <c r="C610" s="4"/>
     </row>
     <row r="611">
-      <c r="C611" s="5"/>
+      <c r="C611" s="4"/>
     </row>
     <row r="612">
-      <c r="C612" s="5"/>
+      <c r="C612" s="4"/>
     </row>
     <row r="613">
-      <c r="C613" s="5"/>
+      <c r="C613" s="4"/>
     </row>
     <row r="614">
-      <c r="C614" s="5"/>
+      <c r="C614" s="4"/>
     </row>
     <row r="615">
-      <c r="C615" s="5"/>
+      <c r="C615" s="4"/>
     </row>
     <row r="616">
-      <c r="C616" s="5"/>
+      <c r="C616" s="4"/>
     </row>
     <row r="617">
-      <c r="C617" s="5"/>
+      <c r="C617" s="4"/>
     </row>
     <row r="618">
-      <c r="C618" s="5"/>
+      <c r="C618" s="4"/>
     </row>
     <row r="619">
-      <c r="C619" s="5"/>
+      <c r="C619" s="4"/>
     </row>
     <row r="620">
-      <c r="C620" s="5"/>
+      <c r="C620" s="4"/>
     </row>
     <row r="621">
-      <c r="C621" s="5"/>
+      <c r="C621" s="4"/>
     </row>
     <row r="622">
-      <c r="C622" s="5"/>
+      <c r="C622" s="4"/>
     </row>
     <row r="623">
-      <c r="C623" s="5"/>
+      <c r="C623" s="4"/>
     </row>
     <row r="624">
-      <c r="C624" s="5"/>
+      <c r="C624" s="4"/>
     </row>
     <row r="625">
-      <c r="C625" s="5"/>
+      <c r="C625" s="4"/>
     </row>
     <row r="626">
-      <c r="C626" s="5"/>
+      <c r="C626" s="4"/>
     </row>
     <row r="627">
-      <c r="C627" s="5"/>
+      <c r="C627" s="4"/>
     </row>
     <row r="628">
-      <c r="C628" s="5"/>
+      <c r="C628" s="4"/>
     </row>
     <row r="629">
-      <c r="C629" s="5"/>
+      <c r="C629" s="4"/>
     </row>
     <row r="630">
-      <c r="C630" s="5"/>
+      <c r="C630" s="4"/>
     </row>
     <row r="631">
-      <c r="C631" s="5"/>
+      <c r="C631" s="4"/>
     </row>
     <row r="632">
-      <c r="C632" s="5"/>
+      <c r="C632" s="4"/>
     </row>
     <row r="633">
-      <c r="C633" s="5"/>
+      <c r="C633" s="4"/>
     </row>
     <row r="634">
-      <c r="C634" s="5"/>
+      <c r="C634" s="4"/>
     </row>
     <row r="635">
-      <c r="C635" s="5"/>
+      <c r="C635" s="4"/>
     </row>
     <row r="636">
-      <c r="C636" s="5"/>
+      <c r="C636" s="4"/>
     </row>
     <row r="637">
-      <c r="C637" s="5"/>
+      <c r="C637" s="4"/>
     </row>
     <row r="638">
-      <c r="C638" s="5"/>
+      <c r="C638" s="4"/>
     </row>
     <row r="639">
-      <c r="C639" s="5"/>
+      <c r="C639" s="4"/>
     </row>
     <row r="640">
-      <c r="C640" s="5"/>
+      <c r="C640" s="4"/>
     </row>
     <row r="641">
-      <c r="C641" s="5"/>
+      <c r="C641" s="4"/>
     </row>
     <row r="642">
-      <c r="C642" s="5"/>
+      <c r="C642" s="4"/>
     </row>
     <row r="643">
-      <c r="C643" s="5"/>
+      <c r="C643" s="4"/>
     </row>
     <row r="644">
-      <c r="C644" s="5"/>
+      <c r="C644" s="4"/>
     </row>
     <row r="645">
-      <c r="C645" s="5"/>
+      <c r="C645" s="4"/>
     </row>
     <row r="646">
-      <c r="C646" s="5"/>
+      <c r="C646" s="4"/>
     </row>
     <row r="647">
-      <c r="C647" s="5"/>
+      <c r="C647" s="4"/>
     </row>
     <row r="648">
-      <c r="C648" s="5"/>
+      <c r="C648" s="4"/>
     </row>
     <row r="649">
-      <c r="C649" s="5"/>
+      <c r="C649" s="4"/>
     </row>
     <row r="650">
-      <c r="C650" s="5"/>
+      <c r="C650" s="4"/>
     </row>
     <row r="651">
-      <c r="C651" s="5"/>
+      <c r="C651" s="4"/>
     </row>
     <row r="652">
-      <c r="C652" s="5"/>
+      <c r="C652" s="4"/>
     </row>
     <row r="653">
-      <c r="C653" s="5"/>
+      <c r="C653" s="4"/>
     </row>
     <row r="654">
-      <c r="C654" s="5"/>
+      <c r="C654" s="4"/>
     </row>
     <row r="655">
-      <c r="C655" s="5"/>
+      <c r="C655" s="4"/>
     </row>
     <row r="656">
-      <c r="C656" s="5"/>
+      <c r="C656" s="4"/>
     </row>
     <row r="657">
-      <c r="C657" s="5"/>
+      <c r="C657" s="4"/>
     </row>
     <row r="658">
-      <c r="C658" s="5"/>
+      <c r="C658" s="4"/>
     </row>
     <row r="659">
-      <c r="C659" s="5"/>
+      <c r="C659" s="4"/>
     </row>
     <row r="660">
-      <c r="C660" s="5"/>
+      <c r="C660" s="4"/>
     </row>
     <row r="661">
-      <c r="C661" s="5"/>
+      <c r="C661" s="4"/>
     </row>
     <row r="662">
-      <c r="C662" s="5"/>
+      <c r="C662" s="4"/>
     </row>
     <row r="663">
-      <c r="C663" s="5"/>
+      <c r="C663" s="4"/>
     </row>
     <row r="664">
-      <c r="C664" s="5"/>
+      <c r="C664" s="4"/>
     </row>
     <row r="665">
-      <c r="C665" s="5"/>
+      <c r="C665" s="4"/>
     </row>
     <row r="666">
-      <c r="C666" s="5"/>
+      <c r="C666" s="4"/>
     </row>
     <row r="667">
-      <c r="C667" s="5"/>
+      <c r="C667" s="4"/>
     </row>
     <row r="668">
-      <c r="C668" s="5"/>
+      <c r="C668" s="4"/>
     </row>
     <row r="669">
-      <c r="C669" s="5"/>
+      <c r="C669" s="4"/>
     </row>
     <row r="670">
-      <c r="C670" s="5"/>
+      <c r="C670" s="4"/>
     </row>
     <row r="671">
-      <c r="C671" s="5"/>
+      <c r="C671" s="4"/>
     </row>
     <row r="672">
-      <c r="C672" s="5"/>
+      <c r="C672" s="4"/>
     </row>
     <row r="673">
-      <c r="C673" s="5"/>
+      <c r="C673" s="4"/>
     </row>
     <row r="674">
-      <c r="C674" s="5"/>
+      <c r="C674" s="4"/>
     </row>
     <row r="675">
-      <c r="C675" s="5"/>
+      <c r="C675" s="4"/>
     </row>
     <row r="676">
-      <c r="C676" s="5"/>
+      <c r="C676" s="4"/>
     </row>
     <row r="677">
-      <c r="C677" s="5"/>
+      <c r="C677" s="4"/>
     </row>
     <row r="678">
-      <c r="C678" s="5"/>
+      <c r="C678" s="4"/>
     </row>
     <row r="679">
-      <c r="C679" s="5"/>
+      <c r="C679" s="4"/>
     </row>
     <row r="680">
-      <c r="C680" s="5"/>
+      <c r="C680" s="4"/>
     </row>
     <row r="681">
-      <c r="C681" s="5"/>
+      <c r="C681" s="4"/>
     </row>
     <row r="682">
-      <c r="C682" s="5"/>
+      <c r="C682" s="4"/>
     </row>
     <row r="683">
-      <c r="C683" s="5"/>
+      <c r="C683" s="4"/>
     </row>
     <row r="684">
-      <c r="C684" s="5"/>
+      <c r="C684" s="4"/>
     </row>
     <row r="685">
-      <c r="C685" s="5"/>
+      <c r="C685" s="4"/>
     </row>
     <row r="686">
-      <c r="C686" s="5"/>
+      <c r="C686" s="4"/>
     </row>
     <row r="687">
-      <c r="C687" s="5"/>
+      <c r="C687" s="4"/>
     </row>
     <row r="688">
-      <c r="C688" s="5"/>
+      <c r="C688" s="4"/>
     </row>
     <row r="689">
-      <c r="C689" s="5"/>
+      <c r="C689" s="4"/>
     </row>
     <row r="690">
-      <c r="C690" s="5"/>
+      <c r="C690" s="4"/>
     </row>
     <row r="691">
-      <c r="C691" s="5"/>
+      <c r="C691" s="4"/>
     </row>
     <row r="692">
-      <c r="C692" s="5"/>
+      <c r="C692" s="4"/>
     </row>
     <row r="693">
-      <c r="C693" s="5"/>
+      <c r="C693" s="4"/>
     </row>
     <row r="694">
-      <c r="C694" s="5"/>
+      <c r="C694" s="4"/>
     </row>
     <row r="695">
-      <c r="C695" s="5"/>
+      <c r="C695" s="4"/>
     </row>
     <row r="696">
-      <c r="C696" s="5"/>
+      <c r="C696" s="4"/>
     </row>
     <row r="697">
-      <c r="C697" s="5"/>
+      <c r="C697" s="4"/>
     </row>
     <row r="698">
-      <c r="C698" s="5"/>
+      <c r="C698" s="4"/>
     </row>
     <row r="699">
-      <c r="C699" s="5"/>
+      <c r="C699" s="4"/>
     </row>
     <row r="700">
-      <c r="C700" s="5"/>
+      <c r="C700" s="4"/>
     </row>
     <row r="701">
-      <c r="C701" s="5"/>
+      <c r="C701" s="4"/>
     </row>
     <row r="702">
-      <c r="C702" s="5"/>
+      <c r="C702" s="4"/>
     </row>
     <row r="703">
-      <c r="C703" s="5"/>
+      <c r="C703" s="4"/>
     </row>
     <row r="704">
-      <c r="C704" s="5"/>
+      <c r="C704" s="4"/>
     </row>
     <row r="705">
-      <c r="C705" s="5"/>
+      <c r="C705" s="4"/>
     </row>
     <row r="706">
-      <c r="C706" s="5"/>
+      <c r="C706" s="4"/>
     </row>
     <row r="707">
-      <c r="C707" s="5"/>
+      <c r="C707" s="4"/>
     </row>
     <row r="708">
-      <c r="C708" s="5"/>
+      <c r="C708" s="4"/>
     </row>
     <row r="709">
-      <c r="C709" s="5"/>
+      <c r="C709" s="4"/>
     </row>
     <row r="710">
-      <c r="C710" s="5"/>
+      <c r="C710" s="4"/>
     </row>
     <row r="711">
-      <c r="C711" s="5"/>
+      <c r="C711" s="4"/>
     </row>
     <row r="712">
-      <c r="C712" s="5"/>
+      <c r="C712" s="4"/>
     </row>
     <row r="713">
-      <c r="C713" s="5"/>
+      <c r="C713" s="4"/>
     </row>
     <row r="714">
-      <c r="C714" s="5"/>
+      <c r="C714" s="4"/>
     </row>
     <row r="715">
-      <c r="C715" s="5"/>
+      <c r="C715" s="4"/>
     </row>
     <row r="716">
-      <c r="C716" s="5"/>
+      <c r="C716" s="4"/>
     </row>
     <row r="717">
-      <c r="C717" s="5"/>
+      <c r="C717" s="4"/>
     </row>
     <row r="718">
-      <c r="C718" s="5"/>
+      <c r="C718" s="4"/>
     </row>
     <row r="719">
-      <c r="C719" s="5"/>
+      <c r="C719" s="4"/>
     </row>
     <row r="720">
-      <c r="C720" s="5"/>
+      <c r="C720" s="4"/>
     </row>
     <row r="721">
-      <c r="C721" s="5"/>
+      <c r="C721" s="4"/>
     </row>
     <row r="722">
-      <c r="C722" s="5"/>
+      <c r="C722" s="4"/>
     </row>
     <row r="723">
-      <c r="C723" s="5"/>
+      <c r="C723" s="4"/>
     </row>
     <row r="724">
-      <c r="C724" s="5"/>
+      <c r="C724" s="4"/>
     </row>
     <row r="725">
-      <c r="C725" s="5"/>
+      <c r="C725" s="4"/>
     </row>
     <row r="726">
-      <c r="C726" s="5"/>
+      <c r="C726" s="4"/>
     </row>
     <row r="727">
-      <c r="C727" s="5"/>
+      <c r="C727" s="4"/>
     </row>
     <row r="728">
-      <c r="C728" s="5"/>
+      <c r="C728" s="4"/>
     </row>
     <row r="729">
-      <c r="C729" s="5"/>
+      <c r="C729" s="4"/>
     </row>
     <row r="730">
-      <c r="C730" s="5"/>
+      <c r="C730" s="4"/>
     </row>
     <row r="731">
-      <c r="C731" s="5"/>
+      <c r="C731" s="4"/>
     </row>
     <row r="732">
-      <c r="C732" s="5"/>
+      <c r="C732" s="4"/>
     </row>
     <row r="733">
-      <c r="C733" s="5"/>
+      <c r="C733" s="4"/>
     </row>
     <row r="734">
-      <c r="C734" s="5"/>
+      <c r="C734" s="4"/>
     </row>
     <row r="735">
-      <c r="C735" s="5"/>
+      <c r="C735" s="4"/>
     </row>
     <row r="736">
-      <c r="C736" s="5"/>
+      <c r="C736" s="4"/>
     </row>
     <row r="737">
-      <c r="C737" s="5"/>
+      <c r="C737" s="4"/>
     </row>
     <row r="738">
-      <c r="C738" s="5"/>
+      <c r="C738" s="4"/>
     </row>
     <row r="739">
-      <c r="C739" s="5"/>
+      <c r="C739" s="4"/>
     </row>
     <row r="740">
-      <c r="C740" s="5"/>
+      <c r="C740" s="4"/>
     </row>
     <row r="741">
-      <c r="C741" s="5"/>
+      <c r="C741" s="4"/>
     </row>
     <row r="742">
-      <c r="C742" s="5"/>
+      <c r="C742" s="4"/>
     </row>
     <row r="743">
-      <c r="C743" s="5"/>
+      <c r="C743" s="4"/>
     </row>
     <row r="744">
-      <c r="C744" s="5"/>
+      <c r="C744" s="4"/>
     </row>
     <row r="745">
-      <c r="C745" s="5"/>
+      <c r="C745" s="4"/>
     </row>
     <row r="746">
-      <c r="C746" s="5"/>
+      <c r="C746" s="4"/>
     </row>
     <row r="747">
-      <c r="C747" s="5"/>
+      <c r="C747" s="4"/>
     </row>
     <row r="748">
-      <c r="C748" s="5"/>
+      <c r="C748" s="4"/>
     </row>
     <row r="749">
-      <c r="C749" s="5"/>
+      <c r="C749" s="4"/>
     </row>
     <row r="750">
-      <c r="C750" s="5"/>
+      <c r="C750" s="4"/>
     </row>
     <row r="751">
-      <c r="C751" s="5"/>
+      <c r="C751" s="4"/>
     </row>
     <row r="752">
-      <c r="C752" s="5"/>
+      <c r="C752" s="4"/>
     </row>
     <row r="753">
-      <c r="C753" s="5"/>
+      <c r="C753" s="4"/>
     </row>
     <row r="754">
-      <c r="C754" s="5"/>
+      <c r="C754" s="4"/>
     </row>
     <row r="755">
-      <c r="C755" s="5"/>
+      <c r="C755" s="4"/>
     </row>
     <row r="756">
-      <c r="C756" s="5"/>
+      <c r="C756" s="4"/>
     </row>
     <row r="757">
-      <c r="C757" s="5"/>
+      <c r="C757" s="4"/>
     </row>
     <row r="758">
-      <c r="C758" s="5"/>
+      <c r="C758" s="4"/>
     </row>
     <row r="759">
-      <c r="C759" s="5"/>
+      <c r="C759" s="4"/>
     </row>
     <row r="760">
-      <c r="C760" s="5"/>
+      <c r="C760" s="4"/>
     </row>
     <row r="761">
-      <c r="C761" s="5"/>
+      <c r="C761" s="4"/>
     </row>
     <row r="762">
-      <c r="C762" s="5"/>
+      <c r="C762" s="4"/>
     </row>
     <row r="763">
-      <c r="C763" s="5"/>
+      <c r="C763" s="4"/>
     </row>
     <row r="764">
-      <c r="C764" s="5"/>
+      <c r="C764" s="4"/>
     </row>
     <row r="765">
-      <c r="C765" s="5"/>
+      <c r="C765" s="4"/>
     </row>
     <row r="766">
-      <c r="C766" s="5"/>
+      <c r="C766" s="4"/>
     </row>
     <row r="767">
-      <c r="C767" s="5"/>
+      <c r="C767" s="4"/>
     </row>
     <row r="768">
-      <c r="C768" s="5"/>
+      <c r="C768" s="4"/>
     </row>
     <row r="769">
-      <c r="C769" s="5"/>
+      <c r="C769" s="4"/>
     </row>
     <row r="770">
-      <c r="C770" s="5"/>
+      <c r="C770" s="4"/>
     </row>
     <row r="771">
-      <c r="C771" s="5"/>
+      <c r="C771" s="4"/>
     </row>
     <row r="772">
-      <c r="C772" s="5"/>
+      <c r="C772" s="4"/>
     </row>
     <row r="773">
-      <c r="C773" s="5"/>
+      <c r="C773" s="4"/>
     </row>
     <row r="774">
-      <c r="C774" s="5"/>
+      <c r="C774" s="4"/>
     </row>
     <row r="775">
-      <c r="C775" s="5"/>
+      <c r="C775" s="4"/>
     </row>
     <row r="776">
-      <c r="C776" s="5"/>
+      <c r="C776" s="4"/>
     </row>
     <row r="777">
-      <c r="C777" s="5"/>
+      <c r="C777" s="4"/>
     </row>
     <row r="778">
-      <c r="C778" s="5"/>
+      <c r="C778" s="4"/>
     </row>
     <row r="779">
-      <c r="C779" s="5"/>
+      <c r="C779" s="4"/>
     </row>
     <row r="780">
-      <c r="C780" s="5"/>
+      <c r="C780" s="4"/>
     </row>
     <row r="781">
-      <c r="C781" s="5"/>
+      <c r="C781" s="4"/>
     </row>
     <row r="782">
-      <c r="C782" s="5"/>
+      <c r="C782" s="4"/>
     </row>
     <row r="783">
-      <c r="C783" s="5"/>
+      <c r="C783" s="4"/>
     </row>
     <row r="784">
-      <c r="C784" s="5"/>
+      <c r="C784" s="4"/>
     </row>
     <row r="785">
-      <c r="C785" s="5"/>
+      <c r="C785" s="4"/>
     </row>
     <row r="786">
-      <c r="C786" s="5"/>
+      <c r="C786" s="4"/>
     </row>
     <row r="787">
-      <c r="C787" s="5"/>
+      <c r="C787" s="4"/>
     </row>
     <row r="788">
-      <c r="C788" s="5"/>
+      <c r="C788" s="4"/>
     </row>
     <row r="789">
-      <c r="C789" s="5"/>
+      <c r="C789" s="4"/>
     </row>
     <row r="790">
-      <c r="C790" s="5"/>
+      <c r="C790" s="4"/>
     </row>
     <row r="791">
-      <c r="C791" s="5"/>
+      <c r="C791" s="4"/>
     </row>
     <row r="792">
-      <c r="C792" s="5"/>
+      <c r="C792" s="4"/>
     </row>
     <row r="793">
-      <c r="C793" s="5"/>
+      <c r="C793" s="4"/>
     </row>
     <row r="794">
-      <c r="C794" s="5"/>
+      <c r="C794" s="4"/>
     </row>
     <row r="795">
-      <c r="C795" s="5"/>
+      <c r="C795" s="4"/>
     </row>
     <row r="796">
-      <c r="C796" s="5"/>
+      <c r="C796" s="4"/>
     </row>
     <row r="797">
-      <c r="C797" s="5"/>
+      <c r="C797" s="4"/>
     </row>
     <row r="798">
-      <c r="C798" s="5"/>
+      <c r="C798" s="4"/>
     </row>
     <row r="799">
-      <c r="C799" s="5"/>
+      <c r="C799" s="4"/>
     </row>
     <row r="800">
-      <c r="C800" s="5"/>
+      <c r="C800" s="4"/>
     </row>
     <row r="801">
-      <c r="C801" s="5"/>
+      <c r="C801" s="4"/>
     </row>
     <row r="802">
-      <c r="C802" s="5"/>
+      <c r="C802" s="4"/>
     </row>
     <row r="803">
-      <c r="C803" s="5"/>
+      <c r="C803" s="4"/>
     </row>
     <row r="804">
-      <c r="C804" s="5"/>
+      <c r="C804" s="4"/>
     </row>
     <row r="805">
-      <c r="C805" s="5"/>
+      <c r="C805" s="4"/>
     </row>
     <row r="806">
-      <c r="C806" s="5"/>
+      <c r="C806" s="4"/>
     </row>
     <row r="807">
-      <c r="C807" s="5"/>
+      <c r="C807" s="4"/>
     </row>
     <row r="808">
-      <c r="C808" s="5"/>
+      <c r="C808" s="4"/>
     </row>
     <row r="809">
-      <c r="C809" s="5"/>
+      <c r="C809" s="4"/>
     </row>
     <row r="810">
-      <c r="C810" s="5"/>
+      <c r="C810" s="4"/>
     </row>
     <row r="811">
-      <c r="C811" s="5"/>
+      <c r="C811" s="4"/>
     </row>
     <row r="812">
-      <c r="C812" s="5"/>
+      <c r="C812" s="4"/>
     </row>
     <row r="813">
-      <c r="C813" s="5"/>
+      <c r="C813" s="4"/>
     </row>
     <row r="814">
-      <c r="C814" s="5"/>
+      <c r="C814" s="4"/>
     </row>
     <row r="815">
-      <c r="C815" s="5"/>
+      <c r="C815" s="4"/>
     </row>
     <row r="816">
-      <c r="C816" s="5"/>
+      <c r="C816" s="4"/>
     </row>
     <row r="817">
-      <c r="C817" s="5"/>
+      <c r="C817" s="4"/>
     </row>
     <row r="818">
-      <c r="C818" s="5"/>
+      <c r="C818" s="4"/>
     </row>
     <row r="819">
-      <c r="C819" s="5"/>
+      <c r="C819" s="4"/>
     </row>
     <row r="820">
-      <c r="C820" s="5"/>
+      <c r="C820" s="4"/>
     </row>
     <row r="821">
-      <c r="C821" s="5"/>
+      <c r="C821" s="4"/>
     </row>
     <row r="822">
-      <c r="C822" s="5"/>
+      <c r="C822" s="4"/>
     </row>
     <row r="823">
-      <c r="C823" s="5"/>
+      <c r="C823" s="4"/>
     </row>
     <row r="824">
-      <c r="C824" s="5"/>
+      <c r="C824" s="4"/>
     </row>
     <row r="825">
-      <c r="C825" s="5"/>
+      <c r="C825" s="4"/>
     </row>
     <row r="826">
-      <c r="C826" s="5"/>
+      <c r="C826" s="4"/>
     </row>
     <row r="827">
-      <c r="C827" s="5"/>
+      <c r="C827" s="4"/>
     </row>
     <row r="828">
-      <c r="C828" s="5"/>
+      <c r="C828" s="4"/>
     </row>
     <row r="829">
-      <c r="C829" s="5"/>
+      <c r="C829" s="4"/>
     </row>
     <row r="830">
-      <c r="C830" s="5"/>
+      <c r="C830" s="4"/>
     </row>
     <row r="831">
-      <c r="C831" s="5"/>
+      <c r="C831" s="4"/>
     </row>
     <row r="832">
-      <c r="C832" s="5"/>
+      <c r="C832" s="4"/>
     </row>
     <row r="833">
-      <c r="C833" s="5"/>
+      <c r="C833" s="4"/>
     </row>
     <row r="834">
-      <c r="C834" s="5"/>
+      <c r="C834" s="4"/>
     </row>
     <row r="835">
-      <c r="C835" s="5"/>
+      <c r="C835" s="4"/>
     </row>
     <row r="836">
-      <c r="C836" s="5"/>
+      <c r="C836" s="4"/>
     </row>
     <row r="837">
-      <c r="C837" s="5"/>
+      <c r="C837" s="4"/>
     </row>
     <row r="838">
-      <c r="C838" s="5"/>
+      <c r="C838" s="4"/>
     </row>
     <row r="839">
-      <c r="C839" s="5"/>
+      <c r="C839" s="4"/>
     </row>
     <row r="840">
-      <c r="C840" s="5"/>
+      <c r="C840" s="4"/>
     </row>
     <row r="841">
-      <c r="C841" s="5"/>
+      <c r="C841" s="4"/>
     </row>
     <row r="842">
-      <c r="C842" s="5"/>
+      <c r="C842" s="4"/>
     </row>
     <row r="843">
-      <c r="C843" s="5"/>
+      <c r="C843" s="4"/>
     </row>
     <row r="844">
-      <c r="C844" s="5"/>
+      <c r="C844" s="4"/>
     </row>
     <row r="845">
-      <c r="C845" s="5"/>
+      <c r="C845" s="4"/>
     </row>
     <row r="846">
-      <c r="C846" s="5"/>
+      <c r="C846" s="4"/>
     </row>
     <row r="847">
-      <c r="C847" s="5"/>
+      <c r="C847" s="4"/>
     </row>
     <row r="848">
-      <c r="C848" s="5"/>
+      <c r="C848" s="4"/>
     </row>
     <row r="849">
-      <c r="C849" s="5"/>
+      <c r="C849" s="4"/>
     </row>
     <row r="850">
-      <c r="C850" s="5"/>
+      <c r="C850" s="4"/>
     </row>
     <row r="851">
-      <c r="C851" s="5"/>
+      <c r="C851" s="4"/>
     </row>
     <row r="852">
-      <c r="C852" s="5"/>
+      <c r="C852" s="4"/>
     </row>
     <row r="853">
-      <c r="C853" s="5"/>
+      <c r="C853" s="4"/>
     </row>
     <row r="854">
-      <c r="C854" s="5"/>
+      <c r="C854" s="4"/>
     </row>
     <row r="855">
-      <c r="C855" s="5"/>
+      <c r="C855" s="4"/>
     </row>
     <row r="856">
-      <c r="C856" s="5"/>
+      <c r="C856" s="4"/>
     </row>
     <row r="857">
-      <c r="C857" s="5"/>
+      <c r="C857" s="4"/>
     </row>
     <row r="858">
-      <c r="C858" s="5"/>
+      <c r="C858" s="4"/>
     </row>
     <row r="859">
-      <c r="C859" s="5"/>
+      <c r="C859" s="4"/>
     </row>
     <row r="860">
-      <c r="C860" s="5"/>
+      <c r="C860" s="4"/>
     </row>
     <row r="861">
-      <c r="C861" s="5"/>
+      <c r="C861" s="4"/>
     </row>
     <row r="862">
-      <c r="C862" s="5"/>
+      <c r="C862" s="4"/>
     </row>
     <row r="863">
-      <c r="C863" s="5"/>
+      <c r="C863" s="4"/>
     </row>
     <row r="864">
-      <c r="C864" s="5"/>
+      <c r="C864" s="4"/>
     </row>
     <row r="865">
-      <c r="C865" s="5"/>
+      <c r="C865" s="4"/>
     </row>
     <row r="866">
-      <c r="C866" s="5"/>
+      <c r="C866" s="4"/>
     </row>
     <row r="867">
-      <c r="C867" s="5"/>
+      <c r="C867" s="4"/>
     </row>
     <row r="868">
-      <c r="C868" s="5"/>
+      <c r="C868" s="4"/>
     </row>
     <row r="869">
-      <c r="C869" s="5"/>
+      <c r="C869" s="4"/>
     </row>
     <row r="870">
-      <c r="C870" s="5"/>
+      <c r="C870" s="4"/>
     </row>
     <row r="871">
-      <c r="C871" s="5"/>
+      <c r="C871" s="4"/>
     </row>
     <row r="872">
-      <c r="C872" s="5"/>
+      <c r="C872" s="4"/>
     </row>
     <row r="873">
-      <c r="C873" s="5"/>
+      <c r="C873" s="4"/>
     </row>
     <row r="874">
-      <c r="C874" s="5"/>
+      <c r="C874" s="4"/>
     </row>
     <row r="875">
-      <c r="C875" s="5"/>
+      <c r="C875" s="4"/>
     </row>
     <row r="876">
-      <c r="C876" s="5"/>
+      <c r="C876" s="4"/>
     </row>
     <row r="877">
-      <c r="C877" s="5"/>
+      <c r="C877" s="4"/>
     </row>
     <row r="878">
-      <c r="C878" s="5"/>
+      <c r="C878" s="4"/>
     </row>
     <row r="879">
-      <c r="C879" s="5"/>
+      <c r="C879" s="4"/>
     </row>
     <row r="880">
-      <c r="C880" s="5"/>
+      <c r="C880" s="4"/>
     </row>
     <row r="881">
-      <c r="C881" s="5"/>
+      <c r="C881" s="4"/>
     </row>
     <row r="882">
-      <c r="C882" s="5"/>
+      <c r="C882" s="4"/>
     </row>
     <row r="883">
-      <c r="C883" s="5"/>
+      <c r="C883" s="4"/>
     </row>
     <row r="884">
-      <c r="C884" s="5"/>
+      <c r="C884" s="4"/>
     </row>
     <row r="885">
-      <c r="C885" s="5"/>
+      <c r="C885" s="4"/>
     </row>
     <row r="886">
-      <c r="C886" s="5"/>
+      <c r="C886" s="4"/>
     </row>
     <row r="887">
-      <c r="C887" s="5"/>
+      <c r="C887" s="4"/>
     </row>
     <row r="888">
-      <c r="C888" s="5"/>
+      <c r="C888" s="4"/>
     </row>
     <row r="889">
-      <c r="C889" s="5"/>
+      <c r="C889" s="4"/>
     </row>
     <row r="890">
-      <c r="C890" s="5"/>
+      <c r="C890" s="4"/>
     </row>
     <row r="891">
-      <c r="C891" s="5"/>
+      <c r="C891" s="4"/>
     </row>
     <row r="892">
-      <c r="C892" s="5"/>
+      <c r="C892" s="4"/>
     </row>
     <row r="893">
-      <c r="C893" s="5"/>
+      <c r="C893" s="4"/>
     </row>
     <row r="894">
-      <c r="C894" s="5"/>
+      <c r="C894" s="4"/>
     </row>
     <row r="895">
-      <c r="C895" s="5"/>
+      <c r="C895" s="4"/>
     </row>
     <row r="896">
-      <c r="C896" s="5"/>
+      <c r="C896" s="4"/>
     </row>
     <row r="897">
-      <c r="C897" s="5"/>
+      <c r="C897" s="4"/>
     </row>
     <row r="898">
-      <c r="C898" s="5"/>
+      <c r="C898" s="4"/>
     </row>
     <row r="899">
-      <c r="C899" s="5"/>
+      <c r="C899" s="4"/>
     </row>
     <row r="900">
-      <c r="C900" s="5"/>
+      <c r="C900" s="4"/>
     </row>
     <row r="901">
-      <c r="C901" s="5"/>
+      <c r="C901" s="4"/>
     </row>
     <row r="902">
-      <c r="C902" s="5"/>
+      <c r="C902" s="4"/>
     </row>
     <row r="903">
-      <c r="C903" s="5"/>
+      <c r="C903" s="4"/>
     </row>
     <row r="904">
-      <c r="C904" s="5"/>
+      <c r="C904" s="4"/>
     </row>
     <row r="905">
-      <c r="C905" s="5"/>
+      <c r="C905" s="4"/>
     </row>
     <row r="906">
-      <c r="C906" s="5"/>
+      <c r="C906" s="4"/>
     </row>
     <row r="907">
-      <c r="C907" s="5"/>
+      <c r="C907" s="4"/>
     </row>
     <row r="908">
-      <c r="C908" s="5"/>
+      <c r="C908" s="4"/>
     </row>
     <row r="909">
-      <c r="C909" s="5"/>
+      <c r="C909" s="4"/>
     </row>
     <row r="910">
-      <c r="C910" s="5"/>
+      <c r="C910" s="4"/>
     </row>
     <row r="911">
-      <c r="C911" s="5"/>
+      <c r="C911" s="4"/>
     </row>
     <row r="912">
-      <c r="C912" s="5"/>
+      <c r="C912" s="4"/>
     </row>
     <row r="913">
-      <c r="C913" s="5"/>
+      <c r="C913" s="4"/>
     </row>
     <row r="914">
-      <c r="C914" s="5"/>
+      <c r="C914" s="4"/>
     </row>
     <row r="915">
-      <c r="C915" s="5"/>
+      <c r="C915" s="4"/>
     </row>
     <row r="916">
-      <c r="C916" s="5"/>
+      <c r="C916" s="4"/>
     </row>
     <row r="917">
-      <c r="C917" s="5"/>
+      <c r="C917" s="4"/>
     </row>
     <row r="918">
-      <c r="C918" s="5"/>
+      <c r="C918" s="4"/>
     </row>
     <row r="919">
-      <c r="C919" s="5"/>
+      <c r="C919" s="4"/>
     </row>
     <row r="920">
-      <c r="C920" s="5"/>
+      <c r="C920" s="4"/>
     </row>
     <row r="921">
-      <c r="C921" s="5"/>
+      <c r="C921" s="4"/>
     </row>
     <row r="922">
-      <c r="C922" s="5"/>
+      <c r="C922" s="4"/>
     </row>
     <row r="923">
-      <c r="C923" s="5"/>
+      <c r="C923" s="4"/>
     </row>
     <row r="924">
-      <c r="C924" s="5"/>
+      <c r="C924" s="4"/>
     </row>
     <row r="925">
-      <c r="C925" s="5"/>
+      <c r="C925" s="4"/>
     </row>
     <row r="926">
-      <c r="C926" s="5"/>
+      <c r="C926" s="4"/>
     </row>
     <row r="927">
-      <c r="C927" s="5"/>
+      <c r="C927" s="4"/>
     </row>
     <row r="928">
-      <c r="C928" s="5"/>
+      <c r="C928" s="4"/>
     </row>
     <row r="929">
-      <c r="C929" s="5"/>
+      <c r="C929" s="4"/>
     </row>
     <row r="930">
-      <c r="C930" s="5"/>
+      <c r="C930" s="4"/>
     </row>
     <row r="931">
-      <c r="C931" s="5"/>
+      <c r="C931" s="4"/>
     </row>
     <row r="932">
-      <c r="C932" s="5"/>
+      <c r="C932" s="4"/>
     </row>
     <row r="933">
-      <c r="C933" s="5"/>
+      <c r="C933" s="4"/>
     </row>
     <row r="934">
-      <c r="C934" s="5"/>
+      <c r="C934" s="4"/>
     </row>
     <row r="935">
-      <c r="C935" s="5"/>
+      <c r="C935" s="4"/>
     </row>
     <row r="936">
-      <c r="C936" s="5"/>
+      <c r="C936" s="4"/>
     </row>
     <row r="937">
-      <c r="C937" s="5"/>
+      <c r="C937" s="4"/>
     </row>
     <row r="938">
-      <c r="C938" s="5"/>
+      <c r="C938" s="4"/>
     </row>
     <row r="939">
-      <c r="C939" s="5"/>
+      <c r="C939" s="4"/>
     </row>
     <row r="940">
-      <c r="C940" s="5"/>
+      <c r="C940" s="4"/>
     </row>
     <row r="941">
-      <c r="C941" s="5"/>
+      <c r="C941" s="4"/>
     </row>
     <row r="942">
-      <c r="C942" s="5"/>
+      <c r="C942" s="4"/>
     </row>
     <row r="943">
-      <c r="C943" s="5"/>
+      <c r="C943" s="4"/>
     </row>
     <row r="944">
-      <c r="C944" s="5"/>
+      <c r="C944" s="4"/>
     </row>
     <row r="945">
-      <c r="C945" s="5"/>
+      <c r="C945" s="4"/>
     </row>
     <row r="946">
-      <c r="C946" s="5"/>
+      <c r="C946" s="4"/>
     </row>
     <row r="947">
-      <c r="C947" s="5"/>
+      <c r="C947" s="4"/>
     </row>
     <row r="948">
-      <c r="C948" s="5"/>
+      <c r="C948" s="4"/>
     </row>
     <row r="949">
-      <c r="C949" s="5"/>
+      <c r="C949" s="4"/>
     </row>
     <row r="950">
-      <c r="C950" s="5"/>
+      <c r="C950" s="4"/>
     </row>
     <row r="951">
-      <c r="C951" s="5"/>
+      <c r="C951" s="4"/>
     </row>
     <row r="952">
-      <c r="C952" s="5"/>
+      <c r="C952" s="4"/>
     </row>
     <row r="953">
-      <c r="C953" s="5"/>
+      <c r="C953" s="4"/>
     </row>
     <row r="954">
-      <c r="C954" s="5"/>
+      <c r="C954" s="4"/>
     </row>
     <row r="955">
-      <c r="C955" s="5"/>
+      <c r="C955" s="4"/>
     </row>
     <row r="956">
-      <c r="C956" s="5"/>
+      <c r="C956" s="4"/>
     </row>
     <row r="957">
-      <c r="C957" s="5"/>
+      <c r="C957" s="4"/>
     </row>
     <row r="958">
-      <c r="C958" s="5"/>
+      <c r="C958" s="4"/>
     </row>
     <row r="959">
-      <c r="C959" s="5"/>
+      <c r="C959" s="4"/>
     </row>
     <row r="960">
-      <c r="C960" s="5"/>
+      <c r="C960" s="4"/>
     </row>
     <row r="961">
-      <c r="C961" s="5"/>
+      <c r="C961" s="4"/>
     </row>
     <row r="962">
-      <c r="C962" s="5"/>
+      <c r="C962" s="4"/>
     </row>
     <row r="963">
-      <c r="C963" s="5"/>
+      <c r="C963" s="4"/>
     </row>
     <row r="964">
-      <c r="C964" s="5"/>
+      <c r="C964" s="4"/>
     </row>
     <row r="965">
-      <c r="C965" s="5"/>
+      <c r="C965" s="4"/>
     </row>
     <row r="966">
-      <c r="C966" s="5"/>
+      <c r="C966" s="4"/>
     </row>
     <row r="967">
-      <c r="C967" s="5"/>
+      <c r="C967" s="4"/>
     </row>
     <row r="968">
-      <c r="C968" s="5"/>
+      <c r="C968" s="4"/>
     </row>
     <row r="969">
-      <c r="C969" s="5"/>
+      <c r="C969" s="4"/>
     </row>
     <row r="970">
-      <c r="C970" s="5"/>
+      <c r="C970" s="4"/>
     </row>
     <row r="971">
-      <c r="C971" s="5"/>
+      <c r="C971" s="4"/>
     </row>
     <row r="972">
-      <c r="C972" s="5"/>
+      <c r="C972" s="4"/>
     </row>
     <row r="973">
-      <c r="C973" s="5"/>
+      <c r="C973" s="4"/>
     </row>
     <row r="974">
-      <c r="C974" s="5"/>
+      <c r="C974" s="4"/>
     </row>
     <row r="975">
-      <c r="C975" s="5"/>
+      <c r="C975" s="4"/>
     </row>
     <row r="976">
-      <c r="C976" s="5"/>
+      <c r="C976" s="4"/>
     </row>
     <row r="977">
-      <c r="C977" s="5"/>
+      <c r="C977" s="4"/>
     </row>
     <row r="978">
-      <c r="C978" s="5"/>
+      <c r="C978" s="4"/>
     </row>
     <row r="979">
-      <c r="C979" s="5"/>
+      <c r="C979" s="4"/>
     </row>
     <row r="980">
-      <c r="C980" s="5"/>
+      <c r="C980" s="4"/>
     </row>
     <row r="981">
-      <c r="C981" s="5"/>
+      <c r="C981" s="4"/>
     </row>
     <row r="982">
-      <c r="C982" s="5"/>
+      <c r="C982" s="4"/>
     </row>
     <row r="983">
-      <c r="C983" s="5"/>
+      <c r="C983" s="4"/>
     </row>
     <row r="984">
-      <c r="C984" s="5"/>
+      <c r="C984" s="4"/>
     </row>
     <row r="985">
-      <c r="C985" s="5"/>
+      <c r="C985" s="4"/>
     </row>
     <row r="986">
-      <c r="C986" s="5"/>
+      <c r="C986" s="4"/>
     </row>
     <row r="987">
-      <c r="C987" s="5"/>
+      <c r="C987" s="4"/>
     </row>
     <row r="988">
-      <c r="C988" s="5"/>
+      <c r="C988" s="4"/>
     </row>
     <row r="989">
-      <c r="C989" s="5"/>
+      <c r="C989" s="4"/>
     </row>
     <row r="990">
-      <c r="C990" s="5"/>
+      <c r="C990" s="4"/>
     </row>
     <row r="991">
-      <c r="C991" s="5"/>
+      <c r="C991" s="4"/>
     </row>
     <row r="992">
-      <c r="C992" s="5"/>
+      <c r="C992" s="4"/>
     </row>
     <row r="993">
-      <c r="C993" s="5"/>
+      <c r="C993" s="4"/>
     </row>
     <row r="994">
-      <c r="C994" s="5"/>
+      <c r="C994" s="4"/>
     </row>
     <row r="995">
-      <c r="C995" s="5"/>
+      <c r="C995" s="4"/>
     </row>
     <row r="996">
-      <c r="C996" s="5"/>
+      <c r="C996" s="4"/>
     </row>
     <row r="997">
-      <c r="C997" s="5"/>
+      <c r="C997" s="4"/>
     </row>
     <row r="998">
-      <c r="C998" s="5"/>
+      <c r="C998" s="4"/>
     </row>
     <row r="999">
-      <c r="C999" s="5"/>
+      <c r="C999" s="4"/>
     </row>
     <row r="1000">
-      <c r="C1000" s="5"/>
+      <c r="C1000" s="4"/>
     </row>
     <row r="1001">
-      <c r="C1001" s="5"/>
+      <c r="C1001" s="4"/>
     </row>
     <row r="1002">
-      <c r="C1002" s="5"/>
+      <c r="C1002" s="4"/>
     </row>
     <row r="1003">
-      <c r="C1003" s="5"/>
+      <c r="C1003" s="4"/>
     </row>
     <row r="1004">
-      <c r="C1004" s="5"/>
+      <c r="C1004" s="4"/>
     </row>
     <row r="1005">
-      <c r="C1005" s="5"/>
+      <c r="C1005" s="4"/>
     </row>
     <row r="1006">
-      <c r="C1006" s="5"/>
+      <c r="C1006" s="4"/>
     </row>
     <row r="1007">
-      <c r="C1007" s="5"/>
+      <c r="C1007" s="4"/>
     </row>
     <row r="1008">
-      <c r="C1008" s="5"/>
+      <c r="C1008" s="4"/>
     </row>
     <row r="1009">
-      <c r="C1009" s="5"/>
+      <c r="C1009" s="4"/>
     </row>
     <row r="1010">
-      <c r="C1010" s="5"/>
+      <c r="C1010" s="4"/>
     </row>
     <row r="1011">
-      <c r="C1011" s="5"/>
+      <c r="C1011" s="4"/>
     </row>
     <row r="1012">
-      <c r="C1012" s="5"/>
+      <c r="C1012" s="4"/>
     </row>
     <row r="1013">
-      <c r="C1013" s="5"/>
+      <c r="C1013" s="4"/>
     </row>
     <row r="1014">
-      <c r="C1014" s="5"/>
+      <c r="C1014" s="4"/>
     </row>
     <row r="1015">
-      <c r="C1015" s="5"/>
+      <c r="C1015" s="4"/>
     </row>
     <row r="1016">
-      <c r="C1016" s="5"/>
+      <c r="C1016" s="4"/>
     </row>
     <row r="1017">
-      <c r="C1017" s="5"/>
+      <c r="C1017" s="4"/>
     </row>
     <row r="1018">
-      <c r="C1018" s="5"/>
+      <c r="C1018" s="4"/>
     </row>
     <row r="1019">
-      <c r="C1019" s="5"/>
+      <c r="C1019" s="4"/>
     </row>
     <row r="1020">
-      <c r="C1020" s="5"/>
+      <c r="C1020" s="4"/>
     </row>
     <row r="1021">
-      <c r="C1021" s="5"/>
+      <c r="C1021" s="4"/>
     </row>
     <row r="1022">
-      <c r="C1022" s="5"/>
+      <c r="C1022" s="4"/>
     </row>
     <row r="1023">
-      <c r="C1023" s="5"/>
+      <c r="C1023" s="4"/>
     </row>
     <row r="1024">
-      <c r="C1024" s="5"/>
+      <c r="C1024" s="4"/>
     </row>
     <row r="1025">
-      <c r="C1025" s="5"/>
+      <c r="C1025" s="4"/>
     </row>
     <row r="1026">
-      <c r="C1026" s="5"/>
+      <c r="C1026" s="4"/>
     </row>
     <row r="1027">
-      <c r="C1027" s="5"/>
+      <c r="C1027" s="4"/>
     </row>
     <row r="1028">
-      <c r="C1028" s="5"/>
+      <c r="C1028" s="4"/>
     </row>
     <row r="1029">
-      <c r="C1029" s="5"/>
+      <c r="C1029" s="4"/>
     </row>
     <row r="1030">
-      <c r="C1030" s="5"/>
+      <c r="C1030" s="4"/>
     </row>
     <row r="1031">
-      <c r="C1031" s="5"/>
+      <c r="C1031" s="4"/>
     </row>
     <row r="1032">
-      <c r="C1032" s="5"/>
+      <c r="C1032" s="4"/>
     </row>
     <row r="1033">
-      <c r="C1033" s="5"/>
+      <c r="C1033" s="4"/>
     </row>
     <row r="1034">
-      <c r="C1034" s="5"/>
+      <c r="C1034" s="4"/>
     </row>
     <row r="1035">
-      <c r="C1035" s="5"/>
+      <c r="C1035" s="4"/>
     </row>
     <row r="1036">
-      <c r="C1036" s="5"/>
+      <c r="C1036" s="4"/>
     </row>
     <row r="1037">
-      <c r="C1037" s="5"/>
+      <c r="C1037" s="4"/>
     </row>
     <row r="1038">
-      <c r="C1038" s="5"/>
+      <c r="C1038" s="4"/>
     </row>
     <row r="1039">
-      <c r="C1039" s="5"/>
+      <c r="C1039" s="4"/>
     </row>
     <row r="1040">
-      <c r="C1040" s="5"/>
+      <c r="C1040" s="4"/>
     </row>
     <row r="1041">
-      <c r="C1041" s="5"/>
+      <c r="C1041" s="4"/>
     </row>
     <row r="1042">
-      <c r="C1042" s="5"/>
+      <c r="C1042" s="4"/>
     </row>
     <row r="1043">
-      <c r="C1043" s="5"/>
+      <c r="C1043" s="4"/>
     </row>
     <row r="1044">
-      <c r="C1044" s="5"/>
+      <c r="C1044" s="4"/>
     </row>
     <row r="1045">
-      <c r="C1045" s="5"/>
+      <c r="C1045" s="4"/>
     </row>
     <row r="1046">
-      <c r="C1046" s="5"/>
+      <c r="C1046" s="4"/>
     </row>
     <row r="1047">
-      <c r="C1047" s="5"/>
+      <c r="C1047" s="4"/>
     </row>
     <row r="1048">
-      <c r="C1048" s="5"/>
+      <c r="C1048" s="4"/>
     </row>
     <row r="1049">
-      <c r="C1049" s="5"/>
+      <c r="C1049" s="4"/>
     </row>
     <row r="1050">
-      <c r="C1050" s="5"/>
+      <c r="C1050" s="4"/>
     </row>
     <row r="1051">
-      <c r="C1051" s="5"/>
+      <c r="C1051" s="4"/>
     </row>
     <row r="1052">
-      <c r="C1052" s="5"/>
+      <c r="C1052" s="4"/>
     </row>
     <row r="1053">
-      <c r="C1053" s="5"/>
+      <c r="C1053" s="4"/>
     </row>
     <row r="1054">
-      <c r="C1054" s="5"/>
+      <c r="C1054" s="4"/>
     </row>
     <row r="1055">
-      <c r="C1055" s="5"/>
+      <c r="C1055" s="4"/>
     </row>
     <row r="1056">
-      <c r="C1056" s="5"/>
+      <c r="C1056" s="4"/>
     </row>
     <row r="1057">
-      <c r="C1057" s="5"/>
+      <c r="C1057" s="4"/>
     </row>
     <row r="1058">
-      <c r="C1058" s="5"/>
+      <c r="C1058" s="4"/>
     </row>
     <row r="1059">
-      <c r="C1059" s="5"/>
+      <c r="C1059" s="4"/>
     </row>
     <row r="1060">
-      <c r="C1060" s="5"/>
+      <c r="C1060" s="4"/>
     </row>
     <row r="1061">
-      <c r="C1061" s="5"/>
+      <c r="C1061" s="4"/>
     </row>
     <row r="1062">
-      <c r="C1062" s="5"/>
+      <c r="C1062" s="4"/>
     </row>
     <row r="1063">
-      <c r="C1063" s="5"/>
+      <c r="C1063" s="4"/>
     </row>
     <row r="1064">
-      <c r="C1064" s="5"/>
+      <c r="C1064" s="4"/>
     </row>
     <row r="1065">
-      <c r="C1065" s="5"/>
+      <c r="C1065" s="4"/>
     </row>
     <row r="1066">
-      <c r="C1066" s="5"/>
+      <c r="C1066" s="4"/>
     </row>
     <row r="1067">
-      <c r="C1067" s="5"/>
+      <c r="C1067" s="4"/>
     </row>
     <row r="1068">
-      <c r="C1068" s="5"/>
+      <c r="C1068" s="4"/>
     </row>
     <row r="1069">
-      <c r="C1069" s="5"/>
+      <c r="C1069" s="4"/>
     </row>
     <row r="1070">
-      <c r="C1070" s="5"/>
+      <c r="C1070" s="4"/>
     </row>
     <row r="1071">
-      <c r="C1071" s="5"/>
+      <c r="C1071" s="4"/>
     </row>
     <row r="1072">
-      <c r="C1072" s="5"/>
+      <c r="C1072" s="4"/>
     </row>
     <row r="1073">
-      <c r="C1073" s="5"/>
+      <c r="C1073" s="4"/>
     </row>
     <row r="1074">
-      <c r="C1074" s="5"/>
+      <c r="C1074" s="4"/>
     </row>
     <row r="1075">
-      <c r="C1075" s="5"/>
+      <c r="C1075" s="4"/>
     </row>
     <row r="1076">
-      <c r="C1076" s="5"/>
+      <c r="C1076" s="4"/>
     </row>
     <row r="1077">
-      <c r="C1077" s="5"/>
+      <c r="C1077" s="4"/>
     </row>
     <row r="1078">
-      <c r="C1078" s="5"/>
+      <c r="C1078" s="4"/>
     </row>
     <row r="1079">
-      <c r="C1079" s="5"/>
+      <c r="C1079" s="4"/>
     </row>
     <row r="1080">
-      <c r="C1080" s="5"/>
+      <c r="C1080" s="4"/>
     </row>
     <row r="1081">
-      <c r="C1081" s="5"/>
+      <c r="C1081" s="4"/>
     </row>
     <row r="1082">
-      <c r="C1082" s="5"/>
+      <c r="C1082" s="4"/>
     </row>
     <row r="1083">
-      <c r="C1083" s="5"/>
+      <c r="C1083" s="4"/>
     </row>
     <row r="1084">
-      <c r="C1084" s="5"/>
+      <c r="C1084" s="4"/>
     </row>
     <row r="1085">
-      <c r="C1085" s="5"/>
+      <c r="C1085" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5841,57 +6250,1464 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="24.43"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="14" t="s">
+        <v>294</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="14" t="s">
+        <v>306</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="14" t="s">
+        <v>314</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="14" t="s">
+        <v>319</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>320</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>322</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="14" t="s">
+        <v>327</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>328</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>330</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>332</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="14" t="s">
+        <v>337</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>345</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="14" t="s">
+        <v>354</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>355</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="14" t="s">
+        <v>356</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>357</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="14" t="s">
+        <v>358</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="14" t="s">
+        <v>364</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="14" t="s">
+        <v>367</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>368</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>370</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="14" t="s">
+        <v>371</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="14" t="s">
+        <v>373</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="14" t="s">
+        <v>376</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>381</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5930,31 +7746,31 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5993,31 +7809,31 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6053,32 +7869,32 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/SQ1 Leaderboard-Points.xlsx
+++ b/SQ1 Leaderboard-Points.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="399">
   <si>
     <t>Name</t>
   </si>
@@ -1194,13 +1194,31 @@
   </si>
   <si>
     <t>201it258</t>
+  </si>
+  <si>
+    <t>Shreeranjita Kowshik</t>
+  </si>
+  <si>
+    <t>Aditya Agrawal</t>
+  </si>
+  <si>
+    <t>201EC103</t>
+  </si>
+  <si>
+    <t>Kuldeep Patidar</t>
+  </si>
+  <si>
+    <t>201IT232</t>
+  </si>
+  <si>
+    <t>LAVANYA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1221,14 +1239,18 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
+      <name val="Arial"/>
     </font>
     <font>
+      <color rgb="FF34A853"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FF34A853"/>
     </font>
     <font/>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1253,6 +1275,18 @@
         <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -1260,7 +1294,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1296,14 +1330,34 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6261,1470 +6315,6 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>266</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>268</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>270</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="14" t="s">
-        <v>276</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="14" t="s">
-        <v>277</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>278</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="14" t="s">
-        <v>279</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>256</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="14" t="s">
-        <v>280</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="14" t="s">
-        <v>283</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="14" t="s">
-        <v>286</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>289</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>291</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="14" t="s">
-        <v>294</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>295</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="14" t="s">
-        <v>296</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="14" t="s">
-        <v>308</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>309</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="14" t="s">
-        <v>310</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="14" t="s">
-        <v>312</v>
-      </c>
-      <c r="B38" s="14" t="s">
-        <v>313</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F38" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="14" t="s">
-        <v>314</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>315</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F40" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="14" t="s">
-        <v>316</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>318</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="14" t="s">
-        <v>319</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>320</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F44" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="14" t="s">
-        <v>321</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>322</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="14" t="s">
-        <v>325</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>326</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="14" t="s">
-        <v>327</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>328</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>330</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>332</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>334</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>336</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="14" t="s">
-        <v>337</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>338</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F53" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F54" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B55" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F55" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="14" t="s">
-        <v>342</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>343</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F60" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="14" t="s">
-        <v>344</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F61" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F62" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="14" t="s">
-        <v>348</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F65" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="F66" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="F67" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="F68" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="F69" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F70" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B71" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="F71" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="F72" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="B73" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="F73" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F74" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="B76" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="F76" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="F77" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="F78" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="F79" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="B81" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="F81" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="F82" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F83" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="F84" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="F85" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="F86" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="F87" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="F88" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="F89" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="F90" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="F91" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="F92" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="F93" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="F94" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7771,6 +6361,1694 @@
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="22.71"/>
+    <col customWidth="1" min="2" max="2" width="18.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="J4" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B15" s="21">
+        <v>2010121.0</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/SQ1 Leaderboard-Points.xlsx
+++ b/SQ1 Leaderboard-Points.xlsx
@@ -14,8 +14,38 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A35">
+      <text>
+        <t xml:space="preserve">Responder updated this value.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B35">
+      <text>
+        <t xml:space="preserve">Responder updated this value.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A36">
+      <text>
+        <t xml:space="preserve">Responder updated this value.</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B36">
+      <text>
+        <t xml:space="preserve">Responder updated this value.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="579">
   <si>
     <t>Name</t>
   </si>
@@ -1212,13 +1242,553 @@
   </si>
   <si>
     <t>LAVANYA</t>
+  </si>
+  <si>
+    <t>201ch046</t>
+  </si>
+  <si>
+    <t>Khushi Jain</t>
+  </si>
+  <si>
+    <t>201me127</t>
+  </si>
+  <si>
+    <t>Akshay Rajanna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pranav again </t>
+  </si>
+  <si>
+    <t>201it164</t>
+  </si>
+  <si>
+    <t>201me357</t>
+  </si>
+  <si>
+    <t>Ritika Mahapatra</t>
+  </si>
+  <si>
+    <t>201it150</t>
+  </si>
+  <si>
+    <t>Rahul Rathnakara</t>
+  </si>
+  <si>
+    <t>Somesh Sharma</t>
+  </si>
+  <si>
+    <t>201EE113</t>
+  </si>
+  <si>
+    <t>Vaibhav C D</t>
+  </si>
+  <si>
+    <t>201MN061</t>
+  </si>
+  <si>
+    <t>Rahul T Gonchikar</t>
+  </si>
+  <si>
+    <t>201IT245</t>
+  </si>
+  <si>
+    <t>Sukrit Dass T M</t>
+  </si>
+  <si>
+    <t>201MT056</t>
+  </si>
+  <si>
+    <t>Jishnu Das</t>
+  </si>
+  <si>
+    <t>201EC126</t>
+  </si>
+  <si>
+    <t>Akheel Muhammed</t>
+  </si>
+  <si>
+    <t>201IT206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aryaman </t>
+  </si>
+  <si>
+    <t>201EE212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adarsh </t>
+  </si>
+  <si>
+    <t>201EE203</t>
+  </si>
+  <si>
+    <t>kushagra</t>
+  </si>
+  <si>
+    <t>Amrit Raj Chandana</t>
+  </si>
+  <si>
+    <t>PALURI HARI SRI RAMA SAI KARTHIK</t>
+  </si>
+  <si>
+    <t>201EC142</t>
+  </si>
+  <si>
+    <t>Lavanya</t>
+  </si>
+  <si>
+    <t>201mt028</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>201mt003</t>
+  </si>
+  <si>
+    <t>Aniketh Narayan Bellala</t>
+  </si>
+  <si>
+    <t>201CS108</t>
+  </si>
+  <si>
+    <t>Bishakh Dutta</t>
+  </si>
+  <si>
+    <t>201EC111</t>
+  </si>
+  <si>
+    <t>Manu Periasamy</t>
+  </si>
+  <si>
+    <t>201EC132</t>
+  </si>
+  <si>
+    <t>SHUBHRANK MISHRA</t>
+  </si>
+  <si>
+    <t>201MN056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gurjot Singh </t>
+  </si>
+  <si>
+    <t>201MN023</t>
+  </si>
+  <si>
+    <t>Ananya K</t>
+  </si>
+  <si>
+    <t>201cv106</t>
+  </si>
+  <si>
+    <t>Mohammad Bilal</t>
+  </si>
+  <si>
+    <t>201cv232</t>
+  </si>
+  <si>
+    <t>Anagha dileep</t>
+  </si>
+  <si>
+    <t>201cv207</t>
+  </si>
+  <si>
+    <t>Annant Maheshwari</t>
+  </si>
+  <si>
+    <t>201it109</t>
+  </si>
+  <si>
+    <t>Arif Kalluru</t>
+  </si>
+  <si>
+    <t>201ee125</t>
+  </si>
+  <si>
+    <t>Samyak</t>
+  </si>
+  <si>
+    <t>201cs104</t>
+  </si>
+  <si>
+    <t>Mohhamed Ayman Nawaz</t>
+  </si>
+  <si>
+    <t>201it236</t>
+  </si>
+  <si>
+    <t>RACHEET</t>
+  </si>
+  <si>
+    <t>201EC251</t>
+  </si>
+  <si>
+    <t>PARTH MITTAL</t>
+  </si>
+  <si>
+    <t>DHARANEEDHARAN K S</t>
+  </si>
+  <si>
+    <t>201EE120</t>
+  </si>
+  <si>
+    <t>Ranjana Kambhammettu</t>
+  </si>
+  <si>
+    <t>201IT247</t>
+  </si>
+  <si>
+    <t>Mohan Nayak</t>
+  </si>
+  <si>
+    <t>201IT137</t>
+  </si>
+  <si>
+    <t>Raghavendra Ganesh Paripelli</t>
+  </si>
+  <si>
+    <t>201IT244</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amogh </t>
+  </si>
+  <si>
+    <t>201ME109</t>
+  </si>
+  <si>
+    <t>Saurabh</t>
+  </si>
+  <si>
+    <t>201ME251</t>
+  </si>
+  <si>
+    <t>ANANNYA RAO</t>
+  </si>
+  <si>
+    <t>201ME209</t>
+  </si>
+  <si>
+    <t>ARYAN SHEKA</t>
+  </si>
+  <si>
+    <t>201MN013</t>
+  </si>
+  <si>
+    <t>SWATHI RAMESH</t>
+  </si>
+  <si>
+    <t>201ME258</t>
+  </si>
+  <si>
+    <t>Prateek Niranjan</t>
+  </si>
+  <si>
+    <t>201mt039</t>
+  </si>
+  <si>
+    <t>Palgun NP</t>
+  </si>
+  <si>
+    <t>Ayush rauniyar</t>
+  </si>
+  <si>
+    <t>201ch014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aryan Amit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hamna Muslihuddeen </t>
+  </si>
+  <si>
+    <t>201ee264</t>
+  </si>
+  <si>
+    <t>201ee140</t>
+  </si>
+  <si>
+    <t>201ee263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akshita Jain </t>
+  </si>
+  <si>
+    <t>201CS255</t>
+  </si>
+  <si>
+    <t>Pooja Gayathri</t>
+  </si>
+  <si>
+    <t>201CS239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sannapareddy Varshini </t>
+  </si>
+  <si>
+    <t>201CS152</t>
+  </si>
+  <si>
+    <t>Samhita R</t>
+  </si>
+  <si>
+    <t>201ME250</t>
+  </si>
+  <si>
+    <t>Vinutha KR</t>
+  </si>
+  <si>
+    <t>201ME265</t>
+  </si>
+  <si>
+    <t>201ME259</t>
+  </si>
+  <si>
+    <t>201mn020</t>
+  </si>
+  <si>
+    <t>Ananya Chavali</t>
+  </si>
+  <si>
+    <t>201mn009</t>
+  </si>
+  <si>
+    <t>Saloni Mathur</t>
+  </si>
+  <si>
+    <t>201mn047</t>
+  </si>
+  <si>
+    <t>jharna chaudhari</t>
+  </si>
+  <si>
+    <t>201ch019</t>
+  </si>
+  <si>
+    <t>mahesh alluri</t>
+  </si>
+  <si>
+    <t>201ch030</t>
+  </si>
+  <si>
+    <t>Ankita Barman</t>
+  </si>
+  <si>
+    <t>201IT207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abhilash Bharadwaj </t>
+  </si>
+  <si>
+    <t>201ME227</t>
+  </si>
+  <si>
+    <t>Aniket Tupe</t>
+  </si>
+  <si>
+    <t>201ME160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shannon Britney Carlo </t>
+  </si>
+  <si>
+    <t>201CV249</t>
+  </si>
+  <si>
+    <t>VADLA AKSHITHA</t>
+  </si>
+  <si>
+    <t>201ME161</t>
+  </si>
+  <si>
+    <t>Saee Sholapurkar</t>
+  </si>
+  <si>
+    <t>Harshitha Killi</t>
+  </si>
+  <si>
+    <t>L.Koushik</t>
+  </si>
+  <si>
+    <t>Nikhil Mathew Sajan</t>
+  </si>
+  <si>
+    <t>201ee237</t>
+  </si>
+  <si>
+    <t>Madhan Raj R</t>
+  </si>
+  <si>
+    <t>201CH029</t>
+  </si>
+  <si>
+    <t>Akul Ashok Kumar</t>
+  </si>
+  <si>
+    <t>201CH007</t>
+  </si>
+  <si>
+    <t>Karthik P</t>
+  </si>
+  <si>
+    <t>201MT025</t>
+  </si>
+  <si>
+    <t>Ashish Bharath</t>
+  </si>
+  <si>
+    <t>201it153</t>
+  </si>
+  <si>
+    <t>201cs242</t>
+  </si>
+  <si>
+    <t>FBI open up? 201IT266</t>
+  </si>
+  <si>
+    <t>Radhika chhabra</t>
+  </si>
+  <si>
+    <t>201IT144</t>
+  </si>
+  <si>
+    <t>SHASHANK SK</t>
+  </si>
+  <si>
+    <t>201CV151</t>
+  </si>
+  <si>
+    <t>Vaidik</t>
+  </si>
+  <si>
+    <t>201MT059</t>
+  </si>
+  <si>
+    <t>Thejaswi.N</t>
+  </si>
+  <si>
+    <t>201ME159</t>
+  </si>
+  <si>
+    <t>M Sai Srinivas</t>
+  </si>
+  <si>
+    <t>201IT233</t>
+  </si>
+  <si>
+    <t>SketchGen</t>
+  </si>
+  <si>
+    <t>111XX000</t>
+  </si>
+  <si>
+    <t>Swati Rathod</t>
+  </si>
+  <si>
+    <t>201cs162</t>
+  </si>
+  <si>
+    <t>Vaishnavi L</t>
+  </si>
+  <si>
+    <t>201cs265</t>
+  </si>
+  <si>
+    <t>Fathima Fareeda</t>
+  </si>
+  <si>
+    <t>201CS232</t>
+  </si>
+  <si>
+    <t>Roshan Gupta</t>
+  </si>
+  <si>
+    <t>201EC156</t>
+  </si>
+  <si>
+    <t>Priyansh Patidar</t>
+  </si>
+  <si>
+    <t>201CS144</t>
+  </si>
+  <si>
+    <t>Apurva S</t>
+  </si>
+  <si>
+    <t>201EE209</t>
+  </si>
+  <si>
+    <t>Jitin Viji Mandokara</t>
+  </si>
+  <si>
+    <t>Vishnu Radhakrishnan</t>
+  </si>
+  <si>
+    <t>201CH062</t>
+  </si>
+  <si>
+    <t>Obscura</t>
+  </si>
+  <si>
+    <t>201CS021</t>
+  </si>
+  <si>
+    <t>ansh bindlish</t>
+  </si>
+  <si>
+    <t>201ee109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vandana kamal </t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>201EC161</t>
+  </si>
+  <si>
+    <t>sai surya</t>
+  </si>
+  <si>
+    <t>201cv158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priyanka </t>
+  </si>
+  <si>
+    <t>201ec250</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Priyanka Narayan </t>
+  </si>
+  <si>
+    <t>201cv239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sampreet s s </t>
+  </si>
+  <si>
+    <t>201cv147</t>
+  </si>
+  <si>
+    <t>Barigali S viraj</t>
+  </si>
+  <si>
+    <t>201cv210</t>
+  </si>
+  <si>
+    <t>Rishit Sherekar</t>
+  </si>
+  <si>
+    <t>201EC254</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1239,18 +1809,16 @@
       <name val="Arial"/>
     </font>
     <font>
-      <name val="Arial"/>
-    </font>
-    <font>
       <color rgb="FF34A853"/>
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF34A853"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
-    <font/>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1287,6 +1855,12 @@
         <bgColor theme="7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -1294,7 +1868,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1330,34 +1904,31 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7837,17 +8408,17 @@
       <c r="B2" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="15" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7858,14 +8429,14 @@
       <c r="B3" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="16" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="14" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7876,12 +8447,12 @@
       <c r="B4" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="J4" s="17" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="J4" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7892,16 +8463,16 @@
       <c r="B5" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="C5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7912,13 +8483,13 @@
       <c r="B6" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="13" t="s">
+      <c r="C6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7929,11 +8500,11 @@
       <c r="B7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13" t="s">
+      <c r="C7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7945,10 +8516,10 @@
         <v>16</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="13" t="s">
+      <c r="D8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7959,11 +8530,11 @@
       <c r="B9" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="13" t="s">
+      <c r="C9" s="4"/>
+      <c r="D9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -7971,14 +8542,14 @@
       <c r="A10" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="13"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="12"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
@@ -7987,9 +8558,9 @@
       <c r="B11" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13" t="s">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8000,9 +8571,9 @@
       <c r="B12" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -8013,9 +8584,9 @@
       <c r="B13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="12"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
@@ -8024,20 +8595,20 @@
       <c r="B14" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="20"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="17"/>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="18">
         <v>2010121.0</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
@@ -8046,9 +8617,9 @@
       <c r="B16" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -8113,8 +8684,2738 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
+    <row r="2">
+      <c r="A2" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="20" t="s">
+        <v>514</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G138" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="B157" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="D157" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="D158" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="20" t="s">
+        <v>569</v>
+      </c>
+      <c r="B162" s="20" t="s">
+        <v>570</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="4" t="s">
+        <v>571</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="4" t="s">
+        <v>575</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A126:B126"/>
+  </mergeCells>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/SQ1 Leaderboard-Points.xlsx
+++ b/SQ1 Leaderboard-Points.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2172" uniqueCount="680">
   <si>
     <t>Name</t>
   </si>
@@ -1782,13 +1782,316 @@
   </si>
   <si>
     <t>201EC254</t>
+  </si>
+  <si>
+    <t>KISHAN SINGH</t>
+  </si>
+  <si>
+    <t>201MT052</t>
+  </si>
+  <si>
+    <t>PRATEEK NIRANJAN</t>
+  </si>
+  <si>
+    <t>201MT039</t>
+  </si>
+  <si>
+    <t>Adarsh Jaju</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MIDDINTI PREM  KUMAR  </t>
+  </si>
+  <si>
+    <t>201ME333</t>
+  </si>
+  <si>
+    <t>Abhay</t>
+  </si>
+  <si>
+    <t>Anirudh Singh Solanki</t>
+  </si>
+  <si>
+    <t>201EE107</t>
+  </si>
+  <si>
+    <t>Aryaman Sharma</t>
+  </si>
+  <si>
+    <t>Aswin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fathima Farida </t>
+  </si>
+  <si>
+    <t>201EE101</t>
+  </si>
+  <si>
+    <t>Prathamesh I Dongritot</t>
+  </si>
+  <si>
+    <t>Saagar sp</t>
+  </si>
+  <si>
+    <t>Shubhrank Mishra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somesh Sharma </t>
+  </si>
+  <si>
+    <t>Alokik Kumar Sinha</t>
+  </si>
+  <si>
+    <t>Sumukh C Prakash</t>
+  </si>
+  <si>
+    <t>201EE160</t>
+  </si>
+  <si>
+    <t>Uthiksha Sridhar</t>
+  </si>
+  <si>
+    <t>201EC265</t>
+  </si>
+  <si>
+    <t>NISCHAYI</t>
+  </si>
+  <si>
+    <t>UNNATHI S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201ME361 </t>
+  </si>
+  <si>
+    <t>A R SHRIRAMU</t>
+  </si>
+  <si>
+    <t>210ME155</t>
+  </si>
+  <si>
+    <t>ABHILASH BHARADWAJ</t>
+  </si>
+  <si>
+    <t>Advaith Prasad Curpod</t>
+  </si>
+  <si>
+    <t>201IT204</t>
+  </si>
+  <si>
+    <t>AJAY SINGH</t>
+  </si>
+  <si>
+    <t>201IT205</t>
+  </si>
+  <si>
+    <t>Ansh</t>
+  </si>
+  <si>
+    <t>201EE109</t>
+  </si>
+  <si>
+    <t>ANSHIKA KHANDELWAL</t>
+  </si>
+  <si>
+    <t>201MN010</t>
+  </si>
+  <si>
+    <t>201CS208</t>
+  </si>
+  <si>
+    <t>Azeem</t>
+  </si>
+  <si>
+    <t>Balachandar Raman Vasan</t>
+  </si>
+  <si>
+    <t>201ME212</t>
+  </si>
+  <si>
+    <t>Deepanshu Gupta</t>
+  </si>
+  <si>
+    <t>201EE119</t>
+  </si>
+  <si>
+    <t>Geethanjali Manoj Kumar</t>
+  </si>
+  <si>
+    <t>201IT220</t>
+  </si>
+  <si>
+    <t>Himanshu Garud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madhan Raj R </t>
+  </si>
+  <si>
+    <t>Mehul Todi</t>
+  </si>
+  <si>
+    <t>201CS133</t>
+  </si>
+  <si>
+    <t>Narendra Jakhar</t>
+  </si>
+  <si>
+    <t>201CH037</t>
+  </si>
+  <si>
+    <t>201EE237</t>
+  </si>
+  <si>
+    <t>Pranav Agarwal</t>
+  </si>
+  <si>
+    <t>PROTYUSH ROY</t>
+  </si>
+  <si>
+    <t>Racheet</t>
+  </si>
+  <si>
+    <t>Radhika Chhabra</t>
+  </si>
+  <si>
+    <t>Raghavendra</t>
+  </si>
+  <si>
+    <t>201EC252</t>
+  </si>
+  <si>
+    <t>Raj Aryan</t>
+  </si>
+  <si>
+    <t>201EC253</t>
+  </si>
+  <si>
+    <t>Rohit Taparia</t>
+  </si>
+  <si>
+    <t>201EE248</t>
+  </si>
+  <si>
+    <t>SAI SURYA</t>
+  </si>
+  <si>
+    <t>201CV158</t>
+  </si>
+  <si>
+    <t>Samiran</t>
+  </si>
+  <si>
+    <t>201EE165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seetha </t>
+  </si>
+  <si>
+    <t>Shreekara Aithala</t>
+  </si>
+  <si>
+    <t>201EE251</t>
+  </si>
+  <si>
+    <t>Shreya Ostwal</t>
+  </si>
+  <si>
+    <t>201IT160</t>
+  </si>
+  <si>
+    <t>Shreyas</t>
+  </si>
+  <si>
+    <t>201EE253</t>
+  </si>
+  <si>
+    <t>201MT057</t>
+  </si>
+  <si>
+    <t>Thakur Om Vilasinha</t>
+  </si>
+  <si>
+    <t>Thejaswi N</t>
+  </si>
+  <si>
+    <t>Tupe Aniket Ankush</t>
+  </si>
+  <si>
+    <t>Udaya Kiran S</t>
+  </si>
+  <si>
+    <t>201CH058</t>
+  </si>
+  <si>
+    <t>VAISHNOVI PANDITH</t>
+  </si>
+  <si>
+    <t>VANDHANA</t>
+  </si>
+  <si>
+    <t>201CV259</t>
+  </si>
+  <si>
+    <t>Vanshika Jolly</t>
+  </si>
+  <si>
+    <t>Yoganath</t>
+  </si>
+  <si>
+    <t>201MT063</t>
+  </si>
+  <si>
+    <t>Adithya MS</t>
+  </si>
+  <si>
+    <t>201CS203</t>
+  </si>
+  <si>
+    <t>Dharaneedaran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dhruv Yadav </t>
+  </si>
+  <si>
+    <t>harshitha killi</t>
+  </si>
+  <si>
+    <t>KOWSHIC V</t>
+  </si>
+  <si>
+    <t>203IT231</t>
+  </si>
+  <si>
+    <t>Pranav B K</t>
+  </si>
+  <si>
+    <t>201CV238</t>
+  </si>
+  <si>
+    <t>Pratham Gupta</t>
+  </si>
+  <si>
+    <t>201ME344</t>
+  </si>
+  <si>
+    <t>Solayappan Arunachallam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201EE158 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sukrit Dass T M </t>
+  </si>
+  <si>
+    <t>Vinay Kumar Lohani</t>
+  </si>
+  <si>
+    <t>201IT165</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1817,8 +2120,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1861,14 +2167,46 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA4C2F4"/>
+        <bgColor rgb="FFA4C2F4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1929,6 +2267,27 @@
     </xf>
     <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11475,6 +11834,1391 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>580</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>582</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="21" t="s">
+        <v>583</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="21" t="s">
+        <v>584</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>585</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="21" t="s">
+        <v>586</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="21" t="s">
+        <v>353</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="21" t="s">
+        <v>590</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="21" t="s">
+        <v>591</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>592</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="s">
+        <v>593</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>220</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="21" t="s">
+        <v>594</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="21" t="s">
+        <v>494</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="21" t="s">
+        <v>496</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="21" t="s">
+        <v>597</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="21" t="s">
+        <v>598</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>599</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="s">
+        <v>600</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>601</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="21" t="s">
+        <v>602</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="21" t="s">
+        <v>605</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>606</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>511</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="21" t="s">
+        <v>608</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="21" t="s">
+        <v>612</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>613</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>615</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="24" t="s">
+        <v>529</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="21" t="s">
+        <v>617</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="24" t="s">
+        <v>618</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>619</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="21" t="s">
+        <v>620</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>621</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="s">
+        <v>622</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>623</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="21" t="s">
+        <v>396</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="21" t="s">
+        <v>625</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>524</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>627</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="21" t="s">
+        <v>628</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>629</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="24" t="s">
+        <v>521</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>630</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="21" t="s">
+        <v>337</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="21" t="s">
+        <v>633</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="24" t="s">
+        <v>634</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>534</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="21" t="s">
+        <v>635</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>636</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="21" t="s">
+        <v>637</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>638</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="24" t="s">
+        <v>639</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>640</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="21" t="s">
+        <v>641</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>642</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="24" t="s">
+        <v>643</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>644</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="21" t="s">
+        <v>646</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>647</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="24" t="s">
+        <v>648</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>649</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="21" t="s">
+        <v>650</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>651</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="21" t="s">
+        <v>654</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>540</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="24" t="s">
+        <v>655</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>513</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="21" t="s">
+        <v>656</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>657</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="21" t="s">
+        <v>658</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>660</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="21" t="s">
+        <v>662</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>663</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="27" t="s">
+        <v>664</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="21" t="s">
+        <v>666</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="24" t="s">
+        <v>667</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="B106" s="21" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="B108" s="21" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="B111" s="21" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="21" t="s">
+        <v>673</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="21" t="s">
+        <v>675</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="21" t="s">
+        <v>677</v>
+      </c>
+      <c r="B116" s="21" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B117" s="26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" s="26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="27" t="s">
+        <v>678</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>679</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
